--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_295.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_295.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32655-d11894770-Reviews-Freehand_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>141</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Freehand-Los-Angeles.h16317325.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_295.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_295.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="440">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1268 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/02/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r589256617-Freehand_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>32655</t>
+  </si>
+  <si>
+    <t>11894770</t>
+  </si>
+  <si>
+    <t>589256617</t>
+  </si>
+  <si>
+    <t>06/20/2018</t>
+  </si>
+  <si>
+    <t>Love the Freehand!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I stay at the Freehand every time I visit downtown LA. I’ve enjoyed my visit every time and the restaurants food is to die for! Lots of fun bars and shops surrounding the area. Also, the rooftop of the Freehand is fun if you don’t want to travel far. </t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r588508258-Freehand_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>588508258</t>
+  </si>
+  <si>
+    <t>06/18/2018</t>
+  </si>
+  <si>
+    <t>Hip Hotel in the Heart of LA</t>
+  </si>
+  <si>
+    <t>We stayed at the Freehand for just one night earlier this month and we had a great stay.  The room was clean and definitely fashionably decorated.  The hotel as a whole is beautiful and historic.  Staff was friendly and helped make our stay so great.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r588408955-Freehand_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>588408955</t>
+  </si>
+  <si>
+    <t>Didn't Want to Leave</t>
+  </si>
+  <si>
+    <t>I stumbled upon this hotel last minute a few days before I needed to be in town for E3. I usually stay at super chains, but the convention had led to a price surge. This place was a great price so I gave it a shot, not knowing anything about it. I LOVED IT. Seriously wish I could have spent my whole trip there, or at least had more time to spend at the hotel. My room was so comfortable and homey, the bar and lounge were incredibly inviting, and the pool and rooftop bar looked awesome! I will definitely be staying here on any future trips to DTLA, whether for work or for pleasure.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>I stumbled upon this hotel last minute a few days before I needed to be in town for E3. I usually stay at super chains, but the convention had led to a price surge. This place was a great price so I gave it a shot, not knowing anything about it. I LOVED IT. Seriously wish I could have spent my whole trip there, or at least had more time to spend at the hotel. My room was so comfortable and homey, the bar and lounge were incredibly inviting, and the pool and rooftop bar looked awesome! I will definitely be staying here on any future trips to DTLA, whether for work or for pleasure.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r587049891-Freehand_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>587049891</t>
+  </si>
+  <si>
+    <t>06/12/2018</t>
+  </si>
+  <si>
+    <t>Wonderful stay</t>
+  </si>
+  <si>
+    <t>We stayed here last month for 2 nights and was very impressed. This hotel is split between a regular hotel and a more "dorm" oriented place. We stayed in the normal hotel part, so can only comment on that. Upon arrival, the valet service quickly and politely arranged to take care of our car and we went to reception. The staff were very friendly and provided us with any info we needed. There is also a large bar area by reception where you can chill out with a drink (or 3)! Our room had a lovely view of the city with all the mod cons that we needed. There is also a rooftop swimming pool and bar, which serves great cocktails and beers items. We didn't use the pool, though it looked lovely and there were plenty of sunbeds around. Cannot fault anything about this place and would definitely love to stay here again in the future. Thanks Freehand!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>Elizabeth P, Manager at Freehand Los Angeles, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>We stayed here last month for 2 nights and was very impressed. This hotel is split between a regular hotel and a more "dorm" oriented place. We stayed in the normal hotel part, so can only comment on that. Upon arrival, the valet service quickly and politely arranged to take care of our car and we went to reception. The staff were very friendly and provided us with any info we needed. There is also a large bar area by reception where you can chill out with a drink (or 3)! Our room had a lovely view of the city with all the mod cons that we needed. There is also a rooftop swimming pool and bar, which serves great cocktails and beers items. We didn't use the pool, though it looked lovely and there were plenty of sunbeds around. Cannot fault anything about this place and would definitely love to stay here again in the future. Thanks Freehand!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r586717312-Freehand_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>586717312</t>
+  </si>
+  <si>
+    <t>06/11/2018</t>
+  </si>
+  <si>
+    <t>A beautiful place</t>
+  </si>
+  <si>
+    <t>Everything about it was lovely, homely, simple yet classy. The rooms were nice, didn’t much enjoy the sharing part so changed to a single occupancy which allowed me the flexibility and freedom I needed. But for travelers on budget who also want to make friends, the dom type of rooms are great.Loved the pool upstairs .. simply beautiful colors and vibe, great drinks good music Their breakfast however can be improved .. so don’t plan on eating there much better out of the resortMoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Everything about it was lovely, homely, simple yet classy. The rooms were nice, didn’t much enjoy the sharing part so changed to a single occupancy which allowed me the flexibility and freedom I needed. But for travelers on budget who also want to make friends, the dom type of rooms are great.Loved the pool upstairs .. simply beautiful colors and vibe, great drinks good music Their breakfast however can be improved .. so don’t plan on eating there much better out of the resortMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r585236835-Freehand_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>585236835</t>
+  </si>
+  <si>
+    <t>06/05/2018</t>
+  </si>
+  <si>
+    <t>Beyond my Expectations</t>
+  </si>
+  <si>
+    <t>The room was very spacious and the people were nice. There was a rooftop pool with an amazing view and the hotel restaurant was delicious and pretty! I was a bit skeptical since I like to have my own space, but the price is great especially if you want to spend money on other areas of your vacation. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Elizabeth P, Manager at Freehand Los Angeles, responded to this reviewResponded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>The room was very spacious and the people were nice. There was a rooftop pool with an amazing view and the hotel restaurant was delicious and pretty! I was a bit skeptical since I like to have my own space, but the price is great especially if you want to spend money on other areas of your vacation. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r583180746-Freehand_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>583180746</t>
+  </si>
+  <si>
+    <t>05/27/2018</t>
+  </si>
+  <si>
+    <t>Solo LA trip success!</t>
+  </si>
+  <si>
+    <t>Stayed in the hostel style room. Met amazing people. Had fun on the rooftop bar. Can not wait to go back! This is my LA hotel! Staff was friendly, they had everything I needed and perfect location!!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r583041051-Freehand_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>583041051</t>
+  </si>
+  <si>
+    <t>Bad weekend to visit for the first time</t>
+  </si>
+  <si>
+    <t>Some great things and some downers about Freehand LA. I would try it again but not a female only shared quad. Also this is MD weekend so really busy. I moved rooms because of smell in the room from roomies rolling their joints and lots of perfume. Second room there was a drama about the lockers and someones lock getting taking off and their stuff being down at the front desk. I did not want to get involved. I slept with my luggage and didn't really sleep well. But I don't sleep great on the road so it wasn't Freehands fault. 
+Weird things with the sheets. the top sheet you put on yourself and the blankets are megre and I am assuming they aren't changed with every guest but thats a yuck factor. We were supposed to get shampoo  with our one towl in out locker but netiher room I was in had the shampoo. The first room I was in they brought some up but then I switched. The second room no shampoo. As I was checking out this was a complaint voiced by many others no shampoo. I am guessing that the non us people don't use the top sheet. In fact my roomies used the top sheet to screen out and drape the lower bunk space. I found this sort of disturbing, what if they are in their with another person...
+The shared quads I was in...Some great things and some downers about Freehand LA. I would try it again but not a female only shared quad. Also this is MD weekend so really busy. I moved rooms because of smell in the room from roomies rolling their joints and lots of perfume. Second room there was a drama about the lockers and someones lock getting taking off and their stuff being down at the front desk. I did not want to get involved. I slept with my luggage and didn't really sleep well. But I don't sleep great on the road so it wasn't Freehands fault. Weird things with the sheets. the top sheet you put on yourself and the blankets are megre and I am assuming they aren't changed with every guest but thats a yuck factor. We were supposed to get shampoo  with our one towl in out locker but netiher room I was in had the shampoo. The first room I was in they brought some up but then I switched. The second room no shampoo. As I was checking out this was a complaint voiced by many others no shampoo. I am guessing that the non us people don't use the top sheet. In fact my roomies used the top sheet to screen out and drape the lower bunk space. I found this sort of disturbing, what if they are in their with another person...The shared quads I was in were very small, no TV, no place to open up luggage other than your bed. The details were nice, big bath tile in floor nice big shower. Everything seemed clean, no arthropods. The windows were big and on the ninth floor the veiw was beautiful really gorgeous. Some noise but not unpleasant. On the fourth floor veiw of the ally wall. The bunks are interesting. I liked the cavelike lower bunk, the upper bunk was a little more work to get in and out of.The management was awesome and helped with my room. I think this was a crazy weekend for them. I have stayed in europe in many shared single sex hostel rooms and this seemed to be very different from the norms others showed when sharing a room. The complementary breakfast isn't a positive experince a simple kitchenette where you are expected to wash your own dishes. Most people were dumping their stuff in the sink, cherrios, apples and weak coffee. Free and basic. At 7 am it was already cramped with 12 people in there.MoreShow less</t>
+  </si>
+  <si>
+    <t>Some great things and some downers about Freehand LA. I would try it again but not a female only shared quad. Also this is MD weekend so really busy. I moved rooms because of smell in the room from roomies rolling their joints and lots of perfume. Second room there was a drama about the lockers and someones lock getting taking off and their stuff being down at the front desk. I did not want to get involved. I slept with my luggage and didn't really sleep well. But I don't sleep great on the road so it wasn't Freehands fault. 
+Weird things with the sheets. the top sheet you put on yourself and the blankets are megre and I am assuming they aren't changed with every guest but thats a yuck factor. We were supposed to get shampoo  with our one towl in out locker but netiher room I was in had the shampoo. The first room I was in they brought some up but then I switched. The second room no shampoo. As I was checking out this was a complaint voiced by many others no shampoo. I am guessing that the non us people don't use the top sheet. In fact my roomies used the top sheet to screen out and drape the lower bunk space. I found this sort of disturbing, what if they are in their with another person...
+The shared quads I was in...Some great things and some downers about Freehand LA. I would try it again but not a female only shared quad. Also this is MD weekend so really busy. I moved rooms because of smell in the room from roomies rolling their joints and lots of perfume. Second room there was a drama about the lockers and someones lock getting taking off and their stuff being down at the front desk. I did not want to get involved. I slept with my luggage and didn't really sleep well. But I don't sleep great on the road so it wasn't Freehands fault. Weird things with the sheets. the top sheet you put on yourself and the blankets are megre and I am assuming they aren't changed with every guest but thats a yuck factor. We were supposed to get shampoo  with our one towl in out locker but netiher room I was in had the shampoo. The first room I was in they brought some up but then I switched. The second room no shampoo. As I was checking out this was a complaint voiced by many others no shampoo. I am guessing that the non us people don't use the top sheet. In fact my roomies used the top sheet to screen out and drape the lower bunk space. I found this sort of disturbing, what if they are in their with another person...The shared quads I was in were very small, no TV, no place to open up luggage other than your bed. The details were nice, big bath tile in floor nice big shower. Everything seemed clean, no arthropods. The windows were big and on the ninth floor the veiw was beautiful really gorgeous. Some noise but not unpleasant. On the fourth floor veiw of the ally wall. The bunks are interesting. I liked the cavelike lower bunk, the upper bunk was a little more work to get in and out of.The management was awesome and helped with my room. I think this was a crazy weekend for them. I have stayed in europe in many shared single sex hostel rooms and this seemed to be very different from the norms others showed when sharing a room. The complementary breakfast isn't a positive experince a simple kitchenette where you are expected to wash your own dishes. Most people were dumping their stuff in the sink, cherrios, apples and weak coffee. Free and basic. At 7 am it was already cramped with 12 people in there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r581763814-Freehand_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>581763814</t>
+  </si>
+  <si>
+    <t>05/21/2018</t>
+  </si>
+  <si>
+    <t>Hostel Room with a Hotel Vibe</t>
+  </si>
+  <si>
+    <t>I chose Freehand because of the price point in the area and because I knew it was recently built. It didn’t disappoint. Very nicely appointed lobby, beds and bathrooms. Nice staff at front desk and the bar.The quad room I was allocated was smaller than the one I’ve seen in pictures but it still felt private when lying on the bed.Clean bathroom attached to the dorm room with separate areas for sinks (two of them), toilet and shower. Only thing I thought was strange is that there was no locks on the toilet or shower door.Great location to explore the up and coming downtown LA area and a quick 5 min walk to the metro station to travel elsewhere.MoreShow less</t>
+  </si>
+  <si>
+    <t>I chose Freehand because of the price point in the area and because I knew it was recently built. It didn’t disappoint. Very nicely appointed lobby, beds and bathrooms. Nice staff at front desk and the bar.The quad room I was allocated was smaller than the one I’ve seen in pictures but it still felt private when lying on the bed.Clean bathroom attached to the dorm room with separate areas for sinks (two of them), toilet and shower. Only thing I thought was strange is that there was no locks on the toilet or shower door.Great location to explore the up and coming downtown LA area and a quick 5 min walk to the metro station to travel elsewhere.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r580681063-Freehand_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>580681063</t>
+  </si>
+  <si>
+    <t>05/16/2018</t>
+  </si>
+  <si>
+    <t>Great staff, rooms, pool and bar</t>
+  </si>
+  <si>
+    <t>We had a business trip to LA and will not forget this place. It was absolutely fantastic.The place is just cool and the pool on the roof was rocking on Saturday afternoon.The staff were great and the food in the restaurant was excellent. I wan to go back ...now.</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r580421651-Freehand_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>580421651</t>
+  </si>
+  <si>
+    <t>05/15/2018</t>
+  </si>
+  <si>
+    <t>Great location &amp; rooftop pool</t>
+  </si>
+  <si>
+    <t>**note**
+There are 2 types of rooms available here-
+Hostel style with shared rooms OR private hotel rooms. 
+We were thinking it might be a little noisy sometimes with there being a backpackers place mixed in; it wasn’t. However, with it being an old building the windows are single glazed, so some of the outside street noise was noticeable. It was great to see this old building being re-used, as opposed to the LA way (sometimes) of knocking things down and starting again. 
+We had a private room with all usual amenities.  Toiletries, hairdryer, iron &amp; board, safe, minibar. WiFi.
+No tea/coffee making facilities. 
+Our room was perfectly adequate for what we needed. It’s not a massive floor space so with 2 large suitcases sprawled out over the floor it was a squeeze walking around. But it was still ok &amp; that’s our problem.
+There is some hanging space for clothes, it’s a small cupboard which also houses the ironing board &amp; safe.
+Bed was huge &amp; very comfortable.
+The rooftop has a pool with sun loungers around &amp; towels to use. The bar area is behind &amp; opens later on in the afternoon, a good space to hang out. It does get very busy though &amp; sometimes you have to wait a while for the lifts to be free.
+We popped into the Exchange restaurant  late one evening for drinks &amp; some light snacks. We asked for a table...**note**There are 2 types of rooms available here-Hostel style with shared rooms OR private hotel rooms. We were thinking it might be a little noisy sometimes with there being a backpackers place mixed in; it wasn’t. However, with it being an old building the windows are single glazed, so some of the outside street noise was noticeable. It was great to see this old building being re-used, as opposed to the LA way (sometimes) of knocking things down and starting again. We had a private room with all usual amenities.  Toiletries, hairdryer, iron &amp; board, safe, minibar. WiFi.No tea/coffee making facilities. Our room was perfectly adequate for what we needed. It’s not a massive floor space so with 2 large suitcases sprawled out over the floor it was a squeeze walking around. But it was still ok &amp; that’s our problem.There is some hanging space for clothes, it’s a small cupboard which also houses the ironing board &amp; safe.Bed was huge &amp; very comfortable.The rooftop has a pool with sun loungers around &amp; towels to use. The bar area is behind &amp; opens later on in the afternoon, a good space to hang out. It does get very busy though &amp; sometimes you have to wait a while for the lifts to be free.We popped into the Exchange restaurant  late one evening for drinks &amp; some light snacks. We asked for a table for 2...the servers spent time looking around to see where they could sit us, eventually offered a place at the bar. No problem, but felt it strange that there were tables available (they needed cleaning up) &amp; remained empty the whole time we were there. Food was lovely but we felt it was expensive for what we had.Location for hotel is great. A short walk from the metro station at 7th Street. Handy to get to anywhere with all lines passing through here. On leaving the metro follow the signs for the shops &amp; it will bring you out at Macy’s Plaza.The Wholefoods Market is close by &amp; has anything you want plus more- highly recommend the salad bars &amp; pizza slices!  **transfer tip from LAX**Outside the terminals are bus stops - look for the one with Metro Green Line.These are free shuttles &amp; will stop at every terminal &amp; then drop off at ‘Aviation station’ Not much room for large cases but just squeeze in.Buy a TAP card ($1) here, you can load different values on to it now if you wish.One way fare $1.75 (you can transfer to another line within a 2hr window for free)On the metro train head for Norwalk but you will need to get off at Willowbrook/Rosa Park Transfer to the blue line heading L.A. (not long beach) stay on to the end of the line..7th street/metro centre.So easy &amp; cheap. Allow an hour at least depending on time of day.We also returned to LAX the same via metro &amp; shuttle. We left 7th street @9.30 &amp; got to Terminal 3 @11.00.MoreShow less</t>
+  </si>
+  <si>
+    <t>**note**
+There are 2 types of rooms available here-
+Hostel style with shared rooms OR private hotel rooms. 
+We were thinking it might be a little noisy sometimes with there being a backpackers place mixed in; it wasn’t. However, with it being an old building the windows are single glazed, so some of the outside street noise was noticeable. It was great to see this old building being re-used, as opposed to the LA way (sometimes) of knocking things down and starting again. 
+We had a private room with all usual amenities.  Toiletries, hairdryer, iron &amp; board, safe, minibar. WiFi.
+No tea/coffee making facilities. 
+Our room was perfectly adequate for what we needed. It’s not a massive floor space so with 2 large suitcases sprawled out over the floor it was a squeeze walking around. But it was still ok &amp; that’s our problem.
+There is some hanging space for clothes, it’s a small cupboard which also houses the ironing board &amp; safe.
+Bed was huge &amp; very comfortable.
+The rooftop has a pool with sun loungers around &amp; towels to use. The bar area is behind &amp; opens later on in the afternoon, a good space to hang out. It does get very busy though &amp; sometimes you have to wait a while for the lifts to be free.
+We popped into the Exchange restaurant  late one evening for drinks &amp; some light snacks. We asked for a table...**note**There are 2 types of rooms available here-Hostel style with shared rooms OR private hotel rooms. We were thinking it might be a little noisy sometimes with there being a backpackers place mixed in; it wasn’t. However, with it being an old building the windows are single glazed, so some of the outside street noise was noticeable. It was great to see this old building being re-used, as opposed to the LA way (sometimes) of knocking things down and starting again. We had a private room with all usual amenities.  Toiletries, hairdryer, iron &amp; board, safe, minibar. WiFi.No tea/coffee making facilities. Our room was perfectly adequate for what we needed. It’s not a massive floor space so with 2 large suitcases sprawled out over the floor it was a squeeze walking around. But it was still ok &amp; that’s our problem.There is some hanging space for clothes, it’s a small cupboard which also houses the ironing board &amp; safe.Bed was huge &amp; very comfortable.The rooftop has a pool with sun loungers around &amp; towels to use. The bar area is behind &amp; opens later on in the afternoon, a good space to hang out. It does get very busy though &amp; sometimes you have to wait a while for the lifts to be free.We popped into the Exchange restaurant  late one evening for drinks &amp; some light snacks. We asked for a table for 2...the servers spent time looking around to see where they could sit us, eventually offered a place at the bar. No problem, but felt it strange that there were tables available (they needed cleaning up) &amp; remained empty the whole time we were there. Food was lovely but we felt it was expensive for what we had.Location for hotel is great. A short walk from the metro station at 7th Street. Handy to get to anywhere with all lines passing through here. On leaving the metro follow the signs for the shops &amp; it will bring you out at Macy’s Plaza.The Wholefoods Market is close by &amp; has anything you want plus more- highly recommend the salad bars &amp; pizza slices!  **transfer tip from LAX**Outside the terminals are bus stops - look for the one with Metro Green Line.These are free shuttles &amp; will stop at every terminal &amp; then drop off at ‘Aviation station’ Not much room for large cases but just squeeze in.Buy a TAP card ($1) here, you can load different values on to it now if you wish.One way fare $1.75 (you can transfer to another line within a 2hr window for free)On the metro train head for Norwalk but you will need to get off at Willowbrook/Rosa Park Transfer to the blue line heading L.A. (not long beach) stay on to the end of the line..7th street/metro centre.So easy &amp; cheap. Allow an hour at least depending on time of day.We also returned to LAX the same via metro &amp; shuttle. We left 7th street @9.30 &amp; got to Terminal 3 @11.00.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r580209666-Freehand_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>580209666</t>
+  </si>
+  <si>
+    <t>05/14/2018</t>
+  </si>
+  <si>
+    <t>Funky decor with phenomenal rooftop pool</t>
+  </si>
+  <si>
+    <t>Friendly staff with spacious rooms. My personal favorite was the rooftop pool with comfortable seating, but it can be a bit crowded in the evening.  The area has several  cute bars and restaurants within a 3-4 block radius.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r578550388-Freehand_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>578550388</t>
+  </si>
+  <si>
+    <t>05/07/2018</t>
+  </si>
+  <si>
+    <t>Excellent Location with Lively Rooftop Pool</t>
+  </si>
+  <si>
+    <t>This "hostel" is hardly a hostel with plenty of "standard-type" hotel rooms with chic design from Roman &amp; Williams.  The DTLA location is mid-point between the business district and Staples Center and within walking distance to most of the hot restaurants. Loved The Exchange lobby restaurant and the day time party at the rooftop pool.  The rooms are well-appointed and I appreciated the top-to-bottom renovation which includes all new bathrooms. Terrific addition to LA.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r578427757-Freehand_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>578427757</t>
+  </si>
+  <si>
+    <t>05/06/2018</t>
+  </si>
+  <si>
+    <t>Perfect hotel for a solo traveller</t>
+  </si>
+  <si>
+    <t>Hi stayed at the Freehand for a few nights - I was travelling alone and wanted a good balance between meeting people (hostel vibe) and a nice place to stay. Freehand was perfect. There are hostel and hotel rooms and I stayed in a 4 bed dorm. It was the nicest dorm I've ever stayed in - a little more expensive than most but worth it. The hotel bar on the rooftop was lovely and an amazing spot to sunbathe, there's happy hour in the downstairs bar and also breakfast included. I walked around DTLA from the hotel and went to a few food markets close by as well as some fun bars such as the one at Ace Hotel. I'd really recommend it.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>Hi stayed at the Freehand for a few nights - I was travelling alone and wanted a good balance between meeting people (hostel vibe) and a nice place to stay. Freehand was perfect. There are hostel and hotel rooms and I stayed in a 4 bed dorm. It was the nicest dorm I've ever stayed in - a little more expensive than most but worth it. The hotel bar on the rooftop was lovely and an amazing spot to sunbathe, there's happy hour in the downstairs bar and also breakfast included. I walked around DTLA from the hotel and went to a few food markets close by as well as some fun bars such as the one at Ace Hotel. I'd really recommend it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r577966664-Freehand_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>577966664</t>
+  </si>
+  <si>
+    <t>05/04/2018</t>
+  </si>
+  <si>
+    <t>Struggle to call this a hostel</t>
+  </si>
+  <si>
+    <t>Me and my girlfriend booked this on the pretence we would have more upscale hostel experience but that didn't prove to be the case. The freehand is basically a trendy hotel with a hostel as an after thought in it. Pros:- rooftop bar looks great at night- the decor is great- the taco truck across the streetCons:- continental breakfast is PACKED (tiny room and hundreds of guests) and things run out quickly - there is no deals or cheap drinks for hostel guests (better happy hours in bars a block away)- lacks any atmosphere in the common room - our room didn't have a lock on the shower OR toilet - the gym in non existent - we were actually over charged twice for our booking The shining star in a pretty lousy experience was Nick the manager (the guy with the magnificent 'tache) he made up for our problems and went above and beyond to try to rectify the situation.If you're looking for the socialite scene this is your spot! If you're looking to meet like-minded travellers/back packers up for some fun stay clear ... genuinelyMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>Me and my girlfriend booked this on the pretence we would have more upscale hostel experience but that didn't prove to be the case. The freehand is basically a trendy hotel with a hostel as an after thought in it. Pros:- rooftop bar looks great at night- the decor is great- the taco truck across the streetCons:- continental breakfast is PACKED (tiny room and hundreds of guests) and things run out quickly - there is no deals or cheap drinks for hostel guests (better happy hours in bars a block away)- lacks any atmosphere in the common room - our room didn't have a lock on the shower OR toilet - the gym in non existent - we were actually over charged twice for our booking The shining star in a pretty lousy experience was Nick the manager (the guy with the magnificent 'tache) he made up for our problems and went above and beyond to try to rectify the situation.If you're looking for the socialite scene this is your spot! If you're looking to meet like-minded travellers/back packers up for some fun stay clear ... genuinelyMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r576959609-Freehand_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>576959609</t>
+  </si>
+  <si>
+    <t>04/30/2018</t>
+  </si>
+  <si>
+    <t>Great room, but would not visit again</t>
+  </si>
+  <si>
+    <t>I stayed in the hotel, not the hostel. The Good: Room was lovely, very spacious (especially compared to the comparably priced Nomad), wonderful natural light, good AC, free wifi. I was pleasantly surprised by the roomy bathroom that looked a bit grim on the web site. Fabulous cocktails and very good coffee from the cafe. The Bad: I've seen lots of positive comments on the restaurant but I just can't agree. The menu is limited. We ordered chicken one night that was so heavily salted it was inedible. (And I say this as someone who is always oversalting her food.) My egg sandwich from the cafe came with ice cold egg. Room service took nearly an hour to be delivered. For this price point, they can do better. The parking is $50 per day. I know parking at downtown hotels is steep but many other places offer packages or charge a flat rate. Street noise is intense so book a high floor. The Freehand is beautifully designed and clearly having its moment with a young crowd, but I'm not sure I can recommend it or return. I'm giving it 4 stars because it's certainly above average, but I'm tempted to grade it lower.MoreShow less</t>
+  </si>
+  <si>
+    <t>Elizabeth P, Manager at Freehand Los Angeles, responded to this reviewResponded May 1, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 1, 2018</t>
+  </si>
+  <si>
+    <t>I stayed in the hotel, not the hostel. The Good: Room was lovely, very spacious (especially compared to the comparably priced Nomad), wonderful natural light, good AC, free wifi. I was pleasantly surprised by the roomy bathroom that looked a bit grim on the web site. Fabulous cocktails and very good coffee from the cafe. The Bad: I've seen lots of positive comments on the restaurant but I just can't agree. The menu is limited. We ordered chicken one night that was so heavily salted it was inedible. (And I say this as someone who is always oversalting her food.) My egg sandwich from the cafe came with ice cold egg. Room service took nearly an hour to be delivered. For this price point, they can do better. The parking is $50 per day. I know parking at downtown hotels is steep but many other places offer packages or charge a flat rate. Street noise is intense so book a high floor. The Freehand is beautifully designed and clearly having its moment with a young crowd, but I'm not sure I can recommend it or return. I'm giving it 4 stars because it's certainly above average, but I'm tempted to grade it lower.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r575042568-Freehand_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>575042568</t>
+  </si>
+  <si>
+    <t>04/22/2018</t>
+  </si>
+  <si>
+    <t>Trendy, Hip, Bohemian Hotel/Hostel</t>
+  </si>
+  <si>
+    <t>The hotel was super cool and very trendy with a hip/bohemian feel. We had the super 8 room for the family. The service was very easy and friendly. Convenient valet in front of hotel, didn't have to search for parking, expensive but that is to be expected in a city. We were there for a cheer convention so unfortunately we didn't get to spend a lot of time at the hotel but it looked super fun to hang out at. There is a little coffee shop down in the lobby so that was great for the morning with a continental breakfast available in the basement. That evening we went on the rooftop to check out the pool, however there was a bar with lots of people enjoying the weather and drinks. Not able to swim after 8pm as it turns into an outside adult area. Great if the kids are not with you but that was not the case for us... still was fine as the girls were tired from day 1 of competition and us adults would have partaken but we had the kids... looked like fun though. The room was super clean and had all the amenities we needed. Overall we were super happy with our one night in the city. I would definitely stay there again if i needed a room in LA.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>The hotel was super cool and very trendy with a hip/bohemian feel. We had the super 8 room for the family. The service was very easy and friendly. Convenient valet in front of hotel, didn't have to search for parking, expensive but that is to be expected in a city. We were there for a cheer convention so unfortunately we didn't get to spend a lot of time at the hotel but it looked super fun to hang out at. There is a little coffee shop down in the lobby so that was great for the morning with a continental breakfast available in the basement. That evening we went on the rooftop to check out the pool, however there was a bar with lots of people enjoying the weather and drinks. Not able to swim after 8pm as it turns into an outside adult area. Great if the kids are not with you but that was not the case for us... still was fine as the girls were tired from day 1 of competition and us adults would have partaken but we had the kids... looked like fun though. The room was super clean and had all the amenities we needed. Overall we were super happy with our one night in the city. I would definitely stay there again if i needed a room in LA.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r574234168-Freehand_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>574234168</t>
+  </si>
+  <si>
+    <t>04/18/2018</t>
+  </si>
+  <si>
+    <t>Awful staff and room</t>
+  </si>
+  <si>
+    <t>This hotel has a great location in Los Angeles, and a nice overcrowded rooftopHowever they charged us for an extra 100$ on the checkout for drinks we did not take and got insulted by the manager when we pointed out the mistake. We did not sign any bills, but they did not want to verify anything.The room were not made, the breakfast is very poor and you wash up your own dishes like a youth hostel, which is unacceptable for this price.No shower gels or shampoo either ... MoreShow less</t>
+  </si>
+  <si>
+    <t>Elizabeth P, Manager at Freehand Los Angeles, responded to this reviewResponded April 19, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 19, 2018</t>
+  </si>
+  <si>
+    <t>This hotel has a great location in Los Angeles, and a nice overcrowded rooftopHowever they charged us for an extra 100$ on the checkout for drinks we did not take and got insulted by the manager when we pointed out the mistake. We did not sign any bills, but they did not want to verify anything.The room were not made, the breakfast is very poor and you wash up your own dishes like a youth hostel, which is unacceptable for this price.No shower gels or shampoo either ... More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r569897827-Freehand_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>569897827</t>
+  </si>
+  <si>
+    <t>03/31/2018</t>
+  </si>
+  <si>
+    <t>great location</t>
+  </si>
+  <si>
+    <t>Great location and plenty if facilities. Air conditioning is very noisy and curtains dont close properly s forget it if you want a dark room so you can sleep in. nice bar and food downstairs, staff are friendly and helful</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r569201971-Freehand_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>569201971</t>
+  </si>
+  <si>
+    <t>03/27/2018</t>
+  </si>
+  <si>
+    <t>A hotel from hell</t>
+  </si>
+  <si>
+    <t>It's a hostile and should stay this way. They are renting other rooms as hotel. Old, dar, scary, unpleasant, I lost money and moved to another hotel out of respect to myself. Wouldn't stay here again in they paid me</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r568123156-Freehand_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>568123156</t>
+  </si>
+  <si>
+    <t>03/22/2018</t>
+  </si>
+  <si>
+    <t>Downtown location, beautiful building, amazing roof terrace</t>
+  </si>
+  <si>
+    <t>However I had no chance to enjoy the roof terrace ad during my 2,5 days stay only the last half day was rain free but it seems to be a lovely place to hand out. I was also lucky with my roommates as everyone was very considerate to the others. The beds are comfy, the shower is great. I wish there were slightly healthier options for breakfast than just sugar with sugar.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r566545048-Freehand_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>566545048</t>
+  </si>
+  <si>
+    <t>03/14/2018</t>
+  </si>
+  <si>
+    <t>Hotel/Hostel?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Freehand is a Hotel with some Hostel rooms. The Hostel rooms are great and provide everything that you need. The beds are very comfortable. Besides the rooms it has got nothing to do with a hostel but thats fine. Breakfast is only ok but staff is amazing. I enjoyed my stay very much! </t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r565863486-Freehand_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>565863486</t>
+  </si>
+  <si>
+    <t>03/11/2018</t>
+  </si>
+  <si>
+    <t>Meh</t>
+  </si>
+  <si>
+    <t>So that made for the most expensive business trip ever, and very poor sleep, considering that the windows have single glass, so you're basically sleeping in the street noise, which never really stops. Not to mention the absence of any form of complimentary breakfast... Find something else.MoreShow less</t>
+  </si>
+  <si>
+    <t>Elizabeth P, Manager at Freehand Los Angeles, responded to this reviewResponded March 14, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 14, 2018</t>
+  </si>
+  <si>
+    <t>So that made for the most expensive business trip ever, and very poor sleep, considering that the windows have single glass, so you're basically sleeping in the street noise, which never really stops. Not to mention the absence of any form of complimentary breakfast... Find something else.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r565608315-Freehand_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>565608315</t>
+  </si>
+  <si>
+    <t>03/10/2018</t>
+  </si>
+  <si>
+    <t>okay for downtown area</t>
+  </si>
+  <si>
+    <t>Los Angeles is a big city and it is hard to find a good hotel/hostel in the downtown area. Otherwise there are much better hostels than freehand in Santa Monica area at a cheaper price. In fact, compared to Hostelling International and other European hostels, freehand has a higher price compared to the service provided. I took a quad female dorm -- I had called the hotel and emailed them to request a lower bunk bed. But still on arrival, I found they had paid no attention to my request. After telling them many times more that I cannot climb up, they arranged for a lower bed. The room was very small although the bed was comfortable. There was no shampoo/soap in shower.The staff was in general friendly. But on my departure day, when I was waiting in the lobby for a little time before leaving, the bar waitress told me that if it got busy, she would have to ask me to vacate my seat ! I found this quite unusual and rude as hotel lobbies are mean for guests spending some time even if they have checked out.Breakfast was basis-- bread, muffins, cornflakes, apple (if you go after 8 am, all apples are gone). You get plastic spoons and have to wash your own dishes. The breakfast area is tiny and there is a long line of people waiting for breakfast/cleaning their dishes.MoreShow less</t>
+  </si>
+  <si>
+    <t>Los Angeles is a big city and it is hard to find a good hotel/hostel in the downtown area. Otherwise there are much better hostels than freehand in Santa Monica area at a cheaper price. In fact, compared to Hostelling International and other European hostels, freehand has a higher price compared to the service provided. I took a quad female dorm -- I had called the hotel and emailed them to request a lower bunk bed. But still on arrival, I found they had paid no attention to my request. After telling them many times more that I cannot climb up, they arranged for a lower bed. The room was very small although the bed was comfortable. There was no shampoo/soap in shower.The staff was in general friendly. But on my departure day, when I was waiting in the lobby for a little time before leaving, the bar waitress told me that if it got busy, she would have to ask me to vacate my seat ! I found this quite unusual and rude as hotel lobbies are mean for guests spending some time even if they have checked out.Breakfast was basis-- bread, muffins, cornflakes, apple (if you go after 8 am, all apples are gone). You get plastic spoons and have to wash your own dishes. The breakfast area is tiny and there is a long line of people waiting for breakfast/cleaning their dishes.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r564101875-Freehand_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>564101875</t>
+  </si>
+  <si>
+    <t>03/03/2018</t>
+  </si>
+  <si>
+    <t>Cool Place..</t>
+  </si>
+  <si>
+    <t>This hotel is well priced in a neat location.Comfortable chic bar in the lobby.There is a restaurant but I did not try it due to the plethora of great places in LA.The rooms are a bit stark but the pool and bar on the rooftop make up for it.I certainly would go back.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r563615200-Freehand_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>563615200</t>
+  </si>
+  <si>
+    <t>03/01/2018</t>
+  </si>
+  <si>
+    <t>Just  a block away from the bus stop.</t>
+  </si>
+  <si>
+    <t>Checked in late on a Saturday night. lobby was a bit noisy because it is also where a bar is located. stayed in a hostel type room shared with 5 other people. Room was a little bit crowded with 6 people inside. At around about 2:30 am it was still noisy at the street area. The bunk bed has its own reading light and outlet you can charge your devices. Storage locker can fit a large size luggage ( which is good ) . Kitchen is located at the basement that is open 24 hours. there is also a small gym. The swimming pool is located on the roof deck, there is a small bar where you can order some drinks. it has a view of the city but not that  great. Paid almost $50 a night for a room that you have to share with 5 other people. When I stayed that week there was no soap nor shampoo provided.Woman employee at the desk positioned at the left is rude. It was like 8 am of Feb 11, 2018. Overall..i have no plans of coming back here..the loud drunk people in the wee hours of the morning is really very annoying. Room is really tight with 6 people using it. The price is just high if you consider the given condition.See my attached pictures.MoreShow less</t>
+  </si>
+  <si>
+    <t>Checked in late on a Saturday night. lobby was a bit noisy because it is also where a bar is located. stayed in a hostel type room shared with 5 other people. Room was a little bit crowded with 6 people inside. At around about 2:30 am it was still noisy at the street area. The bunk bed has its own reading light and outlet you can charge your devices. Storage locker can fit a large size luggage ( which is good ) . Kitchen is located at the basement that is open 24 hours. there is also a small gym. The swimming pool is located on the roof deck, there is a small bar where you can order some drinks. it has a view of the city but not that  great. Paid almost $50 a night for a room that you have to share with 5 other people. When I stayed that week there was no soap nor shampoo provided.Woman employee at the desk positioned at the left is rude. It was like 8 am of Feb 11, 2018. Overall..i have no plans of coming back here..the loud drunk people in the wee hours of the morning is really very annoying. Room is really tight with 6 people using it. The price is just high if you consider the given condition.See my attached pictures.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r562799382-Freehand_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>562799382</t>
+  </si>
+  <si>
+    <t>02/25/2018</t>
+  </si>
+  <si>
+    <t>Home at last</t>
+  </si>
+  <si>
+    <t>Sitting next to the global DJ at the rooftop pool, this could be Goa or Krabi, if it weren't for the LA skyline in the background. I had never heard of the Freehand hotel chain when I stumbled across this hotel and booked on line, but I'll be keeping it top of mind from now on. An unpretentious take on a hip hotel, the designers have taken the best of their global travels and scrambled historic LA in to the mix. The hallways look like Barton Fink just left and the rooms are hip-storic, playing a funky homage to Edgar Rice Burroughs, whose publishing company used to be head-quartered here. And despite all the hip, it's really, really comfortable- from staff to guests. The Exchange Med Restaurant downstairs is about as far away from hotel food as you can get- I'd visit again even if I wasn't staying here.MoreShow less</t>
+  </si>
+  <si>
+    <t>Sitting next to the global DJ at the rooftop pool, this could be Goa or Krabi, if it weren't for the LA skyline in the background. I had never heard of the Freehand hotel chain when I stumbled across this hotel and booked on line, but I'll be keeping it top of mind from now on. An unpretentious take on a hip hotel, the designers have taken the best of their global travels and scrambled historic LA in to the mix. The hallways look like Barton Fink just left and the rooms are hip-storic, playing a funky homage to Edgar Rice Burroughs, whose publishing company used to be head-quartered here. And despite all the hip, it's really, really comfortable- from staff to guests. The Exchange Med Restaurant downstairs is about as far away from hotel food as you can get- I'd visit again even if I wasn't staying here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r561581260-Freehand_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>561581260</t>
+  </si>
+  <si>
+    <t>02/19/2018</t>
+  </si>
+  <si>
+    <t>Awesome place!</t>
+  </si>
+  <si>
+    <t>Their lobby bar is a great place to meet someone for a drink. I sat in here talking to my friend for several hours. It's not too loud, the lighting and seating is great, and overall ambience is lovely. And the room was just perfectly comfortable and beautiful. I really loved everything about the Fremont. My absolute favorite, however, was the rooftop pool. You just have to see it for yourself and enjoy an afternoon there, with some delicious mojitos and light snacks. It's the perfect LA hangout spot!</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r560750415-Freehand_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>560750415</t>
+  </si>
+  <si>
+    <t>02/15/2018</t>
+  </si>
+  <si>
+    <t>A visual treasure</t>
+  </si>
+  <si>
+    <t>We stayed just one night at the Freehand LA for a Lakers game in February, and holy moly this hotel is awesome. Completely exceeded our expectations. Not only is it clean, comfortable, conveniently located and has very friendly staff, it is a visual treasure. Beautifully designed and filled with lush greenery, we couldn’t stop staring at every aspect of the hotel. The rooftop pool and bar are fantastic and we’re surprising not busy given the size of the hotel. The coffee shop in the lobby was excellent. The WiFi worked well. Can’t think of a complaint for this place. The Freehand was easily the coolest hotel I’ve ever stayed at, and I would recommend it to anyone traveling to DTLA. MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed just one night at the Freehand LA for a Lakers game in February, and holy moly this hotel is awesome. Completely exceeded our expectations. Not only is it clean, comfortable, conveniently located and has very friendly staff, it is a visual treasure. Beautifully designed and filled with lush greenery, we couldn’t stop staring at every aspect of the hotel. The rooftop pool and bar are fantastic and we’re surprising not busy given the size of the hotel. The coffee shop in the lobby was excellent. The WiFi worked well. Can’t think of a complaint for this place. The Freehand was easily the coolest hotel I’ve ever stayed at, and I would recommend it to anyone traveling to DTLA. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r559617106-Freehand_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>559617106</t>
+  </si>
+  <si>
+    <t>02/10/2018</t>
+  </si>
+  <si>
+    <t>We booked a 6-bunk room at Freehand hotel, when we arrived the first impression of the hotel was modern, funky and vibey. The room was super clean and our bunks were really comfortable, each kitted out with plug points and a lamp. The room had 2 sinks outside from the shower and the separate toilet which helped our early morning schedule. The rooftop pool and bar was beautiful, a great way to chill in LA weather. There is a restaurant in reception where you can have breakfast and a grab a quick takeaway coffee. I lost my wallet and the hotel found it, kept it safely until I picked it up a day later. Wonderful stay! MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>We booked a 6-bunk room at Freehand hotel, when we arrived the first impression of the hotel was modern, funky and vibey. The room was super clean and our bunks were really comfortable, each kitted out with plug points and a lamp. The room had 2 sinks outside from the shower and the separate toilet which helped our early morning schedule. The rooftop pool and bar was beautiful, a great way to chill in LA weather. There is a restaurant in reception where you can have breakfast and a grab a quick takeaway coffee. I lost my wallet and the hotel found it, kept it safely until I picked it up a day later. Wonderful stay! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r557991414-Freehand_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>557991414</t>
+  </si>
+  <si>
+    <t>02/02/2018</t>
+  </si>
+  <si>
+    <t>Great value!</t>
+  </si>
+  <si>
+    <t>I was in L.A. on business.  I was going to fly in late at night, attend to my business matter just two blocks away the next morning, and then fly back home immediately afterward.  So I really just needed a bed for the night, nothing too fancy.  I decided to stay at the Freehand.  I am glad that I did.  It suited my needs perfectly.  It has a beautiful lobby, I almost thought I was in the wrong place.  The room, that slept four, was clean and cozy.  It had its own bathroom which was convenient.  The light by my bed was left turned on for me, which was great because the room was otherwise dark since it was late.  Bed was comfortable, I slept well.  Shower was nice.  Had the complimentary breakfast downstairs, I chose an apple and bread with peanut butter.  There were people from all walks of life chatting with each other, from the young lady from Belgium who was visiting the U.S. for the first time to the older rocker guy who lives in Southern California and was in town to catch some shows.  I loved the vibe.  And it costs only $2.75 to get there on the light rail from LAX plus you avoid the freeway traffic.  I will definitely stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>Luiz R, Manager at Freehand Los Angeles, responded to this reviewResponded February 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 5, 2018</t>
+  </si>
+  <si>
+    <t>I was in L.A. on business.  I was going to fly in late at night, attend to my business matter just two blocks away the next morning, and then fly back home immediately afterward.  So I really just needed a bed for the night, nothing too fancy.  I decided to stay at the Freehand.  I am glad that I did.  It suited my needs perfectly.  It has a beautiful lobby, I almost thought I was in the wrong place.  The room, that slept four, was clean and cozy.  It had its own bathroom which was convenient.  The light by my bed was left turned on for me, which was great because the room was otherwise dark since it was late.  Bed was comfortable, I slept well.  Shower was nice.  Had the complimentary breakfast downstairs, I chose an apple and bread with peanut butter.  There were people from all walks of life chatting with each other, from the young lady from Belgium who was visiting the U.S. for the first time to the older rocker guy who lives in Southern California and was in town to catch some shows.  I loved the vibe.  And it costs only $2.75 to get there on the light rail from LAX plus you avoid the freeway traffic.  I will definitely stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r557789825-Freehand_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>557789825</t>
+  </si>
+  <si>
+    <t>02/01/2018</t>
+  </si>
+  <si>
+    <t>Love the Freehand and Love the people who work there JX</t>
+  </si>
+  <si>
+    <t>I stayed at the Freehand   during Various Times During December and January...What can I say I love this place , Love the staff and Miss them so much now.The hospitality/Warmth shown towards me by the Staff was such a humbling experience and something I will never forget,From Louez,Nick,Debbie,Ryan and the rest of the staff at the desk to the valet crew outside,Caroline and Luke at  Roof top bar they were just incredible and So want to make a return to The Freehand ASAP.Even whilst staying in the Dorm rooms,the minute you walk through the Freehand's Door's you feel as though your walking into The Paris Ritz Hotel.By far the greatest Hostel on the planet and so looking forward to staying at the Freehand LA again.With Love Folks,Thank you for taking care of me and the pleasure is truly mine.JimxMoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed at the Freehand   during Various Times During December and January...What can I say I love this place , Love the staff and Miss them so much now.The hospitality/Warmth shown towards me by the Staff was such a humbling experience and something I will never forget,From Louez,Nick,Debbie,Ryan and the rest of the staff at the desk to the valet crew outside,Caroline and Luke at  Roof top bar they were just incredible and So want to make a return to The Freehand ASAP.Even whilst staying in the Dorm rooms,the minute you walk through the Freehand's Door's you feel as though your walking into The Paris Ritz Hotel.By far the greatest Hostel on the planet and so looking forward to staying at the Freehand LA again.With Love Folks,Thank you for taking care of me and the pleasure is truly mine.JimxMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r556593951-Freehand_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>556593951</t>
+  </si>
+  <si>
+    <t>01/26/2018</t>
+  </si>
+  <si>
+    <t>Quality vibe of the Freehand hostels, location is sketchy</t>
+  </si>
+  <si>
+    <t>I've stayed in every single Freehand hostel except the newly built New York facility. They really are a fantastic place to meet people, feel safe and enjoy the city you're in. The Los Angeles one is new, so you can expect beautiful bathrooms and showers that are clean and in good working order. The rooms are furnished nicely too. Staff were fantastic too, even though we had a slight problem with our booking (we were put in two different rooms, despite having one reservation) the staff were able to move us the next day to be together. When the lobby and front desk was busy, the staff maintained their composure and did a really good job. This doesn't go unnoticed. The only thing standing out to me to pass on to my fellow travelers is the location. Downtown LA is not a pretty place and at times, dangerous. We didn't feel comfortable walking around too much at night. It's the only thing that will make me look at staying elsewhere next time. If this Freehand was located around Santa Monica, it's probably the best one out there. Elevators are extremely slow, be patient. We discovered the rooftop pool on our last day, which was a great surprise. If only we were told about it sooner, we would have enjoyed many more drinks by the pool.MoreShow less</t>
+  </si>
+  <si>
+    <t>I've stayed in every single Freehand hostel except the newly built New York facility. They really are a fantastic place to meet people, feel safe and enjoy the city you're in. The Los Angeles one is new, so you can expect beautiful bathrooms and showers that are clean and in good working order. The rooms are furnished nicely too. Staff were fantastic too, even though we had a slight problem with our booking (we were put in two different rooms, despite having one reservation) the staff were able to move us the next day to be together. When the lobby and front desk was busy, the staff maintained their composure and did a really good job. This doesn't go unnoticed. The only thing standing out to me to pass on to my fellow travelers is the location. Downtown LA is not a pretty place and at times, dangerous. We didn't feel comfortable walking around too much at night. It's the only thing that will make me look at staying elsewhere next time. If this Freehand was located around Santa Monica, it's probably the best one out there. Elevators are extremely slow, be patient. We discovered the rooftop pool on our last day, which was a great surprise. If only we were told about it sooner, we would have enjoyed many more drinks by the pool.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r555762717-Freehand_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>555762717</t>
+  </si>
+  <si>
+    <t>01/22/2018</t>
+  </si>
+  <si>
+    <t>Average experience in a 4-bed dorm</t>
+  </si>
+  <si>
+    <t>While the ho(s)tel itself is well designed and very hip, the dorm rooms are pretty average. There were very few amenities in the room for dorm guests, just a towel and clean sheets. There are lockers but you need your own key. Each bunk bed has it's own light and little shelf with 2 power outlets. I had some crappy roommates but that's not the hotel's fault. I would probably stay here again if I was able to splash out for the single/private rooms because I think that's where this hotel probably shines. All in all, for $60 CAD/night it was a good spot. MoreShow less</t>
+  </si>
+  <si>
+    <t>While the ho(s)tel itself is well designed and very hip, the dorm rooms are pretty average. There were very few amenities in the room for dorm guests, just a towel and clean sheets. There are lockers but you need your own key. Each bunk bed has it's own light and little shelf with 2 power outlets. I had some crappy roommates but that's not the hotel's fault. I would probably stay here again if I was able to splash out for the single/private rooms because I think that's where this hotel probably shines. All in all, for $60 CAD/night it was a good spot. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r554655280-Freehand_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>554655280</t>
+  </si>
+  <si>
+    <t>01/18/2018</t>
+  </si>
+  <si>
+    <t>First Impressions From A Short Stay - INTERESTING!</t>
+  </si>
+  <si>
+    <t>Right off the bat, the Freehand Los Angeles is an upscale hostel.  My only other hostel experience was a youth hostel in Copenhagen in 1971.  This was MUCH nicer!  But a word of caution for the timid business traveler--if you need a budget hotel, look elsewhere.  However, if you don't mind a trip outside your comfort zone, the Freehand may work for you.  Mind you, I'm 67 years old.  
+I arrived at midnight, thanks to a disastrous travel day courtesy of American Airlines.  Interestingly, my shuttle driver mentioned a few years ago that the neighborhood was a rough one, but rejuvenation efforts have improved the urban environment considerably.  
+The front desk staff was polite and helpful and the facility appeared to be clean and welcoming.  There was a bar in the lobby and another on the roof top.  My bunk and locker was in a room with five other bunks and lockers.  For the one night I was there, I had four roommates--one other male and three females.  I think.  The room was dark when I entered and all the other tenants were in bed.  I did my best to navigate to my locker via my cell phone screen where I stowed my carry-on bag.  I packed a pad lock based on research I did when I made my reservation.  I kept my backpack stuffed with electronics and high value items in the upper bunk with me.  An electrical outlet...Right off the bat, the Freehand Los Angeles is an upscale hostel.  My only other hostel experience was a youth hostel in Copenhagen in 1971.  This was MUCH nicer!  But a word of caution for the timid business traveler--if you need a budget hotel, look elsewhere.  However, if you don't mind a trip outside your comfort zone, the Freehand may work for you.  Mind you, I'm 67 years old.  I arrived at midnight, thanks to a disastrous travel day courtesy of American Airlines.  Interestingly, my shuttle driver mentioned a few years ago that the neighborhood was a rough one, but rejuvenation efforts have improved the urban environment considerably.  The front desk staff was polite and helpful and the facility appeared to be clean and welcoming.  There was a bar in the lobby and another on the roof top.  My bunk and locker was in a room with five other bunks and lockers.  For the one night I was there, I had four roommates--one other male and three females.  I think.  The room was dark when I entered and all the other tenants were in bed.  I did my best to navigate to my locker via my cell phone screen where I stowed my carry-on bag.  I packed a pad lock based on research I did when I made my reservation.  I kept my backpack stuffed with electronics and high value items in the upper bunk with me.  An electrical outlet in the bunk allowed me to maintain the charge in my cell phone through the night.  Although the bed was comfortable, I didn't sleep as soundly as I usually do.  The next morning was the most interesting part of my experience.  There was no door to the latrine bay that was connected to the sleeping quarters.  There were two sinks in the main bay with separate adjoining toilet and shower rooms.  The light from the latrine illuminated the sleeping area.  I set my alarm for 6:00 am, but was preceded by one male and one female roommate.  They were very considerate, but the movement in the sleeping area and latrine ensured I awoke when they did.  One other roommate and I jockeyed for the latrine at 6:00 am.  I shaved and brushed my teeth in the toilet room with the door closed to be as quiet as possible for the sleeping roommate while the other roommate used the shower and dressed.  When she exited the shower, we reversed locations.  The location of the latrine is my only negative.  I would have preferred a separate communal latrine outside the sleeping area so noise would not disturb late risers.All this for $41 and change is a great price.  But, traditionalist business travelers will not appreciate the latrine bay open to the sleeping quarters.Bottom line:  the facility is nice, apparently secure, and cheap, but the room arrangement was a huge distraction.MoreShow less</t>
+  </si>
+  <si>
+    <t>Right off the bat, the Freehand Los Angeles is an upscale hostel.  My only other hostel experience was a youth hostel in Copenhagen in 1971.  This was MUCH nicer!  But a word of caution for the timid business traveler--if you need a budget hotel, look elsewhere.  However, if you don't mind a trip outside your comfort zone, the Freehand may work for you.  Mind you, I'm 67 years old.  
+I arrived at midnight, thanks to a disastrous travel day courtesy of American Airlines.  Interestingly, my shuttle driver mentioned a few years ago that the neighborhood was a rough one, but rejuvenation efforts have improved the urban environment considerably.  
+The front desk staff was polite and helpful and the facility appeared to be clean and welcoming.  There was a bar in the lobby and another on the roof top.  My bunk and locker was in a room with five other bunks and lockers.  For the one night I was there, I had four roommates--one other male and three females.  I think.  The room was dark when I entered and all the other tenants were in bed.  I did my best to navigate to my locker via my cell phone screen where I stowed my carry-on bag.  I packed a pad lock based on research I did when I made my reservation.  I kept my backpack stuffed with electronics and high value items in the upper bunk with me.  An electrical outlet...Right off the bat, the Freehand Los Angeles is an upscale hostel.  My only other hostel experience was a youth hostel in Copenhagen in 1971.  This was MUCH nicer!  But a word of caution for the timid business traveler--if you need a budget hotel, look elsewhere.  However, if you don't mind a trip outside your comfort zone, the Freehand may work for you.  Mind you, I'm 67 years old.  I arrived at midnight, thanks to a disastrous travel day courtesy of American Airlines.  Interestingly, my shuttle driver mentioned a few years ago that the neighborhood was a rough one, but rejuvenation efforts have improved the urban environment considerably.  The front desk staff was polite and helpful and the facility appeared to be clean and welcoming.  There was a bar in the lobby and another on the roof top.  My bunk and locker was in a room with five other bunks and lockers.  For the one night I was there, I had four roommates--one other male and three females.  I think.  The room was dark when I entered and all the other tenants were in bed.  I did my best to navigate to my locker via my cell phone screen where I stowed my carry-on bag.  I packed a pad lock based on research I did when I made my reservation.  I kept my backpack stuffed with electronics and high value items in the upper bunk with me.  An electrical outlet in the bunk allowed me to maintain the charge in my cell phone through the night.  Although the bed was comfortable, I didn't sleep as soundly as I usually do.  The next morning was the most interesting part of my experience.  There was no door to the latrine bay that was connected to the sleeping quarters.  There were two sinks in the main bay with separate adjoining toilet and shower rooms.  The light from the latrine illuminated the sleeping area.  I set my alarm for 6:00 am, but was preceded by one male and one female roommate.  They were very considerate, but the movement in the sleeping area and latrine ensured I awoke when they did.  One other roommate and I jockeyed for the latrine at 6:00 am.  I shaved and brushed my teeth in the toilet room with the door closed to be as quiet as possible for the sleeping roommate while the other roommate used the shower and dressed.  When she exited the shower, we reversed locations.  The location of the latrine is my only negative.  I would have preferred a separate communal latrine outside the sleeping area so noise would not disturb late risers.All this for $41 and change is a great price.  But, traditionalist business travelers will not appreciate the latrine bay open to the sleeping quarters.Bottom line:  the facility is nice, apparently secure, and cheap, but the room arrangement was a huge distraction.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r554209833-Freehand_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>554209833</t>
+  </si>
+  <si>
+    <t>01/16/2018</t>
+  </si>
+  <si>
+    <t>Maximum Hipster</t>
+  </si>
+  <si>
+    <t>Walking into the lobby of this hotel is like walking into a real-life pinterest board of hipster decor, style, and attitude.  I've stayed here twice and found the staff very friendly.  The rooms I stayed in were well appointed and a good size.  It's close to a lot of bars, restaurants, and a whole foods market.  Everybody in the lobby is checking out everybody else in the lobby.  It's LA, that's what people do in LA.  Best to embrace the fun in all the hipsterness at this hotel, and enjoy it.  That's what I did.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r552646784-Freehand_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>552646784</t>
+  </si>
+  <si>
+    <t>01/08/2018</t>
+  </si>
+  <si>
+    <t>A Glam-packing Experience at Downtown L.A.</t>
+  </si>
+  <si>
+    <t>This is the 3rd Freehand Hostel/Hotel I stayed (the other two are in Miami Beach and Chicago). Though I cannot say this one is my favorite, I think it does live up to its brand reputation as a hostel that offers "glam-packing" (glamour backpacking) experience.
+I stayed in a dorm room with 6 people, with an in-suite bathroom/toilet. I think it is relatively spacious. The room is also full of light. The room is overall clean and tastefully designed. Though there is no toiletries in the bathroom, you can go downstairs to the reception to ask for your individual toiletry package (small bottles of shampoo, body gel and a bar of soap). I do hope that they add drapes/curtains for each dorm bed to add some privacy (as this room in Chicago Freehand). However, their bed is generally quite comfy.
+The Wi Fi is available throughout the building and I think it works quite well.
+The public area is also very nicely designed. There is a chic (though expensive) bar on the grand floor and a rooftop swimming pool that affords great view of Downtown LA's skyscrapers. The bar at rooftop offers similar election of drinks as the one on ground floor. 
+Breakfast is included but the selection is relatively basic (coffee, orange juice, bread and jams). It was offered in the kitchen in the basement. I found the kitchen area is too small and sometimes there are too many...This is the 3rd Freehand Hostel/Hotel I stayed (the other two are in Miami Beach and Chicago). Though I cannot say this one is my favorite, I think it does live up to its brand reputation as a hostel that offers "glam-packing" (glamour backpacking) experience.I stayed in a dorm room with 6 people, with an in-suite bathroom/toilet. I think it is relatively spacious. The room is also full of light. The room is overall clean and tastefully designed. Though there is no toiletries in the bathroom, you can go downstairs to the reception to ask for your individual toiletry package (small bottles of shampoo, body gel and a bar of soap). I do hope that they add drapes/curtains for each dorm bed to add some privacy (as this room in Chicago Freehand). However, their bed is generally quite comfy.The Wi Fi is available throughout the building and I think it works quite well.The public area is also very nicely designed. There is a chic (though expensive) bar on the grand floor and a rooftop swimming pool that affords great view of Downtown LA's skyscrapers. The bar at rooftop offers similar election of drinks as the one on ground floor. Breakfast is included but the selection is relatively basic (coffee, orange juice, bread and jams). It was offered in the kitchen in the basement. I found the kitchen area is too small and sometimes there are too many people dining at the same time and no seat is available.The staff at reception are extremely friendly and informative. It is pleasant to chat with them.The hotel is centrally located in Downtown Los Angeles, where it is buzzed with new restaurants and bars nowadays. The block this hostel is on is not a busy one (7th Street, a block north, is much busier) but I did not feel unsafe when when around after midnight.Overall, it is another nice "glam-packing" experience with Freehand franchise. I will stay here again when I pass by LA in the future!MoreShow less</t>
+  </si>
+  <si>
+    <t>This is the 3rd Freehand Hostel/Hotel I stayed (the other two are in Miami Beach and Chicago). Though I cannot say this one is my favorite, I think it does live up to its brand reputation as a hostel that offers "glam-packing" (glamour backpacking) experience.
+I stayed in a dorm room with 6 people, with an in-suite bathroom/toilet. I think it is relatively spacious. The room is also full of light. The room is overall clean and tastefully designed. Though there is no toiletries in the bathroom, you can go downstairs to the reception to ask for your individual toiletry package (small bottles of shampoo, body gel and a bar of soap). I do hope that they add drapes/curtains for each dorm bed to add some privacy (as this room in Chicago Freehand). However, their bed is generally quite comfy.
+The Wi Fi is available throughout the building and I think it works quite well.
+The public area is also very nicely designed. There is a chic (though expensive) bar on the grand floor and a rooftop swimming pool that affords great view of Downtown LA's skyscrapers. The bar at rooftop offers similar election of drinks as the one on ground floor. 
+Breakfast is included but the selection is relatively basic (coffee, orange juice, bread and jams). It was offered in the kitchen in the basement. I found the kitchen area is too small and sometimes there are too many...This is the 3rd Freehand Hostel/Hotel I stayed (the other two are in Miami Beach and Chicago). Though I cannot say this one is my favorite, I think it does live up to its brand reputation as a hostel that offers "glam-packing" (glamour backpacking) experience.I stayed in a dorm room with 6 people, with an in-suite bathroom/toilet. I think it is relatively spacious. The room is also full of light. The room is overall clean and tastefully designed. Though there is no toiletries in the bathroom, you can go downstairs to the reception to ask for your individual toiletry package (small bottles of shampoo, body gel and a bar of soap). I do hope that they add drapes/curtains for each dorm bed to add some privacy (as this room in Chicago Freehand). However, their bed is generally quite comfy.The Wi Fi is available throughout the building and I think it works quite well.The public area is also very nicely designed. There is a chic (though expensive) bar on the grand floor and a rooftop swimming pool that affords great view of Downtown LA's skyscrapers. The bar at rooftop offers similar election of drinks as the one on ground floor. Breakfast is included but the selection is relatively basic (coffee, orange juice, bread and jams). It was offered in the kitchen in the basement. I found the kitchen area is too small and sometimes there are too many people dining at the same time and no seat is available.The staff at reception are extremely friendly and informative. It is pleasant to chat with them.The hotel is centrally located in Downtown Los Angeles, where it is buzzed with new restaurants and bars nowadays. The block this hostel is on is not a busy one (7th Street, a block north, is much busier) but I did not feel unsafe when when around after midnight.Overall, it is another nice "glam-packing" experience with Freehand franchise. I will stay here again when I pass by LA in the future!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r546659709-Freehand_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>546659709</t>
+  </si>
+  <si>
+    <t>12/11/2017</t>
+  </si>
+  <si>
+    <t>Charming, great location, and trendy without being scarily so</t>
+  </si>
+  <si>
+    <t>My partner and I stayed at the Freehand for two nights earlier this week. I was a bit apprehensive going in, as I had heard that the hotel is excessively trendy but that worry proved unnecessary. While definitely hip, it didn't wasn't in anyway pretentious or intrusive.
+**** FYI: The Freehand has two types of rooms, standard hotel-type, and rooms and hostel-type, the latter of which are shared. We stayed at the former, so everything I say applies to that only. 
+The rooms are on the smaller size, but very comfortable, charming, and tastefully appointed. The architecture and hallways reflect that this was once an office building. 
+Beds are comfortable too and Wifi is free and super fast. The  bathrooms, though clean and charming, are small (no tub, FYI), and counter space is virtually nonexistent. The other negative (though a small one) is that there's no free coffee machine or water supplied in the room. 
+The hotel has a lobby bar, a very nice restaurant ("the Exchange"), and a lovely rooftop area  that includes a lounge, swimming pool and bar. It's worth going there for the views alone, and it's very relaxing during the day (though seemed to be a noisy scene at night).  We also had breakfast at the Exchange one morning, and it was fantastic without breaking the bank. he staff was largely super friendly and helpful (a couple of exceptions, though). 
+If you want to experience downtown...My partner and I stayed at the Freehand for two nights earlier this week. I was a bit apprehensive going in, as I had heard that the hotel is excessively trendy but that worry proved unnecessary. While definitely hip, it didn't wasn't in anyway pretentious or intrusive.**** FYI: The Freehand has two types of rooms, standard hotel-type, and rooms and hostel-type, the latter of which are shared. We stayed at the former, so everything I say applies to that only. The rooms are on the smaller size, but very comfortable, charming, and tastefully appointed. The architecture and hallways reflect that this was once an office building. Beds are comfortable too and Wifi is free and super fast. The  bathrooms, though clean and charming, are small (no tub, FYI), and counter space is virtually nonexistent. The other negative (though a small one) is that there's no free coffee machine or water supplied in the room. The hotel has a lobby bar, a very nice restaurant ("the Exchange"), and a lovely rooftop area  that includes a lounge, swimming pool and bar. It's worth going there for the views alone, and it's very relaxing during the day (though seemed to be a noisy scene at night).  We also had breakfast at the Exchange one morning, and it was fantastic without breaking the bank. he staff was largely super friendly and helpful (a couple of exceptions, though). If you want to experience downtown L.A. in all its revitalizing glory, the location couldn't be better. It's very central, and walkable to just about everywhere you might want to go. One block away on 7th avenue with a bunch of cool restaurants. The neighborhood the hotel is in also feels very real and organic, especially compared to say the LA Live/Staples Center neighborhood only a few blocks away which may have more hotels  but feels more impersonal and manufactured. Finally the question I always ask myself when I complete a stay is this: would I stay here again? The answer here is an absolute yes.  Great location, lots of charm, clean and comfortable, and lovely (though a bit small) rooms.  And great pricing too (we only paid $230 per night).MoreShow less</t>
+  </si>
+  <si>
+    <t>My partner and I stayed at the Freehand for two nights earlier this week. I was a bit apprehensive going in, as I had heard that the hotel is excessively trendy but that worry proved unnecessary. While definitely hip, it didn't wasn't in anyway pretentious or intrusive.
+**** FYI: The Freehand has two types of rooms, standard hotel-type, and rooms and hostel-type, the latter of which are shared. We stayed at the former, so everything I say applies to that only. 
+The rooms are on the smaller size, but very comfortable, charming, and tastefully appointed. The architecture and hallways reflect that this was once an office building. 
+Beds are comfortable too and Wifi is free and super fast. The  bathrooms, though clean and charming, are small (no tub, FYI), and counter space is virtually nonexistent. The other negative (though a small one) is that there's no free coffee machine or water supplied in the room. 
+The hotel has a lobby bar, a very nice restaurant ("the Exchange"), and a lovely rooftop area  that includes a lounge, swimming pool and bar. It's worth going there for the views alone, and it's very relaxing during the day (though seemed to be a noisy scene at night).  We also had breakfast at the Exchange one morning, and it was fantastic without breaking the bank. he staff was largely super friendly and helpful (a couple of exceptions, though). 
+If you want to experience downtown...My partner and I stayed at the Freehand for two nights earlier this week. I was a bit apprehensive going in, as I had heard that the hotel is excessively trendy but that worry proved unnecessary. While definitely hip, it didn't wasn't in anyway pretentious or intrusive.**** FYI: The Freehand has two types of rooms, standard hotel-type, and rooms and hostel-type, the latter of which are shared. We stayed at the former, so everything I say applies to that only. The rooms are on the smaller size, but very comfortable, charming, and tastefully appointed. The architecture and hallways reflect that this was once an office building. Beds are comfortable too and Wifi is free and super fast. The  bathrooms, though clean and charming, are small (no tub, FYI), and counter space is virtually nonexistent. The other negative (though a small one) is that there's no free coffee machine or water supplied in the room. The hotel has a lobby bar, a very nice restaurant ("the Exchange"), and a lovely rooftop area  that includes a lounge, swimming pool and bar. It's worth going there for the views alone, and it's very relaxing during the day (though seemed to be a noisy scene at night).  We also had breakfast at the Exchange one morning, and it was fantastic without breaking the bank. he staff was largely super friendly and helpful (a couple of exceptions, though). If you want to experience downtown L.A. in all its revitalizing glory, the location couldn't be better. It's very central, and walkable to just about everywhere you might want to go. One block away on 7th avenue with a bunch of cool restaurants. The neighborhood the hotel is in also feels very real and organic, especially compared to say the LA Live/Staples Center neighborhood only a few blocks away which may have more hotels  but feels more impersonal and manufactured. Finally the question I always ask myself when I complete a stay is this: would I stay here again? The answer here is an absolute yes.  Great location, lots of charm, clean and comfortable, and lovely (though a bit small) rooms.  And great pricing too (we only paid $230 per night).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r546297443-Freehand_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>546297443</t>
+  </si>
+  <si>
+    <t>12/09/2017</t>
+  </si>
+  <si>
+    <t>Great Hotel/Hostel Ideally Located.</t>
+  </si>
+  <si>
+    <t>I stayed at the Freehand Los Angeles by myself for four night in a shared room and I was very pleased with the Freehand.
+The rooms are quite small but are kept very clean. You are provided with a spacious locker, a reading light and power sockets for your devices. The shower was great. Downstairs a help yourself breakfast is offered which was more than adequate, with cereal, the option to make toast (no butter though) and fruit is was more than adequate.
+Another small but important point to mention is the hotel not only has free WiFi but it is fantastic. It is strong, fast and can be connected to from any part of the building.
+In terms of facilities the freehand has a bar/restaurant downstairs which always seemed to be busy and vibrant. In contrast on the roof of the building there is a little swimming pool with a rooftop bar which is a lot more relaxed, there are also some great views of downtown LA from up there.
+The surrounding downtown LA area is very nice and after dark can be a cool and vibrant place to be.
+The hotel is within walking distance of not only the Staples Center but the 7th Street/Metro Center station from which most metro lines pass through allowing you to visit any part of LA easily.
+This is definitely a hotel with shared accommodation within it so it does lack the...I stayed at the Freehand Los Angeles by myself for four night in a shared room and I was very pleased with the Freehand.The rooms are quite small but are kept very clean. You are provided with a spacious locker, a reading light and power sockets for your devices. The shower was great. Downstairs a help yourself breakfast is offered which was more than adequate, with cereal, the option to make toast (no butter though) and fruit is was more than adequate.Another small but important point to mention is the hotel not only has free WiFi but it is fantastic. It is strong, fast and can be connected to from any part of the building.In terms of facilities the freehand has a bar/restaurant downstairs which always seemed to be busy and vibrant. In contrast on the roof of the building there is a little swimming pool with a rooftop bar which is a lot more relaxed, there are also some great views of downtown LA from up there.The surrounding downtown LA area is very nice and after dark can be a cool and vibrant place to be.The hotel is within walking distance of not only the Staples Center but the 7th Street/Metro Center station from which most metro lines pass through allowing you to visit any part of LA easily.This is definitely a hotel with shared accommodation within it so it does lack the social side of a more typical hostel but that didn't bother me and I managed to meet new people anyway.The view from my room unfortunately was just a brick wall, this was a slight disappointment. If you desire a good view from your window try and get as high a floor as possibleIf I return to LA or visit Miami, New York or Chicago, the other cities that house freehand hotels, i'll definitely think of Freehand first.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed at the Freehand Los Angeles by myself for four night in a shared room and I was very pleased with the Freehand.
+The rooms are quite small but are kept very clean. You are provided with a spacious locker, a reading light and power sockets for your devices. The shower was great. Downstairs a help yourself breakfast is offered which was more than adequate, with cereal, the option to make toast (no butter though) and fruit is was more than adequate.
+Another small but important point to mention is the hotel not only has free WiFi but it is fantastic. It is strong, fast and can be connected to from any part of the building.
+In terms of facilities the freehand has a bar/restaurant downstairs which always seemed to be busy and vibrant. In contrast on the roof of the building there is a little swimming pool with a rooftop bar which is a lot more relaxed, there are also some great views of downtown LA from up there.
+The surrounding downtown LA area is very nice and after dark can be a cool and vibrant place to be.
+The hotel is within walking distance of not only the Staples Center but the 7th Street/Metro Center station from which most metro lines pass through allowing you to visit any part of LA easily.
+This is definitely a hotel with shared accommodation within it so it does lack the...I stayed at the Freehand Los Angeles by myself for four night in a shared room and I was very pleased with the Freehand.The rooms are quite small but are kept very clean. You are provided with a spacious locker, a reading light and power sockets for your devices. The shower was great. Downstairs a help yourself breakfast is offered which was more than adequate, with cereal, the option to make toast (no butter though) and fruit is was more than adequate.Another small but important point to mention is the hotel not only has free WiFi but it is fantastic. It is strong, fast and can be connected to from any part of the building.In terms of facilities the freehand has a bar/restaurant downstairs which always seemed to be busy and vibrant. In contrast on the roof of the building there is a little swimming pool with a rooftop bar which is a lot more relaxed, there are also some great views of downtown LA from up there.The surrounding downtown LA area is very nice and after dark can be a cool and vibrant place to be.The hotel is within walking distance of not only the Staples Center but the 7th Street/Metro Center station from which most metro lines pass through allowing you to visit any part of LA easily.This is definitely a hotel with shared accommodation within it so it does lack the social side of a more typical hostel but that didn't bother me and I managed to meet new people anyway.The view from my room unfortunately was just a brick wall, this was a slight disappointment. If you desire a good view from your window try and get as high a floor as possibleIf I return to LA or visit Miami, New York or Chicago, the other cities that house freehand hotels, i'll definitely think of Freehand first.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r542036343-Freehand_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>542036343</t>
+  </si>
+  <si>
+    <t>11/19/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Private Quad Room </t>
+  </si>
+  <si>
+    <t>Stayed with 3 friends in the private Quad Room and it’s definitely on the tiny side. The room comes with 2 adorable twin bunk beds (sleeping 4) and 4 lockers each equipped with towels and toiletries for each person. So that was super cute. The room is cute as you walk into a small entry with a full length mirror and to the right is the bathroom with retro style tiling and fixtures and then to the left is the bunk beds with a 3’ aisle next to it and that’s it folks. No telephone, no bible, nowhere to sit except your bed, no tv. This was fine for us, we were only staying 1 night and we weren’t in the room but to sleep and get ready. 4 people trying to shower and get ready was a bit cramped. There was nowhere to open our luggage, we had to block the walkway in order to do so briefly. Also I wish the shower was separate from the toilet. So this was a bit difficult, also I had to lay in my bed and use the extra bright reading light to put my makeup on since the bathroom was busy with all of us trying to shower. Each bed was equipped a duplex outlet, USB port, and the handy reading light. It really is adorable and so cozy. Also in between the foot of each mattress there was a cute...Stayed with 3 friends in the private Quad Room and it’s definitely on the tiny side. The room comes with 2 adorable twin bunk beds (sleeping 4) and 4 lockers each equipped with towels and toiletries for each person. So that was super cute. The room is cute as you walk into a small entry with a full length mirror and to the right is the bathroom with retro style tiling and fixtures and then to the left is the bunk beds with a 3’ aisle next to it and that’s it folks. No telephone, no bible, nowhere to sit except your bed, no tv. This was fine for us, we were only staying 1 night and we weren’t in the room but to sleep and get ready. 4 people trying to shower and get ready was a bit cramped. There was nowhere to open our luggage, we had to block the walkway in order to do so briefly. Also I wish the shower was separate from the toilet. So this was a bit difficult, also I had to lay in my bed and use the extra bright reading light to put my makeup on since the bathroom was busy with all of us trying to shower. Each bed was equipped a duplex outlet, USB port, and the handy reading light. It really is adorable and so cozy. Also in between the foot of each mattress there was a cute slide curtain to provide privacy but I wish there had been a curtain to close off each bed completely. The hotel itself is super quirky and cool. It was an old office building so as you walk down the corridor the old style glass door fronts to offices remain and those are the doors to your room. The downstairs lobby is fun, and is a busy bar scene at night (at least on the Saturday we were there), and the rooftop bar and pool area is amazing at night. While you can’t go in the pool after sunset (LA law) the pool is lit and provides a nice ambiance with the lit buildings in the background while sipping drinks out of a plastic pineapple (if you order the Cachaca). Also up on the roof deck they give you blankets! I was so cozy draped by my little blanket sipping drinks with friends until 2am (close time). I would highly recommend checking out the rooftop even if you don’t end up staying at the Freehand. Overall very basic hotel room but appreciated the quirkiness and creativity. MoreShow less</t>
+  </si>
+  <si>
+    <t>Luiz R, Guest Experience Coordinator at Freehand Los Angeles, responded to this reviewResponded November 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 22, 2017</t>
+  </si>
+  <si>
+    <t>Stayed with 3 friends in the private Quad Room and it’s definitely on the tiny side. The room comes with 2 adorable twin bunk beds (sleeping 4) and 4 lockers each equipped with towels and toiletries for each person. So that was super cute. The room is cute as you walk into a small entry with a full length mirror and to the right is the bathroom with retro style tiling and fixtures and then to the left is the bunk beds with a 3’ aisle next to it and that’s it folks. No telephone, no bible, nowhere to sit except your bed, no tv. This was fine for us, we were only staying 1 night and we weren’t in the room but to sleep and get ready. 4 people trying to shower and get ready was a bit cramped. There was nowhere to open our luggage, we had to block the walkway in order to do so briefly. Also I wish the shower was separate from the toilet. So this was a bit difficult, also I had to lay in my bed and use the extra bright reading light to put my makeup on since the bathroom was busy with all of us trying to shower. Each bed was equipped a duplex outlet, USB port, and the handy reading light. It really is adorable and so cozy. Also in between the foot of each mattress there was a cute...Stayed with 3 friends in the private Quad Room and it’s definitely on the tiny side. The room comes with 2 adorable twin bunk beds (sleeping 4) and 4 lockers each equipped with towels and toiletries for each person. So that was super cute. The room is cute as you walk into a small entry with a full length mirror and to the right is the bathroom with retro style tiling and fixtures and then to the left is the bunk beds with a 3’ aisle next to it and that’s it folks. No telephone, no bible, nowhere to sit except your bed, no tv. This was fine for us, we were only staying 1 night and we weren’t in the room but to sleep and get ready. 4 people trying to shower and get ready was a bit cramped. There was nowhere to open our luggage, we had to block the walkway in order to do so briefly. Also I wish the shower was separate from the toilet. So this was a bit difficult, also I had to lay in my bed and use the extra bright reading light to put my makeup on since the bathroom was busy with all of us trying to shower. Each bed was equipped a duplex outlet, USB port, and the handy reading light. It really is adorable and so cozy. Also in between the foot of each mattress there was a cute slide curtain to provide privacy but I wish there had been a curtain to close off each bed completely. The hotel itself is super quirky and cool. It was an old office building so as you walk down the corridor the old style glass door fronts to offices remain and those are the doors to your room. The downstairs lobby is fun, and is a busy bar scene at night (at least on the Saturday we were there), and the rooftop bar and pool area is amazing at night. While you can’t go in the pool after sunset (LA law) the pool is lit and provides a nice ambiance with the lit buildings in the background while sipping drinks out of a plastic pineapple (if you order the Cachaca). Also up on the roof deck they give you blankets! I was so cozy draped by my little blanket sipping drinks with friends until 2am (close time). I would highly recommend checking out the rooftop even if you don’t end up staying at the Freehand. Overall very basic hotel room but appreciated the quirkiness and creativity. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r541867290-Freehand_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>541867290</t>
+  </si>
+  <si>
+    <t>11/18/2017</t>
+  </si>
+  <si>
+    <t>Very good</t>
+  </si>
+  <si>
+    <t>Great hostel, though expensive. Look out for discount codes on third party booking sites to save substantially - I only paid $35 per night all in for the 6 bed dorm. Across from Whole Foods and a 5 min walk from 7th St station and access to multiple Metro lines.Amazing beds, great washrooms, lots of space. Close to perfectly designed rooms. Outlets at each bed and a ledge for your phone. Breakfast could use some eggs / protein, but is otherwise fine. Only drawback is the social scene is weak aside from those in your room. If you’re with friends, Broken Shaker is a great place to hang out. Would definitely stay again if I could get the same low rate. I previously stayed at Freehand Miami and this is definitely a step above.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Luiz R, Guest Relations Manager at Freehand Los Angeles, responded to this reviewResponded November 22, 2017</t>
+  </si>
+  <si>
+    <t>Great hostel, though expensive. Look out for discount codes on third party booking sites to save substantially - I only paid $35 per night all in for the 6 bed dorm. Across from Whole Foods and a 5 min walk from 7th St station and access to multiple Metro lines.Amazing beds, great washrooms, lots of space. Close to perfectly designed rooms. Outlets at each bed and a ledge for your phone. Breakfast could use some eggs / protein, but is otherwise fine. Only drawback is the social scene is weak aside from those in your room. If you’re with friends, Broken Shaker is a great place to hang out. Would definitely stay again if I could get the same low rate. I previously stayed at Freehand Miami and this is definitely a step above.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r539686934-Freehand_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>539686934</t>
+  </si>
+  <si>
+    <t>11/09/2017</t>
+  </si>
+  <si>
+    <t>Amazing roof top bar and pool</t>
+  </si>
+  <si>
+    <t>I loved this place and it is one of the best hostels I have ever been to.  It was clean and spacious and trendy.  The bar on the roof is amazing and ultra hip. I wasn’t a fan of the menu so didn’t try any food.  Seemed a bit pricey as well (drinks were too).The one thing I would like to mention is that although the timed automatic lights are a really smart idea for the rooms they are a dangerous hazard in the shower with potential to cause serious harm.  I suggest disabling the shower timers because in all seriousness this is a disaster waiting to happen.  If you get someone drunk or who freaks out because the lights have gone out mid shower this could turn very bad, very quick.  There is no windows so it is pitch black. Just imagine they stumble to try and turn them back on and trip on the step or the curtain and fall.Other than this - loved the placeMoreShow less</t>
+  </si>
+  <si>
+    <t>I loved this place and it is one of the best hostels I have ever been to.  It was clean and spacious and trendy.  The bar on the roof is amazing and ultra hip. I wasn’t a fan of the menu so didn’t try any food.  Seemed a bit pricey as well (drinks were too).The one thing I would like to mention is that although the timed automatic lights are a really smart idea for the rooms they are a dangerous hazard in the shower with potential to cause serious harm.  I suggest disabling the shower timers because in all seriousness this is a disaster waiting to happen.  If you get someone drunk or who freaks out because the lights have gone out mid shower this could turn very bad, very quick.  There is no windows so it is pitch black. Just imagine they stumble to try and turn them back on and trip on the step or the curtain and fall.Other than this - loved the placeMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r538214531-Freehand_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>538214531</t>
+  </si>
+  <si>
+    <t>11/04/2017</t>
+  </si>
+  <si>
+    <t>High class hostel - Perfect location</t>
+  </si>
+  <si>
+    <t>I came to LA for a Rock n Roll race weekend and wanted to get as close as possible to the Staples and Convention centers for a minimum outlay    I stayed in hostels when I was younger, all over the world, so hey, why not?  This was much much nicer than any hostel I've ever stayed in.  Very clean and classy.  It's a young crowd but well healed   Plus, if you want a private room they have those too, but more $.  All good values for this location.  They have a rooftop pool with a party on most days and the  lobby is very active and social in the evenings.  8 block walk to Staples Center.  Parking is $45 but there are many public lots all around that are lower.  Even cheap on weekends.  MoreShow less</t>
+  </si>
+  <si>
+    <t>I came to LA for a Rock n Roll race weekend and wanted to get as close as possible to the Staples and Convention centers for a minimum outlay    I stayed in hostels when I was younger, all over the world, so hey, why not?  This was much much nicer than any hostel I've ever stayed in.  Very clean and classy.  It's a young crowd but well healed   Plus, if you want a private room they have those too, but more $.  All good values for this location.  They have a rooftop pool with a party on most days and the  lobby is very active and social in the evenings.  8 block walk to Staples Center.  Parking is $45 but there are many public lots all around that are lower.  Even cheap on weekends.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r537006504-Freehand_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>537006504</t>
+  </si>
+  <si>
+    <t>10/29/2017</t>
+  </si>
+  <si>
+    <t>Cool place to stay - meet new people!</t>
+  </si>
+  <si>
+    <t>I loved staying in Hostels in Europe, so I was excited to find this hotel in LA. I stayed in a quad room on the top bunk. So much space, comfortable mattress, great design touches in the room. The bathroom was roomy and had a great shower. I wish I had some of the lighting decor in my house! It was fun talking to my 2 'dorm-mates' - one from Sweden and the other from Lithuania. Both were super quiet at night and in the morning.Small breakfast in the basement in the morning. I didn't get a chance to get up to the roof since I was visiting USC.I will definitely stay there again - loved it!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>I loved staying in Hostels in Europe, so I was excited to find this hotel in LA. I stayed in a quad room on the top bunk. So much space, comfortable mattress, great design touches in the room. The bathroom was roomy and had a great shower. I wish I had some of the lighting decor in my house! It was fun talking to my 2 'dorm-mates' - one from Sweden and the other from Lithuania. Both were super quiet at night and in the morning.Small breakfast in the basement in the morning. I didn't get a chance to get up to the roof since I was visiting USC.I will definitely stay there again - loved it!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r535937050-Freehand_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>535937050</t>
+  </si>
+  <si>
+    <t>10/25/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Travel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice location,nice rooms but no coffee in the room.very slow elevators ...I don’t understand why USA they have nice wine but in the bar they have almost wine glasses from others country...no way They need more good service.The gym to small </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r531233402-Freehand_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>531233402</t>
+  </si>
+  <si>
+    <t>10/08/2017</t>
+  </si>
+  <si>
+    <t>Comfortable Visit If It's Not a Weekend</t>
+  </si>
+  <si>
+    <t>The staff are definitely the most remarkable part of The Freehand. I honestly found everyone who worked there to be very thoughtful and accommodating. My room was extremely comfortable and I preferred it much more than other downtown hotels like the Ace. My only qualm is that the place was a madhouse come Friday night. There's only one set of elevators that give access to all of the floors and the roof. I was exhausted on Friday night and had to fight my way through a line to reach the elevator where there was a doorman (who was also the valet) overseeing people getting into the elevators. Btw you don't need a key fob for the elevator so any stranger on the street can go upstairs. MoreShow less</t>
+  </si>
+  <si>
+    <t>The staff are definitely the most remarkable part of The Freehand. I honestly found everyone who worked there to be very thoughtful and accommodating. My room was extremely comfortable and I preferred it much more than other downtown hotels like the Ace. My only qualm is that the place was a madhouse come Friday night. There's only one set of elevators that give access to all of the floors and the roof. I was exhausted on Friday night and had to fight my way through a line to reach the elevator where there was a doorman (who was also the valet) overseeing people getting into the elevators. Btw you don't need a key fob for the elevator so any stranger on the street can go upstairs. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r528367393-Freehand_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>528367393</t>
+  </si>
+  <si>
+    <t>09/29/2017</t>
+  </si>
+  <si>
+    <t>Gives the Ace Hotel some serious competition</t>
+  </si>
+  <si>
+    <t>I had read about the Freehand in a recent edition of Monocle whose judgement I trust in matters of hotels.  So I was really surprised to see how affordable the Freehand was when researching an upcoming trip to LA.  Perhaps it’s an introductory rate as they have only been open 3 months?
+First impressions are great – very cool lobby with a slightly retro Palm Springs feel – lots of wood, cacti and 70’s furniture.  Fantastic friendly receptionist who checked me in quickly and painlessly.
+It was straight to the rooftop bar to catch some sun and grab a snack.  The pool area was nice with a very laidback vibe and more 70’s furniture and planting.  Lots of sunshades and comfy loungers too.  I had the teriyaki chicken which was ok and the guac and chips which were outdone by the peanut salsa which accompanied them.  Fresh pineapple juice was great as was the beer.  Lots of cool people around the pool too plus the essential inflatable (a banana, not a swan – do keep up!).
+I loved the room which had all the right things in all the right places and looked out the front of the building to a nice old downtown building opposite.  Great lowish bed, long cushioned seating by the window 9see my photos), good lighting, plug points in all the right places and a simple walk-in shower.  Some nice interesting art on the walls too...I had read about the Freehand in a recent edition of Monocle whose judgement I trust in matters of hotels.  So I was really surprised to see how affordable the Freehand was when researching an upcoming trip to LA.  Perhaps it’s an introductory rate as they have only been open 3 months?First impressions are great – very cool lobby with a slightly retro Palm Springs feel – lots of wood, cacti and 70’s furniture.  Fantastic friendly receptionist who checked me in quickly and painlessly.It was straight to the rooftop bar to catch some sun and grab a snack.  The pool area was nice with a very laidback vibe and more 70’s furniture and planting.  Lots of sunshades and comfy loungers too.  I had the teriyaki chicken which was ok and the guac and chips which were outdone by the peanut salsa which accompanied them.  Fresh pineapple juice was great as was the beer.  Lots of cool people around the pool too plus the essential inflatable (a banana, not a swan – do keep up!).I loved the room which had all the right things in all the right places and looked out the front of the building to a nice old downtown building opposite.  Great lowish bed, long cushioned seating by the window 9see my photos), good lighting, plug points in all the right places and a simple walk-in shower.  Some nice interesting art on the walls too which gave the place a chill lived-in feel that was a refreshing change from The Ace’s more ascetic minimal vibe.  The room was compact but spacious enough for one – two people might have been more of a squeeze.The only other facility I used was breakfast – breakfast only officially started on my second morning there and the restaurant continues the Mexican/Palm Springs/70s vibe with some seriously cool light shades and great staff.  Breakfast options are a little limited but the breakfast sandwich – egg, cheese, bacon, tomato, aioli, salad in a good Israeli style fluffy pita was killer.  There’s also a hole-in-the-wall café in the bar/lobby area too if you’re in a rush.  I didn’t try the shop (very Ace) or the gym but the former looked cool.So that’s it – if you’ve always liked The Ace but are looking for a change from its tiring hipness and army bunk minimalism, The Freehand is definitely worth trying out.MoreShow less</t>
+  </si>
+  <si>
+    <t>I had read about the Freehand in a recent edition of Monocle whose judgement I trust in matters of hotels.  So I was really surprised to see how affordable the Freehand was when researching an upcoming trip to LA.  Perhaps it’s an introductory rate as they have only been open 3 months?
+First impressions are great – very cool lobby with a slightly retro Palm Springs feel – lots of wood, cacti and 70’s furniture.  Fantastic friendly receptionist who checked me in quickly and painlessly.
+It was straight to the rooftop bar to catch some sun and grab a snack.  The pool area was nice with a very laidback vibe and more 70’s furniture and planting.  Lots of sunshades and comfy loungers too.  I had the teriyaki chicken which was ok and the guac and chips which were outdone by the peanut salsa which accompanied them.  Fresh pineapple juice was great as was the beer.  Lots of cool people around the pool too plus the essential inflatable (a banana, not a swan – do keep up!).
+I loved the room which had all the right things in all the right places and looked out the front of the building to a nice old downtown building opposite.  Great lowish bed, long cushioned seating by the window 9see my photos), good lighting, plug points in all the right places and a simple walk-in shower.  Some nice interesting art on the walls too...I had read about the Freehand in a recent edition of Monocle whose judgement I trust in matters of hotels.  So I was really surprised to see how affordable the Freehand was when researching an upcoming trip to LA.  Perhaps it’s an introductory rate as they have only been open 3 months?First impressions are great – very cool lobby with a slightly retro Palm Springs feel – lots of wood, cacti and 70’s furniture.  Fantastic friendly receptionist who checked me in quickly and painlessly.It was straight to the rooftop bar to catch some sun and grab a snack.  The pool area was nice with a very laidback vibe and more 70’s furniture and planting.  Lots of sunshades and comfy loungers too.  I had the teriyaki chicken which was ok and the guac and chips which were outdone by the peanut salsa which accompanied them.  Fresh pineapple juice was great as was the beer.  Lots of cool people around the pool too plus the essential inflatable (a banana, not a swan – do keep up!).I loved the room which had all the right things in all the right places and looked out the front of the building to a nice old downtown building opposite.  Great lowish bed, long cushioned seating by the window 9see my photos), good lighting, plug points in all the right places and a simple walk-in shower.  Some nice interesting art on the walls too which gave the place a chill lived-in feel that was a refreshing change from The Ace’s more ascetic minimal vibe.  The room was compact but spacious enough for one – two people might have been more of a squeeze.The only other facility I used was breakfast – breakfast only officially started on my second morning there and the restaurant continues the Mexican/Palm Springs/70s vibe with some seriously cool light shades and great staff.  Breakfast options are a little limited but the breakfast sandwich – egg, cheese, bacon, tomato, aioli, salad in a good Israeli style fluffy pita was killer.  There’s also a hole-in-the-wall café in the bar/lobby area too if you’re in a rush.  I didn’t try the shop (very Ace) or the gym but the former looked cool.So that’s it – if you’ve always liked The Ace but are looking for a change from its tiring hipness and army bunk minimalism, The Freehand is definitely worth trying out.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r527857058-Freehand_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>527857058</t>
+  </si>
+  <si>
+    <t>09/27/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hostel or Hotel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We had a great stay, really good facilities. Lovely bars and restaurants especially the rooftop bar. Very clean and overall would highly recommend. Drinks were a little pricey but over than that everything else was spot on. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r523876068-Freehand_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>523876068</t>
+  </si>
+  <si>
+    <t>09/12/2017</t>
+  </si>
+  <si>
+    <t>One night in the historic district downtown.</t>
+  </si>
+  <si>
+    <t>Book a night for my client and he really enjoyed this new property in the heart of downtown. The redesigned this building and turned it into a great hotel. The room have their own style and very colorful.They have a great bar on the rooftop so you can enjoy a complimentary drink and mingle with the other clients and locals after a long day in the city.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded September 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 14, 2017</t>
+  </si>
+  <si>
+    <t>Book a night for my client and he really enjoyed this new property in the heart of downtown. The redesigned this building and turned it into a great hotel. The room have their own style and very colorful.They have a great bar on the rooftop so you can enjoy a complimentary drink and mingle with the other clients and locals after a long day in the city.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r522692682-Freehand_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>522692682</t>
+  </si>
+  <si>
+    <t>09/08/2017</t>
+  </si>
+  <si>
+    <t>Treandy new hotel with a great hostel experience</t>
+  </si>
+  <si>
+    <t>I was traveling solo for a quick weekend getaway so I chose the 8 bed mixed dorm room.  Bed was comfortable - I got bed 8 which was kind of off to the side next to a nice little sitting area (I called it my area lol).  A few of the roommates and I actually had a few drinks here which was a really nice touch to the room - an area to kind of sit and chill.  I would request sleeping here since you are kind of isolated from the rest of the room.  Pool closed around 6 pm - really lame considering it was 100 degrees and after a long day of walking around you want to go in for a dip.Area was awesome -downtown- whole foods across the street to pick up any snacks/drinks/food.  Very walkable to the downtown sites - staples center - broad museum - grand central - the last book store. There was a cool looking bar across the street I didn't get to try but it had happy hour until 8pm every night.  Free breakfast was basic but something to get you started. I enjoyed my stay at the freehand and would definitely come back!MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded September 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 10, 2017</t>
+  </si>
+  <si>
+    <t>I was traveling solo for a quick weekend getaway so I chose the 8 bed mixed dorm room.  Bed was comfortable - I got bed 8 which was kind of off to the side next to a nice little sitting area (I called it my area lol).  A few of the roommates and I actually had a few drinks here which was a really nice touch to the room - an area to kind of sit and chill.  I would request sleeping here since you are kind of isolated from the rest of the room.  Pool closed around 6 pm - really lame considering it was 100 degrees and after a long day of walking around you want to go in for a dip.Area was awesome -downtown- whole foods across the street to pick up any snacks/drinks/food.  Very walkable to the downtown sites - staples center - broad museum - grand central - the last book store. There was a cool looking bar across the street I didn't get to try but it had happy hour until 8pm every night.  Free breakfast was basic but something to get you started. I enjoyed my stay at the freehand and would definitely come back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r520445215-Freehand_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>520445215</t>
+  </si>
+  <si>
+    <t>09/02/2017</t>
+  </si>
+  <si>
+    <t>Too-hip hostel missing basic private room amenities for family vacationers</t>
+  </si>
+  <si>
+    <t>Our "private quad" room was tiny. No bathroom door. Basic amenities such as glasses, fridge, hair dryer, closet space, desk and chair were all missing. Rooms are cleaned every day, but bed sheets are changed every 3 days. Included breakfast was a brown paper bag that contained one muffing, an apple (not every day), and a yogurt. On lucky days we got orange juice. This may be find for a hostel but if they offer private rooms the amenities should be there too, not just the prices. We rode out the 6 days of our stay but honestly it was cramped, uncomfortable, unclean, and overall a disappointment. We could only find one restaurant, the one next to the lobby, even though there were supposed to be four. We ate there the first night. The food took forever, they decided to stick us out on a terrace that got chilly very quickly, then fumbled our orders. The manager ended up apologizing and writing off the bill. But the damage was done.
+We were looking for something different from the usual 4-5 star bland, corporate hotel. We found it. Newly refurbished hotel, with parts of it still unfinished. Post-industrial decor is well-done. Ultra-hipster place with lots of tattoos and pierced body parts among both guests and staff. Very noisy lobby. Kind of cool if you're the primary target audience for the place. Staff was friendly, professional, and helped us out any time...Our "private quad" room was tiny. No bathroom door. Basic amenities such as glasses, fridge, hair dryer, closet space, desk and chair were all missing. Rooms are cleaned every day, but bed sheets are changed every 3 days. Included breakfast was a brown paper bag that contained one muffing, an apple (not every day), and a yogurt. On lucky days we got orange juice. This may be find for a hostel but if they offer private rooms the amenities should be there too, not just the prices. We rode out the 6 days of our stay but honestly it was cramped, uncomfortable, unclean, and overall a disappointment. We could only find one restaurant, the one next to the lobby, even though there were supposed to be four. We ate there the first night. The food took forever, they decided to stick us out on a terrace that got chilly very quickly, then fumbled our orders. The manager ended up apologizing and writing off the bill. But the damage was done.We were looking for something different from the usual 4-5 star bland, corporate hotel. We found it. Newly refurbished hotel, with parts of it still unfinished. Post-industrial decor is well-done. Ultra-hipster place with lots of tattoos and pierced body parts among both guests and staff. Very noisy lobby. Kind of cool if you're the primary target audience for the place. Staff was friendly, professional, and helped us out any time we asked for help. We loved it that our bell hop moonlights as a puppeteer (or maybe it is the other way around). Valet service was excellent.MoreShow less</t>
+  </si>
+  <si>
+    <t>Our "private quad" room was tiny. No bathroom door. Basic amenities such as glasses, fridge, hair dryer, closet space, desk and chair were all missing. Rooms are cleaned every day, but bed sheets are changed every 3 days. Included breakfast was a brown paper bag that contained one muffing, an apple (not every day), and a yogurt. On lucky days we got orange juice. This may be find for a hostel but if they offer private rooms the amenities should be there too, not just the prices. We rode out the 6 days of our stay but honestly it was cramped, uncomfortable, unclean, and overall a disappointment. We could only find one restaurant, the one next to the lobby, even though there were supposed to be four. We ate there the first night. The food took forever, they decided to stick us out on a terrace that got chilly very quickly, then fumbled our orders. The manager ended up apologizing and writing off the bill. But the damage was done.
+We were looking for something different from the usual 4-5 star bland, corporate hotel. We found it. Newly refurbished hotel, with parts of it still unfinished. Post-industrial decor is well-done. Ultra-hipster place with lots of tattoos and pierced body parts among both guests and staff. Very noisy lobby. Kind of cool if you're the primary target audience for the place. Staff was friendly, professional, and helped us out any time...Our "private quad" room was tiny. No bathroom door. Basic amenities such as glasses, fridge, hair dryer, closet space, desk and chair were all missing. Rooms are cleaned every day, but bed sheets are changed every 3 days. Included breakfast was a brown paper bag that contained one muffing, an apple (not every day), and a yogurt. On lucky days we got orange juice. This may be find for a hostel but if they offer private rooms the amenities should be there too, not just the prices. We rode out the 6 days of our stay but honestly it was cramped, uncomfortable, unclean, and overall a disappointment. We could only find one restaurant, the one next to the lobby, even though there were supposed to be four. We ate there the first night. The food took forever, they decided to stick us out on a terrace that got chilly very quickly, then fumbled our orders. The manager ended up apologizing and writing off the bill. But the damage was done.We were looking for something different from the usual 4-5 star bland, corporate hotel. We found it. Newly refurbished hotel, with parts of it still unfinished. Post-industrial decor is well-done. Ultra-hipster place with lots of tattoos and pierced body parts among both guests and staff. Very noisy lobby. Kind of cool if you're the primary target audience for the place. Staff was friendly, professional, and helped us out any time we asked for help. We loved it that our bell hop moonlights as a puppeteer (or maybe it is the other way around). Valet service was excellent.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r519137654-Freehand_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>519137654</t>
+  </si>
+  <si>
+    <t>08/29/2017</t>
+  </si>
+  <si>
+    <t>Good hotel!</t>
+  </si>
+  <si>
+    <t>Great hotel, especially for the price.  Lobby has a good vibe, good drinks and food. Rooms are small but if you're not spending a lot of time in there the room is perfect.  Tiny bathroom with beautiful tile work.MoreShow less</t>
+  </si>
+  <si>
+    <t>Great hotel, especially for the price.  Lobby has a good vibe, good drinks and food. Rooms are small but if you're not spending a lot of time in there the room is perfect.  Tiny bathroom with beautiful tile work.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r517698152-Freehand_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>517698152</t>
+  </si>
+  <si>
+    <t>08/26/2017</t>
+  </si>
+  <si>
+    <t>A very cool, friendly place that combines a vintage property with modern amenities</t>
+  </si>
+  <si>
+    <t>So glad we were some of the first people (within a month of opening) to stay at this place. Yes, it wasn't done yet with only 6 floors open at the time (the Tiki bar had yet to be completed...ugh), but the lobby is beautiful, the room was beautiful and the staff were excellent and attentive. Nice food at the cafe, good restaurant attached and the bar in the lobby was excellent! The fitness room is small, but well appointed. Ask for an extra towel for the floor in your bathroom because the shower curtains don't quite reach the floor (leaks a bit) and the water pressure isn't good (like I said, they're still in production), but it's a great place and we plan to return! The Commercial Exchange building is an LA landmark and we're so glad they saved it from ruin and made it into a groovy hotel! Very friendly and fun.MoreShow less</t>
+  </si>
+  <si>
+    <t>So glad we were some of the first people (within a month of opening) to stay at this place. Yes, it wasn't done yet with only 6 floors open at the time (the Tiki bar had yet to be completed...ugh), but the lobby is beautiful, the room was beautiful and the staff were excellent and attentive. Nice food at the cafe, good restaurant attached and the bar in the lobby was excellent! The fitness room is small, but well appointed. Ask for an extra towel for the floor in your bathroom because the shower curtains don't quite reach the floor (leaks a bit) and the water pressure isn't good (like I said, they're still in production), but it's a great place and we plan to return! The Commercial Exchange building is an LA landmark and we're so glad they saved it from ruin and made it into a groovy hotel! Very friendly and fun.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r516782252-Freehand_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>516782252</t>
+  </si>
+  <si>
+    <t>08/23/2017</t>
+  </si>
+  <si>
+    <t>Excellent hotel, amenities and location in DTLA</t>
+  </si>
+  <si>
+    <t>Stayed in a King Skyline Rm during our 9 night stay at the Freehand Hotel, with my wife and the overall experience was excellent. From checkin at the front desk, through to the valet, lobby and bar/ restuarant staff - the service was great and everyone very pleasant and welcoming. The interior decoration and design aesthetic of not only the room but all the common areas (lobby, bar/ restaurant) is very well done and executed to a high level. The location in DTLA too is great, with many bars, restaurants, and boutique/ design store all located within 5mins walk. Also, there is a Whole Foods and a CVS literally one block away for everyday essentials during your stay. Easy access to the Interstate Highways if you want to get to other parts of LA by carThe hotel manager, Luis was great too and made us feel very welcome. Would definitely recommend this hotel for anyone visiting LA for either business or leisure. We will definitely stay here next time we are visiting LA.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed in a King Skyline Rm during our 9 night stay at the Freehand Hotel, with my wife and the overall experience was excellent. From checkin at the front desk, through to the valet, lobby and bar/ restuarant staff - the service was great and everyone very pleasant and welcoming. The interior decoration and design aesthetic of not only the room but all the common areas (lobby, bar/ restaurant) is very well done and executed to a high level. The location in DTLA too is great, with many bars, restaurants, and boutique/ design store all located within 5mins walk. Also, there is a Whole Foods and a CVS literally one block away for everyday essentials during your stay. Easy access to the Interstate Highways if you want to get to other parts of LA by carThe hotel manager, Luis was great too and made us feel very welcome. Would definitely recommend this hotel for anyone visiting LA for either business or leisure. We will definitely stay here next time we are visiting LA.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r512943695-Freehand_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>512943695</t>
+  </si>
+  <si>
+    <t>08/14/2017</t>
+  </si>
+  <si>
+    <t>Great front desk service</t>
+  </si>
+  <si>
+    <t>When I booked the room, I did  not realize that it was a share room. I walk in at 2 in the am with my two kids and my little sister and I see a completely party environment. As soon as I walk to the front desk the receptionist asked me if they were with me, and from the moment he mentioned that it was a shared room, him and the manager went out of the way to help me finding a different hotel. I so wish I would've payed more attention to their names, but since I don't remember, only thing I can do is give a huge thanks to the crew that worked  Friday night August 4th. Guys I really appreciate your help.MoreShow less</t>
+  </si>
+  <si>
+    <t>When I booked the room, I did  not realize that it was a share room. I walk in at 2 in the am with my two kids and my little sister and I see a completely party environment. As soon as I walk to the front desk the receptionist asked me if they were with me, and from the moment he mentioned that it was a shared room, him and the manager went out of the way to help me finding a different hotel. I so wish I would've payed more attention to their names, but since I don't remember, only thing I can do is give a huge thanks to the crew that worked  Friday night August 4th. Guys I really appreciate your help.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r507148408-Freehand_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>507148408</t>
+  </si>
+  <si>
+    <t>07/30/2017</t>
+  </si>
+  <si>
+    <t>A DTLA Gem</t>
+  </si>
+  <si>
+    <t>Watching the successful gentrification of DTLA is tourist worthy for everyone and stopping by Freehand's delightful remake of the California Exchange building is a must see and do experience. The eclectic North African- Mediterranean lobby bar is a refreshing repose from the building's harsh urban transitional location canopied under building cranes and scaffolded sky scrapping buildings under construction.A friendly welcoming service staff introduces you to interesting well prepared and presented dinner offerings. The lamb kabob and steak were great and the main course sweet potato entree was a real treat. TheExchange is a harbinger and happening place.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Watching the successful gentrification of DTLA is tourist worthy for everyone and stopping by Freehand's delightful remake of the California Exchange building is a must see and do experience. The eclectic North African- Mediterranean lobby bar is a refreshing repose from the building's harsh urban transitional location canopied under building cranes and scaffolded sky scrapping buildings under construction.A friendly welcoming service staff introduces you to interesting well prepared and presented dinner offerings. The lamb kabob and steak were great and the main course sweet potato entree was a real treat. TheExchange is a harbinger and happening place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r504939859-Freehand_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>504939859</t>
+  </si>
+  <si>
+    <t>07/23/2017</t>
+  </si>
+  <si>
+    <t>Customer service first class</t>
+  </si>
+  <si>
+    <t>Stayed here, place is immaculate. From helping with bags to booking me guest list at clubs and making drinks that aren't on the menu. Brandon on reception went above and beyond. However all reception are extremely good at what they do.Best customer service I've received anywhere in the world to be quite frank! Would love to go back :)MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 26, 2017</t>
+  </si>
+  <si>
+    <t>Stayed here, place is immaculate. From helping with bags to booking me guest list at clubs and making drinks that aren't on the menu. Brandon on reception went above and beyond. However all reception are extremely good at what they do.Best customer service I've received anywhere in the world to be quite frank! Would love to go back :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r499444269-Freehand_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>499444269</t>
+  </si>
+  <si>
+    <t>07/07/2017</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>I stayed in a 4 bed dorm and it's one of the nicer hostel rooms I've stayed in. Comfortable, big lockers, and wall sockets/lamps for each bed.Friendly staff and friendly people, would definitely stay again! MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>I stayed in a 4 bed dorm and it's one of the nicer hostel rooms I've stayed in. Comfortable, big lockers, and wall sockets/lamps for each bed.Friendly staff and friendly people, would definitely stay again! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r499182393-Freehand_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>499182393</t>
+  </si>
+  <si>
+    <t>07/06/2017</t>
+  </si>
+  <si>
+    <t>Great first solo trip to LA</t>
+  </si>
+  <si>
+    <t>I was so so impressed. I'd done my research and new that Freehand would be a new place so I already expected the place to be really clean but when I got there I was even MORE impressed with the design, the cleanliness and the service of the staff! The rooms were spacious and I love that each one had private bathroom. The staff were very attentive, informing me of everything I needed to know whether the lift was currently in maintenance or the fire alarm tests. Some of the stuff wasn't ready for use yet (the rooftop bar, kitchen/recreation area downstairs) but it didn't bother me too much. These things will definitely make Freehand an even better place to what I experienced. Will definitely be coming back!MoreShow less</t>
+  </si>
+  <si>
+    <t>I was so so impressed. I'd done my research and new that Freehand would be a new place so I already expected the place to be really clean but when I got there I was even MORE impressed with the design, the cleanliness and the service of the staff! The rooms were spacious and I love that each one had private bathroom. The staff were very attentive, informing me of everything I needed to know whether the lift was currently in maintenance or the fire alarm tests. Some of the stuff wasn't ready for use yet (the rooftop bar, kitchen/recreation area downstairs) but it didn't bother me too much. These things will definitely make Freehand an even better place to what I experienced. Will definitely be coming back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r498728680-Freehand_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>498728680</t>
+  </si>
+  <si>
+    <t>07/04/2017</t>
+  </si>
+  <si>
+    <t>Amazing Hotel! Highly recommend it, Big Thumbs up.</t>
+  </si>
+  <si>
+    <t>Unbelievable experience. I don't even know where to begin...I have honestly never received such amazing service from a hotel. The entire staff, from the person valet parking my car to the person checking me in were all amazing. Very friendly, upbeat and overall inviting. None of the awesome service seemed fake or put on and I can assure that I will most definitely stay at the hotel again. The location in prime! Right in the heart of downtown very close to Grand central market, perfect for breakfast in the morning. The hotel bar was also a nice addition to an already awesome hotel. The room are super clean and very well put together. The beds are comfy, clean and I felt great staying there. I unfortunately don't remember any of the staff names but man was I happy I picked that hotel, I never write reviews or comment on anything really because of my busy work schedule but I really felt like I needed to put some time aside to comment on how awesome the service, staff working there, bedrooms and all in all big thumbs up, Hope you guys will always keep up such a great positive friendly attitude and make all your guest feel so welcome. Cheers - Pat.MoreShow less</t>
+  </si>
+  <si>
+    <t>Unbelievable experience. I don't even know where to begin...I have honestly never received such amazing service from a hotel. The entire staff, from the person valet parking my car to the person checking me in were all amazing. Very friendly, upbeat and overall inviting. None of the awesome service seemed fake or put on and I can assure that I will most definitely stay at the hotel again. The location in prime! Right in the heart of downtown very close to Grand central market, perfect for breakfast in the morning. The hotel bar was also a nice addition to an already awesome hotel. The room are super clean and very well put together. The beds are comfy, clean and I felt great staying there. I unfortunately don't remember any of the staff names but man was I happy I picked that hotel, I never write reviews or comment on anything really because of my busy work schedule but I really felt like I needed to put some time aside to comment on how awesome the service, staff working there, bedrooms and all in all big thumbs up, Hope you guys will always keep up such a great positive friendly attitude and make all your guest feel so welcome. Cheers - Pat.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r495409052-Freehand_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>495409052</t>
+  </si>
+  <si>
+    <t>06/23/2017</t>
+  </si>
+  <si>
+    <t>Freehand does it again in DTLA!</t>
+  </si>
+  <si>
+    <t>I've been a fan of the Miami Freehand for years now but this new DTLA location is SPECTACULAR! They have really outdone themselves. Great service, AMAZING lobby and lobby bar with very creative cocktails. the EXCHANGE restaurant blew us away, so many great options, too many to list. Perfectly located in the every changing DTLA area, i would highly recommend checking it out. Loved the design of the rooms and the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>I've been a fan of the Miami Freehand for years now but this new DTLA location is SPECTACULAR! They have really outdone themselves. Great service, AMAZING lobby and lobby bar with very creative cocktails. the EXCHANGE restaurant blew us away, so many great options, too many to list. Perfectly located in the every changing DTLA area, i would highly recommend checking it out. Loved the design of the rooms and the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r493853299-Freehand_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>493853299</t>
+  </si>
+  <si>
+    <t>06/17/2017</t>
+  </si>
+  <si>
+    <t>First guest of the Freehand Los Angeles!</t>
+  </si>
+  <si>
+    <t>I was in LA for E3 2017.  This was my first trip to both LA and E3.  I choose the Freehand for location from the convention center and accessibility.  I am a paraplegic and need a roll in shower as well as room for my power chair.  
+Upon arrival to the hotel the valet was great at getting all my belongs off my van from my long drive from San Antonio, Texas.  The lobby of the hotel had a very warm feel to it with a unique atmosphere unlike any hotel I've ever been in.  It's the kinda place where you could have a business meeting as well as casual to just lounge and relax in.  
+Sitting at the bar at the Freehand I was able to see that they had a very talented staff that added that extra touch to make sure every drink served was just as much about presentation as well as taste.
+There was a great barista within the lobby where I had my coffee with my breakfast and the dinner selection at the restaurant was hard to choose from as they all were enticing to try.  I did my best to try them all during my week stay.  
+The hotel itself had just been remodeled and the feel had a what I had only imagined would be as my first experience in the city.  The corner king suite with roll in shower was spacious and...I was in LA for E3 2017.  This was my first trip to both LA and E3.  I choose the Freehand for location from the convention center and accessibility.  I am a paraplegic and need a roll in shower as well as room for my power chair.  Upon arrival to the hotel the valet was great at getting all my belongs off my van from my long drive from San Antonio, Texas.  The lobby of the hotel had a very warm feel to it with a unique atmosphere unlike any hotel I've ever been in.  It's the kinda place where you could have a business meeting as well as casual to just lounge and relax in.  Sitting at the bar at the Freehand I was able to see that they had a very talented staff that added that extra touch to make sure every drink served was just as much about presentation as well as taste.There was a great barista within the lobby where I had my coffee with my breakfast and the dinner selection at the restaurant was hard to choose from as they all were enticing to try.  I did my best to try them all during my week stay.  The hotel itself had just been remodeled and the feel had a what I had only imagined would be as my first experience in the city.  The corner king suite with roll in shower was spacious and the view outlooked on to downtown.  The bathroom was more than adequate for my needs and I was able to maneuver around the room with ease.The only hiccup was that the bed although comfortable and I slept like a rock was that the height was too low for me to transfer out of with my limited mobility.  The friendly and pleasant staff and management quickly remedied the situation by bringing me another mattress to make the height level with my chair to transfer with ease.  Something no other hotel I have ever been in suggested doing. It made my week very easy to rise and go to bed in.Within a few blocks in any direction of the Freehand you can find anything you could need during a stay in downtown.  Shopping, food, subway, buses, local dive bars, and the convention center.I am 110% happy with my stay, the attentiveness of everyone from the door to management.  I look forward to returning again in the future and having the Freehand as my second home away from home. I highly recommend them to anyone looking for a unique stay and most importantly that they are ADA accessible and can accommodate your needs!I am also honored in a way to be the first guest.  Thank you Freehand for making my first visit to Los Angeles a memorable one!MoreShow less</t>
+  </si>
+  <si>
+    <t>I was in LA for E3 2017.  This was my first trip to both LA and E3.  I choose the Freehand for location from the convention center and accessibility.  I am a paraplegic and need a roll in shower as well as room for my power chair.  
+Upon arrival to the hotel the valet was great at getting all my belongs off my van from my long drive from San Antonio, Texas.  The lobby of the hotel had a very warm feel to it with a unique atmosphere unlike any hotel I've ever been in.  It's the kinda place where you could have a business meeting as well as casual to just lounge and relax in.  
+Sitting at the bar at the Freehand I was able to see that they had a very talented staff that added that extra touch to make sure every drink served was just as much about presentation as well as taste.
+There was a great barista within the lobby where I had my coffee with my breakfast and the dinner selection at the restaurant was hard to choose from as they all were enticing to try.  I did my best to try them all during my week stay.  
+The hotel itself had just been remodeled and the feel had a what I had only imagined would be as my first experience in the city.  The corner king suite with roll in shower was spacious and...I was in LA for E3 2017.  This was my first trip to both LA and E3.  I choose the Freehand for location from the convention center and accessibility.  I am a paraplegic and need a roll in shower as well as room for my power chair.  Upon arrival to the hotel the valet was great at getting all my belongs off my van from my long drive from San Antonio, Texas.  The lobby of the hotel had a very warm feel to it with a unique atmosphere unlike any hotel I've ever been in.  It's the kinda place where you could have a business meeting as well as casual to just lounge and relax in.  Sitting at the bar at the Freehand I was able to see that they had a very talented staff that added that extra touch to make sure every drink served was just as much about presentation as well as taste.There was a great barista within the lobby where I had my coffee with my breakfast and the dinner selection at the restaurant was hard to choose from as they all were enticing to try.  I did my best to try them all during my week stay.  The hotel itself had just been remodeled and the feel had a what I had only imagined would be as my first experience in the city.  The corner king suite with roll in shower was spacious and the view outlooked on to downtown.  The bathroom was more than adequate for my needs and I was able to maneuver around the room with ease.The only hiccup was that the bed although comfortable and I slept like a rock was that the height was too low for me to transfer out of with my limited mobility.  The friendly and pleasant staff and management quickly remedied the situation by bringing me another mattress to make the height level with my chair to transfer with ease.  Something no other hotel I have ever been in suggested doing. It made my week very easy to rise and go to bed in.Within a few blocks in any direction of the Freehand you can find anything you could need during a stay in downtown.  Shopping, food, subway, buses, local dive bars, and the convention center.I am 110% happy with my stay, the attentiveness of everyone from the door to management.  I look forward to returning again in the future and having the Freehand as my second home away from home. I highly recommend them to anyone looking for a unique stay and most importantly that they are ADA accessible and can accommodate your needs!I am also honored in a way to be the first guest.  Thank you Freehand for making my first visit to Los Angeles a memorable one!More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1910,3820 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>65357</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>65357</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>65357</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L4" t="s">
+        <v>62</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>63</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>65357</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>71</v>
+      </c>
+      <c r="X5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>65357</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>52</v>
+      </c>
+      <c r="O6" t="s">
+        <v>79</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>71</v>
+      </c>
+      <c r="X6" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>65357</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>87</v>
+      </c>
+      <c r="X7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>65357</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" t="s">
+        <v>92</v>
+      </c>
+      <c r="K8" t="s">
+        <v>93</v>
+      </c>
+      <c r="L8" t="s">
+        <v>94</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>70</v>
+      </c>
+      <c r="O8" t="s">
+        <v>79</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>65357</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" t="s">
+        <v>92</v>
+      </c>
+      <c r="K9" t="s">
+        <v>97</v>
+      </c>
+      <c r="L9" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>70</v>
+      </c>
+      <c r="O9" t="s">
+        <v>63</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>87</v>
+      </c>
+      <c r="X9" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>65357</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>101</v>
+      </c>
+      <c r="J10" t="s">
+        <v>102</v>
+      </c>
+      <c r="K10" t="s">
+        <v>103</v>
+      </c>
+      <c r="L10" t="s">
+        <v>104</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>70</v>
+      </c>
+      <c r="O10" t="s">
+        <v>79</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>71</v>
+      </c>
+      <c r="X10" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>65357</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>107</v>
+      </c>
+      <c r="J11" t="s">
+        <v>108</v>
+      </c>
+      <c r="K11" t="s">
+        <v>109</v>
+      </c>
+      <c r="L11" t="s">
+        <v>110</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>111</v>
+      </c>
+      <c r="O11" t="s">
+        <v>63</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>65357</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>113</v>
+      </c>
+      <c r="J12" t="s">
+        <v>114</v>
+      </c>
+      <c r="K12" t="s">
+        <v>115</v>
+      </c>
+      <c r="L12" t="s">
+        <v>116</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>70</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>65357</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>118</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>119</v>
+      </c>
+      <c r="J13" t="s">
+        <v>120</v>
+      </c>
+      <c r="K13" t="s">
+        <v>121</v>
+      </c>
+      <c r="L13" t="s">
+        <v>122</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>70</v>
+      </c>
+      <c r="O13" t="s">
+        <v>63</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>65357</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>124</v>
+      </c>
+      <c r="J14" t="s">
+        <v>125</v>
+      </c>
+      <c r="K14" t="s">
+        <v>126</v>
+      </c>
+      <c r="L14" t="s">
+        <v>127</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>70</v>
+      </c>
+      <c r="O14" t="s">
+        <v>79</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>65357</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>128</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>129</v>
+      </c>
+      <c r="J15" t="s">
+        <v>130</v>
+      </c>
+      <c r="K15" t="s">
+        <v>131</v>
+      </c>
+      <c r="L15" t="s">
+        <v>132</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>133</v>
+      </c>
+      <c r="O15" t="s">
+        <v>79</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>65357</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>135</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>136</v>
+      </c>
+      <c r="J16" t="s">
+        <v>137</v>
+      </c>
+      <c r="K16" t="s">
+        <v>138</v>
+      </c>
+      <c r="L16" t="s">
+        <v>139</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>140</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>65357</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>142</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>143</v>
+      </c>
+      <c r="J17" t="s">
+        <v>144</v>
+      </c>
+      <c r="K17" t="s">
+        <v>145</v>
+      </c>
+      <c r="L17" t="s">
+        <v>146</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>140</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>3</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>147</v>
+      </c>
+      <c r="X17" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>65357</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>150</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>151</v>
+      </c>
+      <c r="J18" t="s">
+        <v>152</v>
+      </c>
+      <c r="K18" t="s">
+        <v>153</v>
+      </c>
+      <c r="L18" t="s">
+        <v>154</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>140</v>
+      </c>
+      <c r="O18" t="s">
+        <v>155</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>65357</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>157</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>158</v>
+      </c>
+      <c r="J19" t="s">
+        <v>159</v>
+      </c>
+      <c r="K19" t="s">
+        <v>160</v>
+      </c>
+      <c r="L19" t="s">
+        <v>161</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>140</v>
+      </c>
+      <c r="O19" t="s">
+        <v>155</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>162</v>
+      </c>
+      <c r="X19" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>65357</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>165</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>166</v>
+      </c>
+      <c r="J20" t="s">
+        <v>167</v>
+      </c>
+      <c r="K20" t="s">
+        <v>168</v>
+      </c>
+      <c r="L20" t="s">
+        <v>169</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>170</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>65357</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>171</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>172</v>
+      </c>
+      <c r="J21" t="s">
+        <v>173</v>
+      </c>
+      <c r="K21" t="s">
+        <v>174</v>
+      </c>
+      <c r="L21" t="s">
+        <v>175</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>170</v>
+      </c>
+      <c r="O21" t="s">
+        <v>155</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1</v>
+      </c>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>65357</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>176</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>177</v>
+      </c>
+      <c r="J22" t="s">
+        <v>178</v>
+      </c>
+      <c r="K22" t="s">
+        <v>179</v>
+      </c>
+      <c r="L22" t="s">
+        <v>180</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>170</v>
+      </c>
+      <c r="O22" t="s">
+        <v>79</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>65357</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>181</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>182</v>
+      </c>
+      <c r="J23" t="s">
+        <v>183</v>
+      </c>
+      <c r="K23" t="s">
+        <v>184</v>
+      </c>
+      <c r="L23" t="s">
+        <v>185</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>186</v>
+      </c>
+      <c r="O23" t="s">
+        <v>79</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>65357</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>187</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>188</v>
+      </c>
+      <c r="J24" t="s">
+        <v>189</v>
+      </c>
+      <c r="K24" t="s">
+        <v>190</v>
+      </c>
+      <c r="L24" t="s">
+        <v>191</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="s">
+        <v>170</v>
+      </c>
+      <c r="O24" t="s">
+        <v>63</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>192</v>
+      </c>
+      <c r="X24" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>65357</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>195</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>196</v>
+      </c>
+      <c r="J25" t="s">
+        <v>197</v>
+      </c>
+      <c r="K25" t="s">
+        <v>198</v>
+      </c>
+      <c r="L25" t="s">
+        <v>199</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>170</v>
+      </c>
+      <c r="O25" t="s">
+        <v>79</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>3</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>65357</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>201</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>202</v>
+      </c>
+      <c r="J26" t="s">
+        <v>203</v>
+      </c>
+      <c r="K26" t="s">
+        <v>204</v>
+      </c>
+      <c r="L26" t="s">
+        <v>205</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s"/>
+      <c r="O26" t="s"/>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>65357</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>206</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>207</v>
+      </c>
+      <c r="J27" t="s">
+        <v>208</v>
+      </c>
+      <c r="K27" t="s">
+        <v>209</v>
+      </c>
+      <c r="L27" t="s">
+        <v>210</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>186</v>
+      </c>
+      <c r="O27" t="s">
+        <v>79</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>3</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>65357</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>212</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>213</v>
+      </c>
+      <c r="J28" t="s">
+        <v>214</v>
+      </c>
+      <c r="K28" t="s">
+        <v>215</v>
+      </c>
+      <c r="L28" t="s">
+        <v>216</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>186</v>
+      </c>
+      <c r="O28" t="s">
+        <v>79</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>65357</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>218</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>219</v>
+      </c>
+      <c r="J29" t="s">
+        <v>220</v>
+      </c>
+      <c r="K29" t="s">
+        <v>221</v>
+      </c>
+      <c r="L29" t="s">
+        <v>222</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>223</v>
+      </c>
+      <c r="O29" t="s">
+        <v>224</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>65357</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>225</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>226</v>
+      </c>
+      <c r="J30" t="s">
+        <v>227</v>
+      </c>
+      <c r="K30" t="s">
+        <v>228</v>
+      </c>
+      <c r="L30" t="s">
+        <v>229</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>186</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>65357</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>231</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>232</v>
+      </c>
+      <c r="J31" t="s">
+        <v>233</v>
+      </c>
+      <c r="K31" t="s">
+        <v>68</v>
+      </c>
+      <c r="L31" t="s">
+        <v>234</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>235</v>
+      </c>
+      <c r="O31" t="s">
+        <v>224</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>65357</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>237</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>238</v>
+      </c>
+      <c r="J32" t="s">
+        <v>239</v>
+      </c>
+      <c r="K32" t="s">
+        <v>240</v>
+      </c>
+      <c r="L32" t="s">
+        <v>241</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>186</v>
+      </c>
+      <c r="O32" t="s">
+        <v>63</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>242</v>
+      </c>
+      <c r="X32" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>65357</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>245</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>246</v>
+      </c>
+      <c r="J33" t="s">
+        <v>247</v>
+      </c>
+      <c r="K33" t="s">
+        <v>248</v>
+      </c>
+      <c r="L33" t="s">
+        <v>249</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>133</v>
+      </c>
+      <c r="O33" t="s">
+        <v>79</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>65357</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>251</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>252</v>
+      </c>
+      <c r="J34" t="s">
+        <v>253</v>
+      </c>
+      <c r="K34" t="s">
+        <v>254</v>
+      </c>
+      <c r="L34" t="s">
+        <v>255</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>235</v>
+      </c>
+      <c r="O34" t="s">
+        <v>155</v>
+      </c>
+      <c r="P34" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="n">
+        <v>2</v>
+      </c>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>65357</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>257</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>258</v>
+      </c>
+      <c r="J35" t="s">
+        <v>259</v>
+      </c>
+      <c r="K35" t="s">
+        <v>260</v>
+      </c>
+      <c r="L35" t="s">
+        <v>261</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="s"/>
+      <c r="O35" t="s"/>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>242</v>
+      </c>
+      <c r="X35" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>65357</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>263</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>264</v>
+      </c>
+      <c r="J36" t="s">
+        <v>265</v>
+      </c>
+      <c r="K36" t="s">
+        <v>266</v>
+      </c>
+      <c r="L36" t="s">
+        <v>267</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>235</v>
+      </c>
+      <c r="O36" t="s">
+        <v>63</v>
+      </c>
+      <c r="P36" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>242</v>
+      </c>
+      <c r="X36" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>65357</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>269</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>270</v>
+      </c>
+      <c r="J37" t="s">
+        <v>271</v>
+      </c>
+      <c r="K37" t="s">
+        <v>272</v>
+      </c>
+      <c r="L37" t="s">
+        <v>273</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>235</v>
+      </c>
+      <c r="O37" t="s">
+        <v>79</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>65357</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>274</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>275</v>
+      </c>
+      <c r="J38" t="s">
+        <v>276</v>
+      </c>
+      <c r="K38" t="s">
+        <v>277</v>
+      </c>
+      <c r="L38" t="s">
+        <v>278</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>133</v>
+      </c>
+      <c r="O38" t="s">
+        <v>79</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>65357</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>280</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>281</v>
+      </c>
+      <c r="J39" t="s">
+        <v>282</v>
+      </c>
+      <c r="K39" t="s">
+        <v>283</v>
+      </c>
+      <c r="L39" t="s">
+        <v>284</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>133</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>4</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>65357</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>286</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>287</v>
+      </c>
+      <c r="J40" t="s">
+        <v>288</v>
+      </c>
+      <c r="K40" t="s">
+        <v>289</v>
+      </c>
+      <c r="L40" t="s">
+        <v>290</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>133</v>
+      </c>
+      <c r="O40" t="s">
+        <v>79</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>242</v>
+      </c>
+      <c r="X40" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>65357</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>292</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>293</v>
+      </c>
+      <c r="J41" t="s">
+        <v>294</v>
+      </c>
+      <c r="K41" t="s">
+        <v>295</v>
+      </c>
+      <c r="L41" t="s">
+        <v>296</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>111</v>
+      </c>
+      <c r="O41" t="s">
+        <v>224</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>297</v>
+      </c>
+      <c r="X41" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>65357</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>300</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>301</v>
+      </c>
+      <c r="J42" t="s">
+        <v>302</v>
+      </c>
+      <c r="K42" t="s">
+        <v>303</v>
+      </c>
+      <c r="L42" t="s">
+        <v>304</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>111</v>
+      </c>
+      <c r="O42" t="s">
+        <v>79</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>305</v>
+      </c>
+      <c r="X42" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>65357</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>307</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>308</v>
+      </c>
+      <c r="J43" t="s">
+        <v>309</v>
+      </c>
+      <c r="K43" t="s">
+        <v>310</v>
+      </c>
+      <c r="L43" t="s">
+        <v>311</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s"/>
+      <c r="O43" t="s"/>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>65357</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>313</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>314</v>
+      </c>
+      <c r="J44" t="s">
+        <v>315</v>
+      </c>
+      <c r="K44" t="s">
+        <v>316</v>
+      </c>
+      <c r="L44" t="s">
+        <v>317</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>111</v>
+      </c>
+      <c r="O44" t="s">
+        <v>79</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>65357</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>319</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>320</v>
+      </c>
+      <c r="J45" t="s">
+        <v>321</v>
+      </c>
+      <c r="K45" t="s">
+        <v>322</v>
+      </c>
+      <c r="L45" t="s">
+        <v>323</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>324</v>
+      </c>
+      <c r="O45" t="s">
+        <v>224</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>65357</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>326</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>327</v>
+      </c>
+      <c r="J46" t="s">
+        <v>328</v>
+      </c>
+      <c r="K46" t="s">
+        <v>329</v>
+      </c>
+      <c r="L46" t="s">
+        <v>330</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s">
+        <v>223</v>
+      </c>
+      <c r="O46" t="s">
+        <v>63</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>65357</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>331</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>332</v>
+      </c>
+      <c r="J47" t="s">
+        <v>333</v>
+      </c>
+      <c r="K47" t="s">
+        <v>334</v>
+      </c>
+      <c r="L47" t="s">
+        <v>335</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s"/>
+      <c r="O47" t="s"/>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>65357</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>337</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>338</v>
+      </c>
+      <c r="J48" t="s">
+        <v>339</v>
+      </c>
+      <c r="K48" t="s">
+        <v>340</v>
+      </c>
+      <c r="L48" t="s">
+        <v>341</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>223</v>
+      </c>
+      <c r="O48" t="s">
+        <v>63</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>65357</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>343</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>344</v>
+      </c>
+      <c r="J49" t="s">
+        <v>345</v>
+      </c>
+      <c r="K49" t="s">
+        <v>346</v>
+      </c>
+      <c r="L49" t="s">
+        <v>347</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>223</v>
+      </c>
+      <c r="O49" t="s">
+        <v>224</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>65357</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>348</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>349</v>
+      </c>
+      <c r="J50" t="s">
+        <v>350</v>
+      </c>
+      <c r="K50" t="s">
+        <v>351</v>
+      </c>
+      <c r="L50" t="s">
+        <v>352</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>223</v>
+      </c>
+      <c r="O50" t="s">
+        <v>63</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>353</v>
+      </c>
+      <c r="X50" t="s">
+        <v>354</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>65357</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>356</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>357</v>
+      </c>
+      <c r="J51" t="s">
+        <v>358</v>
+      </c>
+      <c r="K51" t="s">
+        <v>359</v>
+      </c>
+      <c r="L51" t="s">
+        <v>360</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>223</v>
+      </c>
+      <c r="O51" t="s">
+        <v>79</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>361</v>
+      </c>
+      <c r="X51" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>65357</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>364</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>365</v>
+      </c>
+      <c r="J52" t="s">
+        <v>366</v>
+      </c>
+      <c r="K52" t="s">
+        <v>367</v>
+      </c>
+      <c r="L52" t="s">
+        <v>368</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" t="s"/>
+      <c r="O52" t="s"/>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>361</v>
+      </c>
+      <c r="X52" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>65357</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>370</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>371</v>
+      </c>
+      <c r="J53" t="s">
+        <v>372</v>
+      </c>
+      <c r="K53" t="s">
+        <v>373</v>
+      </c>
+      <c r="L53" t="s">
+        <v>374</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>86</v>
+      </c>
+      <c r="O53" t="s">
+        <v>63</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="s"/>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>361</v>
+      </c>
+      <c r="X53" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>65357</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>376</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>377</v>
+      </c>
+      <c r="J54" t="s">
+        <v>378</v>
+      </c>
+      <c r="K54" t="s">
+        <v>379</v>
+      </c>
+      <c r="L54" t="s">
+        <v>380</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>86</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>361</v>
+      </c>
+      <c r="X54" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>65357</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>382</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>383</v>
+      </c>
+      <c r="J55" t="s">
+        <v>384</v>
+      </c>
+      <c r="K55" t="s">
+        <v>385</v>
+      </c>
+      <c r="L55" t="s">
+        <v>386</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>86</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>361</v>
+      </c>
+      <c r="X55" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>65357</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>388</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>389</v>
+      </c>
+      <c r="J56" t="s">
+        <v>390</v>
+      </c>
+      <c r="K56" t="s">
+        <v>391</v>
+      </c>
+      <c r="L56" t="s">
+        <v>392</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>86</v>
+      </c>
+      <c r="O56" t="s">
+        <v>155</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>361</v>
+      </c>
+      <c r="X56" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>65357</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>394</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>395</v>
+      </c>
+      <c r="J57" t="s">
+        <v>396</v>
+      </c>
+      <c r="K57" t="s">
+        <v>397</v>
+      </c>
+      <c r="L57" t="s">
+        <v>398</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>399</v>
+      </c>
+      <c r="O57" t="s">
+        <v>224</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="s"/>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>361</v>
+      </c>
+      <c r="X57" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>65357</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>401</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>402</v>
+      </c>
+      <c r="J58" t="s">
+        <v>403</v>
+      </c>
+      <c r="K58" t="s">
+        <v>404</v>
+      </c>
+      <c r="L58" t="s">
+        <v>405</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s"/>
+      <c r="O58" t="s"/>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="s"/>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>406</v>
+      </c>
+      <c r="X58" t="s">
+        <v>407</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>65357</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>409</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>410</v>
+      </c>
+      <c r="J59" t="s">
+        <v>411</v>
+      </c>
+      <c r="K59" t="s">
+        <v>412</v>
+      </c>
+      <c r="L59" t="s">
+        <v>413</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>414</v>
+      </c>
+      <c r="O59" t="s">
+        <v>79</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="s"/>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>406</v>
+      </c>
+      <c r="X59" t="s">
+        <v>407</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>65357</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>416</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>417</v>
+      </c>
+      <c r="J60" t="s">
+        <v>418</v>
+      </c>
+      <c r="K60" t="s">
+        <v>419</v>
+      </c>
+      <c r="L60" t="s">
+        <v>420</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>399</v>
+      </c>
+      <c r="O60" t="s">
+        <v>79</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>406</v>
+      </c>
+      <c r="X60" t="s">
+        <v>407</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>65357</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>422</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>423</v>
+      </c>
+      <c r="J61" t="s">
+        <v>424</v>
+      </c>
+      <c r="K61" t="s">
+        <v>425</v>
+      </c>
+      <c r="L61" t="s">
+        <v>426</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>414</v>
+      </c>
+      <c r="O61" t="s">
+        <v>79</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>406</v>
+      </c>
+      <c r="X61" t="s">
+        <v>407</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>65357</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>428</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>429</v>
+      </c>
+      <c r="J62" t="s">
+        <v>430</v>
+      </c>
+      <c r="K62" t="s">
+        <v>431</v>
+      </c>
+      <c r="L62" t="s">
+        <v>432</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>414</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>406</v>
+      </c>
+      <c r="X62" t="s">
+        <v>407</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>65357</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>434</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>435</v>
+      </c>
+      <c r="J63" t="s">
+        <v>436</v>
+      </c>
+      <c r="K63" t="s">
+        <v>437</v>
+      </c>
+      <c r="L63" t="s">
+        <v>438</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>414</v>
+      </c>
+      <c r="O63" t="s">
+        <v>63</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>406</v>
+      </c>
+      <c r="X63" t="s">
+        <v>407</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>439</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_295.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_295.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="502">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>pguerrero1231</t>
+  </si>
+  <si>
     <t>07/02/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>zlebneb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r588508258-Freehand_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -195,6 +201,9 @@
     <t>We stayed at the Freehand for just one night earlier this month and we had a great stay.  The room was clean and definitely fashionably decorated.  The hotel as a whole is beautiful and historic.  Staff was friendly and helped make our stay so great.</t>
   </si>
   <si>
+    <t>klrambo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r588408955-Freehand_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -213,6 +222,9 @@
     <t>I stumbled upon this hotel last minute a few days before I needed to be in town for E3. I usually stay at super chains, but the convention had led to a price surge. This place was a great price so I gave it a shot, not knowing anything about it. I LOVED IT. Seriously wish I could have spent my whole trip there, or at least had more time to spend at the hotel. My room was so comfortable and homey, the bar and lounge were incredibly inviting, and the pool and rooftop bar looked awesome! I will definitely be staying here on any future trips to DTLA, whether for work or for pleasure.More</t>
   </si>
   <si>
+    <t>Tom R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r587049891-Freehand_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -240,6 +252,9 @@
     <t>We stayed here last month for 2 nights and was very impressed. This hotel is split between a regular hotel and a more "dorm" oriented place. We stayed in the normal hotel part, so can only comment on that. Upon arrival, the valet service quickly and politely arranged to take care of our car and we went to reception. The staff were very friendly and provided us with any info we needed. There is also a large bar area by reception where you can chill out with a drink (or 3)! Our room had a lovely view of the city with all the mod cons that we needed. There is also a rooftop swimming pool and bar, which serves great cocktails and beers items. We didn't use the pool, though it looked lovely and there were plenty of sunbeds around. Cannot fault anything about this place and would definitely love to stay here again in the future. Thanks Freehand!More</t>
   </si>
   <si>
+    <t>Nelsiwe M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r586717312-Freehand_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -261,6 +276,9 @@
     <t>Everything about it was lovely, homely, simple yet classy. The rooms were nice, didn’t much enjoy the sharing part so changed to a single occupancy which allowed me the flexibility and freedom I needed. But for travelers on budget who also want to make friends, the dom type of rooms are great.Loved the pool upstairs .. simply beautiful colors and vibe, great drinks good music Their breakfast however can be improved .. so don’t plan on eating there much better out of the resortMore</t>
   </si>
   <si>
+    <t>Ellen B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r585236835-Freehand_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -288,6 +306,9 @@
     <t>The room was very spacious and the people were nice. There was a rooftop pool with an amazing view and the hotel restaurant was delicious and pretty! I was a bit skeptical since I like to have my own space, but the price is great especially if you want to spend money on other areas of your vacation. More</t>
   </si>
   <si>
+    <t>Shirnelle W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r583180746-Freehand_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -301,6 +322,9 @@
   </si>
   <si>
     <t>Stayed in the hostel style room. Met amazing people. Had fun on the rooftop bar. Can not wait to go back! This is my LA hotel! Staff was friendly, they had everything I needed and perfect location!!!!</t>
+  </si>
+  <si>
+    <t>Arcnom p</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r583041051-Freehand_Los_Angeles-Los_Angeles_California.html</t>
@@ -322,6 +346,9 @@
 The shared quads I was in...Some great things and some downers about Freehand LA. I would try it again but not a female only shared quad. Also this is MD weekend so really busy. I moved rooms because of smell in the room from roomies rolling their joints and lots of perfume. Second room there was a drama about the lockers and someones lock getting taking off and their stuff being down at the front desk. I did not want to get involved. I slept with my luggage and didn't really sleep well. But I don't sleep great on the road so it wasn't Freehands fault. Weird things with the sheets. the top sheet you put on yourself and the blankets are megre and I am assuming they aren't changed with every guest but thats a yuck factor. We were supposed to get shampoo  with our one towl in out locker but netiher room I was in had the shampoo. The first room I was in they brought some up but then I switched. The second room no shampoo. As I was checking out this was a complaint voiced by many others no shampoo. I am guessing that the non us people don't use the top sheet. In fact my roomies used the top sheet to screen out and drape the lower bunk space. I found this sort of disturbing, what if they are in their with another person...The shared quads I was in were very small, no TV, no place to open up luggage other than your bed. The details were nice, big bath tile in floor nice big shower. Everything seemed clean, no arthropods. The windows were big and on the ninth floor the veiw was beautiful really gorgeous. Some noise but not unpleasant. On the fourth floor veiw of the ally wall. The bunks are interesting. I liked the cavelike lower bunk, the upper bunk was a little more work to get in and out of.The management was awesome and helped with my room. I think this was a crazy weekend for them. I have stayed in europe in many shared single sex hostel rooms and this seemed to be very different from the norms others showed when sharing a room. The complementary breakfast isn't a positive experince a simple kitchenette where you are expected to wash your own dishes. Most people were dumping their stuff in the sink, cherrios, apples and weak coffee. Free and basic. At 7 am it was already cramped with 12 people in there.More</t>
   </si>
   <si>
+    <t>SpaceMtnFrontRow</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r581763814-Freehand_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -340,6 +367,9 @@
     <t>I chose Freehand because of the price point in the area and because I knew it was recently built. It didn’t disappoint. Very nicely appointed lobby, beds and bathrooms. Nice staff at front desk and the bar.The quad room I was allocated was smaller than the one I’ve seen in pictures but it still felt private when lying on the bed.Clean bathroom attached to the dorm room with separate areas for sinks (two of them), toilet and shower. Only thing I thought was strange is that there was no locks on the toilet or shower door.Great location to explore the up and coming downtown LA area and a quick 5 min walk to the metro station to travel elsewhere.More</t>
   </si>
   <si>
+    <t>Benjamin F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r580681063-Freehand_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -356,6 +386,9 @@
   </si>
   <si>
     <t>November 2017</t>
+  </si>
+  <si>
+    <t>Heidi K</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r580421651-Freehand_Los_Angeles-Los_Angeles_California.html</t>
@@ -396,6 +429,9 @@
 We popped into the Exchange restaurant  late one evening for drinks &amp; some light snacks. We asked for a table...**note**There are 2 types of rooms available here-Hostel style with shared rooms OR private hotel rooms. We were thinking it might be a little noisy sometimes with there being a backpackers place mixed in; it wasn’t. However, with it being an old building the windows are single glazed, so some of the outside street noise was noticeable. It was great to see this old building being re-used, as opposed to the LA way (sometimes) of knocking things down and starting again. We had a private room with all usual amenities.  Toiletries, hairdryer, iron &amp; board, safe, minibar. WiFi.No tea/coffee making facilities. Our room was perfectly adequate for what we needed. It’s not a massive floor space so with 2 large suitcases sprawled out over the floor it was a squeeze walking around. But it was still ok &amp; that’s our problem.There is some hanging space for clothes, it’s a small cupboard which also houses the ironing board &amp; safe.Bed was huge &amp; very comfortable.The rooftop has a pool with sun loungers around &amp; towels to use. The bar area is behind &amp; opens later on in the afternoon, a good space to hang out. It does get very busy though &amp; sometimes you have to wait a while for the lifts to be free.We popped into the Exchange restaurant  late one evening for drinks &amp; some light snacks. We asked for a table for 2...the servers spent time looking around to see where they could sit us, eventually offered a place at the bar. No problem, but felt it strange that there were tables available (they needed cleaning up) &amp; remained empty the whole time we were there. Food was lovely but we felt it was expensive for what we had.Location for hotel is great. A short walk from the metro station at 7th Street. Handy to get to anywhere with all lines passing through here. On leaving the metro follow the signs for the shops &amp; it will bring you out at Macy’s Plaza.The Wholefoods Market is close by &amp; has anything you want plus more- highly recommend the salad bars &amp; pizza slices!  **transfer tip from LAX**Outside the terminals are bus stops - look for the one with Metro Green Line.These are free shuttles &amp; will stop at every terminal &amp; then drop off at ‘Aviation station’ Not much room for large cases but just squeeze in.Buy a TAP card ($1) here, you can load different values on to it now if you wish.One way fare $1.75 (you can transfer to another line within a 2hr window for free)On the metro train head for Norwalk but you will need to get off at Willowbrook/Rosa Park Transfer to the blue line heading L.A. (not long beach) stay on to the end of the line..7th street/metro centre.So easy &amp; cheap. Allow an hour at least depending on time of day.We also returned to LAX the same via metro &amp; shuttle. We left 7th street @9.30 &amp; got to Terminal 3 @11.00.More</t>
   </si>
   <si>
+    <t>Jessica C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r580209666-Freehand_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -411,6 +447,9 @@
     <t>Friendly staff with spacious rooms. My personal favorite was the rooftop pool with comfortable seating, but it can be a bit crowded in the evening.  The area has several  cute bars and restaurants within a 3-4 block radius.</t>
   </si>
   <si>
+    <t>Joe E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r578550388-Freehand_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -426,6 +465,9 @@
     <t>This "hostel" is hardly a hostel with plenty of "standard-type" hotel rooms with chic design from Roman &amp; Williams.  The DTLA location is mid-point between the business district and Staples Center and within walking distance to most of the hot restaurants. Loved The Exchange lobby restaurant and the day time party at the rooftop pool.  The rooms are well-appointed and I appreciated the top-to-bottom renovation which includes all new bathrooms. Terrific addition to LA.</t>
   </si>
   <si>
+    <t>Sarah N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r578427757-Freehand_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -447,6 +489,9 @@
     <t>Hi stayed at the Freehand for a few nights - I was travelling alone and wanted a good balance between meeting people (hostel vibe) and a nice place to stay. Freehand was perfect. There are hostel and hotel rooms and I stayed in a 4 bed dorm. It was the nicest dorm I've ever stayed in - a little more expensive than most but worth it. The hotel bar on the rooftop was lovely and an amazing spot to sunbathe, there's happy hour in the downstairs bar and also breakfast included. I walked around DTLA from the hotel and went to a few food markets close by as well as some fun bars such as the one at Ace Hotel. I'd really recommend it.More</t>
   </si>
   <si>
+    <t>Damian M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r577966664-Freehand_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -468,6 +513,9 @@
     <t>Me and my girlfriend booked this on the pretence we would have more upscale hostel experience but that didn't prove to be the case. The freehand is basically a trendy hotel with a hostel as an after thought in it. Pros:- rooftop bar looks great at night- the decor is great- the taco truck across the streetCons:- continental breakfast is PACKED (tiny room and hundreds of guests) and things run out quickly - there is no deals or cheap drinks for hostel guests (better happy hours in bars a block away)- lacks any atmosphere in the common room - our room didn't have a lock on the shower OR toilet - the gym in non existent - we were actually over charged twice for our booking The shining star in a pretty lousy experience was Nick the manager (the guy with the magnificent 'tache) he made up for our problems and went above and beyond to try to rectify the situation.If you're looking for the socialite scene this is your spot! If you're looking to meet like-minded travellers/back packers up for some fun stay clear ... genuinelyMore</t>
   </si>
   <si>
+    <t>lowhedgerow</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r576959609-Freehand_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -492,6 +540,9 @@
     <t>I stayed in the hotel, not the hostel. The Good: Room was lovely, very spacious (especially compared to the comparably priced Nomad), wonderful natural light, good AC, free wifi. I was pleasantly surprised by the roomy bathroom that looked a bit grim on the web site. Fabulous cocktails and very good coffee from the cafe. The Bad: I've seen lots of positive comments on the restaurant but I just can't agree. The menu is limited. We ordered chicken one night that was so heavily salted it was inedible. (And I say this as someone who is always oversalting her food.) My egg sandwich from the cafe came with ice cold egg. Room service took nearly an hour to be delivered. For this price point, they can do better. The parking is $50 per day. I know parking at downtown hotels is steep but many other places offer packages or charge a flat rate. Street noise is intense so book a high floor. The Freehand is beautifully designed and clearly having its moment with a young crowd, but I'm not sure I can recommend it or return. I'm giving it 4 stars because it's certainly above average, but I'm tempted to grade it lower.More</t>
   </si>
   <si>
+    <t>Kouris</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r575042568-Freehand_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -513,6 +564,9 @@
     <t>The hotel was super cool and very trendy with a hip/bohemian feel. We had the super 8 room for the family. The service was very easy and friendly. Convenient valet in front of hotel, didn't have to search for parking, expensive but that is to be expected in a city. We were there for a cheer convention so unfortunately we didn't get to spend a lot of time at the hotel but it looked super fun to hang out at. There is a little coffee shop down in the lobby so that was great for the morning with a continental breakfast available in the basement. That evening we went on the rooftop to check out the pool, however there was a bar with lots of people enjoying the weather and drinks. Not able to swim after 8pm as it turns into an outside adult area. Great if the kids are not with you but that was not the case for us... still was fine as the girls were tired from day 1 of competition and us adults would have partaken but we had the kids... looked like fun though. The room was super clean and had all the amenities we needed. Overall we were super happy with our one night in the city. I would definitely stay there again if i needed a room in LA.More</t>
   </si>
   <si>
+    <t>Clement C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r574234168-Freehand_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -537,6 +591,9 @@
     <t>This hotel has a great location in Los Angeles, and a nice overcrowded rooftopHowever they charged us for an extra 100$ on the checkout for drinks we did not take and got insulted by the manager when we pointed out the mistake. We did not sign any bills, but they did not want to verify anything.The room were not made, the breakfast is very poor and you wash up your own dishes like a youth hostel, which is unacceptable for this price.No shower gels or shampoo either ... More</t>
   </si>
   <si>
+    <t>Andrew B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r569897827-Freehand_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -555,6 +612,9 @@
     <t>March 2018</t>
   </si>
   <si>
+    <t>Almas A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r569201971-Freehand_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -570,6 +630,9 @@
     <t>It's a hostile and should stay this way. They are renting other rooms as hotel. Old, dar, scary, unpleasant, I lost money and moved to another hotel out of respect to myself. Wouldn't stay here again in they paid me</t>
   </si>
   <si>
+    <t>Andrea S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r568123156-Freehand_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -585,6 +648,9 @@
     <t>However I had no chance to enjoy the roof terrace ad during my 2,5 days stay only the last half day was rain free but it seems to be a lovely place to hand out. I was also lucky with my roommates as everyone was very considerate to the others. The beds are comfy, the shower is great. I wish there were slightly healthier options for breakfast than just sugar with sugar.</t>
   </si>
   <si>
+    <t>Gory93</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r566545048-Freehand_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -603,6 +669,9 @@
     <t>February 2018</t>
   </si>
   <si>
+    <t>Frédéric L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r565863486-Freehand_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -627,6 +696,9 @@
     <t>So that made for the most expensive business trip ever, and very poor sleep, considering that the windows have single glass, so you're basically sleeping in the street noise, which never really stops. Not to mention the absence of any form of complimentary breakfast... Find something else.More</t>
   </si>
   <si>
+    <t>Ipsita M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r565608315-Freehand_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -645,6 +717,9 @@
     <t>Los Angeles is a big city and it is hard to find a good hotel/hostel in the downtown area. Otherwise there are much better hostels than freehand in Santa Monica area at a cheaper price. In fact, compared to Hostelling International and other European hostels, freehand has a higher price compared to the service provided. I took a quad female dorm -- I had called the hotel and emailed them to request a lower bunk bed. But still on arrival, I found they had paid no attention to my request. After telling them many times more that I cannot climb up, they arranged for a lower bed. The room was very small although the bed was comfortable. There was no shampoo/soap in shower.The staff was in general friendly. But on my departure day, when I was waiting in the lobby for a little time before leaving, the bar waitress told me that if it got busy, she would have to ask me to vacate my seat ! I found this quite unusual and rude as hotel lobbies are mean for guests spending some time even if they have checked out.Breakfast was basis-- bread, muffins, cornflakes, apple (if you go after 8 am, all apples are gone). You get plastic spoons and have to wash your own dishes. The breakfast area is tiny and there is a long line of people waiting for breakfast/cleaning their dishes.More</t>
   </si>
   <si>
+    <t>jonoz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r564101875-Freehand_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -660,6 +735,9 @@
     <t>This hotel is well priced in a neat location.Comfortable chic bar in the lobby.There is a restaurant but I did not try it due to the plethora of great places in LA.The rooms are a bit stark but the pool and bar on the rooftop make up for it.I certainly would go back.</t>
   </si>
   <si>
+    <t>AikenJoshAndrew</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r563615200-Freehand_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -678,6 +756,9 @@
     <t>Checked in late on a Saturday night. lobby was a bit noisy because it is also where a bar is located. stayed in a hostel type room shared with 5 other people. Room was a little bit crowded with 6 people inside. At around about 2:30 am it was still noisy at the street area. The bunk bed has its own reading light and outlet you can charge your devices. Storage locker can fit a large size luggage ( which is good ) . Kitchen is located at the basement that is open 24 hours. there is also a small gym. The swimming pool is located on the roof deck, there is a small bar where you can order some drinks. it has a view of the city but not that  great. Paid almost $50 a night for a room that you have to share with 5 other people. When I stayed that week there was no soap nor shampoo provided.Woman employee at the desk positioned at the left is rude. It was like 8 am of Feb 11, 2018. Overall..i have no plans of coming back here..the loud drunk people in the wee hours of the morning is really very annoying. Room is really tight with 6 people using it. The price is just high if you consider the given condition.See my attached pictures.More</t>
   </si>
   <si>
+    <t>GeneSandbloom</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r562799382-Freehand_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -696,6 +777,9 @@
     <t>Sitting next to the global DJ at the rooftop pool, this could be Goa or Krabi, if it weren't for the LA skyline in the background. I had never heard of the Freehand hotel chain when I stumbled across this hotel and booked on line, but I'll be keeping it top of mind from now on. An unpretentious take on a hip hotel, the designers have taken the best of their global travels and scrambled historic LA in to the mix. The hallways look like Barton Fink just left and the rooms are hip-storic, playing a funky homage to Edgar Rice Burroughs, whose publishing company used to be head-quartered here. And despite all the hip, it's really, really comfortable- from staff to guests. The Exchange Med Restaurant downstairs is about as far away from hotel food as you can get- I'd visit again even if I wasn't staying here.More</t>
   </si>
   <si>
+    <t>Jack M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r561581260-Freehand_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -717,6 +801,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>Kristy C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r560750415-Freehand_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -735,6 +822,9 @@
     <t>We stayed just one night at the Freehand LA for a Lakers game in February, and holy moly this hotel is awesome. Completely exceeded our expectations. Not only is it clean, comfortable, conveniently located and has very friendly staff, it is a visual treasure. Beautifully designed and filled with lush greenery, we couldn’t stop staring at every aspect of the hotel. The rooftop pool and bar are fantastic and we’re surprising not busy given the size of the hotel. The coffee shop in the lobby was excellent. The WiFi worked well. Can’t think of a complaint for this place. The Freehand was easily the coolest hotel I’ve ever stayed at, and I would recommend it to anyone traveling to DTLA. More</t>
   </si>
   <si>
+    <t>mika_zn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r559617106-Freehand_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -753,6 +843,9 @@
     <t>We booked a 6-bunk room at Freehand hotel, when we arrived the first impression of the hotel was modern, funky and vibey. The room was super clean and our bunks were really comfortable, each kitted out with plug points and a lamp. The room had 2 sinks outside from the shower and the separate toilet which helped our early morning schedule. The rooftop pool and bar was beautiful, a great way to chill in LA weather. There is a restaurant in reception where you can have breakfast and a grab a quick takeaway coffee. I lost my wallet and the hotel found it, kept it safely until I picked it up a day later. Wonderful stay! More</t>
   </si>
   <si>
+    <t>Maribel H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r557991414-Freehand_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -777,6 +870,9 @@
     <t>I was in L.A. on business.  I was going to fly in late at night, attend to my business matter just two blocks away the next morning, and then fly back home immediately afterward.  So I really just needed a bed for the night, nothing too fancy.  I decided to stay at the Freehand.  I am glad that I did.  It suited my needs perfectly.  It has a beautiful lobby, I almost thought I was in the wrong place.  The room, that slept four, was clean and cozy.  It had its own bathroom which was convenient.  The light by my bed was left turned on for me, which was great because the room was otherwise dark since it was late.  Bed was comfortable, I slept well.  Shower was nice.  Had the complimentary breakfast downstairs, I chose an apple and bread with peanut butter.  There were people from all walks of life chatting with each other, from the young lady from Belgium who was visiting the U.S. for the first time to the older rocker guy who lives in Southern California and was in town to catch some shows.  I loved the vibe.  And it costs only $2.75 to get there on the light rail from LAX plus you avoid the freeway traffic.  I will definitely stay here again!More</t>
   </si>
   <si>
+    <t>Jim978</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r557789825-Freehand_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -795,6 +891,9 @@
     <t>I stayed at the Freehand   during Various Times During December and January...What can I say I love this place , Love the staff and Miss them so much now.The hospitality/Warmth shown towards me by the Staff was such a humbling experience and something I will never forget,From Louez,Nick,Debbie,Ryan and the rest of the staff at the desk to the valet crew outside,Caroline and Luke at  Roof top bar they were just incredible and So want to make a return to The Freehand ASAP.Even whilst staying in the Dorm rooms,the minute you walk through the Freehand's Door's you feel as though your walking into The Paris Ritz Hotel.By far the greatest Hostel on the planet and so looking forward to staying at the Freehand LA again.With Love Folks,Thank you for taking care of me and the pleasure is truly mine.JimxMore</t>
   </si>
   <si>
+    <t>Mick O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r556593951-Freehand_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -813,6 +912,9 @@
     <t>I've stayed in every single Freehand hostel except the newly built New York facility. They really are a fantastic place to meet people, feel safe and enjoy the city you're in. The Los Angeles one is new, so you can expect beautiful bathrooms and showers that are clean and in good working order. The rooms are furnished nicely too. Staff were fantastic too, even though we had a slight problem with our booking (we were put in two different rooms, despite having one reservation) the staff were able to move us the next day to be together. When the lobby and front desk was busy, the staff maintained their composure and did a really good job. This doesn't go unnoticed. The only thing standing out to me to pass on to my fellow travelers is the location. Downtown LA is not a pretty place and at times, dangerous. We didn't feel comfortable walking around too much at night. It's the only thing that will make me look at staying elsewhere next time. If this Freehand was located around Santa Monica, it's probably the best one out there. Elevators are extremely slow, be patient. We discovered the rooftop pool on our last day, which was a great surprise. If only we were told about it sooner, we would have enjoyed many more drinks by the pool.More</t>
   </si>
   <si>
+    <t>Caitlin R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r555762717-Freehand_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -829,6 +931,9 @@
   </si>
   <si>
     <t>While the ho(s)tel itself is well designed and very hip, the dorm rooms are pretty average. There were very few amenities in the room for dorm guests, just a towel and clean sheets. There are lockers but you need your own key. Each bunk bed has it's own light and little shelf with 2 power outlets. I had some crappy roommates but that's not the hotel's fault. I would probably stay here again if I was able to splash out for the single/private rooms because I think that's where this hotel probably shines. All in all, for $60 CAD/night it was a good spot. More</t>
+  </si>
+  <si>
+    <t>ChipFrazier</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r554655280-Freehand_Los_Angeles-Los_Angeles_California.html</t>
@@ -853,6 +958,9 @@
 The front desk staff was polite and helpful and the facility appeared to be clean and welcoming.  There was a bar in the lobby and another on the roof top.  My bunk and locker was in a room with five other bunks and lockers.  For the one night I was there, I had four roommates--one other male and three females.  I think.  The room was dark when I entered and all the other tenants were in bed.  I did my best to navigate to my locker via my cell phone screen where I stowed my carry-on bag.  I packed a pad lock based on research I did when I made my reservation.  I kept my backpack stuffed with electronics and high value items in the upper bunk with me.  An electrical outlet...Right off the bat, the Freehand Los Angeles is an upscale hostel.  My only other hostel experience was a youth hostel in Copenhagen in 1971.  This was MUCH nicer!  But a word of caution for the timid business traveler--if you need a budget hotel, look elsewhere.  However, if you don't mind a trip outside your comfort zone, the Freehand may work for you.  Mind you, I'm 67 years old.  I arrived at midnight, thanks to a disastrous travel day courtesy of American Airlines.  Interestingly, my shuttle driver mentioned a few years ago that the neighborhood was a rough one, but rejuvenation efforts have improved the urban environment considerably.  The front desk staff was polite and helpful and the facility appeared to be clean and welcoming.  There was a bar in the lobby and another on the roof top.  My bunk and locker was in a room with five other bunks and lockers.  For the one night I was there, I had four roommates--one other male and three females.  I think.  The room was dark when I entered and all the other tenants were in bed.  I did my best to navigate to my locker via my cell phone screen where I stowed my carry-on bag.  I packed a pad lock based on research I did when I made my reservation.  I kept my backpack stuffed with electronics and high value items in the upper bunk with me.  An electrical outlet in the bunk allowed me to maintain the charge in my cell phone through the night.  Although the bed was comfortable, I didn't sleep as soundly as I usually do.  The next morning was the most interesting part of my experience.  There was no door to the latrine bay that was connected to the sleeping quarters.  There were two sinks in the main bay with separate adjoining toilet and shower rooms.  The light from the latrine illuminated the sleeping area.  I set my alarm for 6:00 am, but was preceded by one male and one female roommate.  They were very considerate, but the movement in the sleeping area and latrine ensured I awoke when they did.  One other roommate and I jockeyed for the latrine at 6:00 am.  I shaved and brushed my teeth in the toilet room with the door closed to be as quiet as possible for the sleeping roommate while the other roommate used the shower and dressed.  When she exited the shower, we reversed locations.  The location of the latrine is my only negative.  I would have preferred a separate communal latrine outside the sleeping area so noise would not disturb late risers.All this for $41 and change is a great price.  But, traditionalist business travelers will not appreciate the latrine bay open to the sleeping quarters.Bottom line:  the facility is nice, apparently secure, and cheap, but the room arrangement was a huge distraction.More</t>
   </si>
   <si>
+    <t>antichris</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r554209833-Freehand_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -866,6 +974,9 @@
   </si>
   <si>
     <t>Walking into the lobby of this hotel is like walking into a real-life pinterest board of hipster decor, style, and attitude.  I've stayed here twice and found the staff very friendly.  The rooms I stayed in were well appointed and a good size.  It's close to a lot of bars, restaurants, and a whole foods market.  Everybody in the lobby is checking out everybody else in the lobby.  It's LA, that's what people do in LA.  Best to embrace the fun in all the hipsterness at this hotel, and enjoy it.  That's what I did.</t>
+  </si>
+  <si>
+    <t>Saricie_Q</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r552646784-Freehand_Los_Angeles-Los_Angeles_California.html</t>
@@ -892,6 +1003,9 @@
 The Wi Fi is available throughout the building and I think it works quite well.
 The public area is also very nicely designed. There is a chic (though expensive) bar on the grand floor and a rooftop swimming pool that affords great view of Downtown LA's skyscrapers. The bar at rooftop offers similar election of drinks as the one on ground floor. 
 Breakfast is included but the selection is relatively basic (coffee, orange juice, bread and jams). It was offered in the kitchen in the basement. I found the kitchen area is too small and sometimes there are too many...This is the 3rd Freehand Hostel/Hotel I stayed (the other two are in Miami Beach and Chicago). Though I cannot say this one is my favorite, I think it does live up to its brand reputation as a hostel that offers "glam-packing" (glamour backpacking) experience.I stayed in a dorm room with 6 people, with an in-suite bathroom/toilet. I think it is relatively spacious. The room is also full of light. The room is overall clean and tastefully designed. Though there is no toiletries in the bathroom, you can go downstairs to the reception to ask for your individual toiletry package (small bottles of shampoo, body gel and a bar of soap). I do hope that they add drapes/curtains for each dorm bed to add some privacy (as this room in Chicago Freehand). However, their bed is generally quite comfy.The Wi Fi is available throughout the building and I think it works quite well.The public area is also very nicely designed. There is a chic (though expensive) bar on the grand floor and a rooftop swimming pool that affords great view of Downtown LA's skyscrapers. The bar at rooftop offers similar election of drinks as the one on ground floor. Breakfast is included but the selection is relatively basic (coffee, orange juice, bread and jams). It was offered in the kitchen in the basement. I found the kitchen area is too small and sometimes there are too many people dining at the same time and no seat is available.The staff at reception are extremely friendly and informative. It is pleasant to chat with them.The hotel is centrally located in Downtown Los Angeles, where it is buzzed with new restaurants and bars nowadays. The block this hostel is on is not a busy one (7th Street, a block north, is much busier) but I did not feel unsafe when when around after midnight.Overall, it is another nice "glam-packing" experience with Freehand franchise. I will stay here again when I pass by LA in the future!More</t>
+  </si>
+  <si>
+    <t>Adi T</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r546659709-Freehand_Los_Angeles-Los_Angeles_California.html</t>
@@ -920,6 +1034,9 @@
 Beds are comfortable too and Wifi is free and super fast. The  bathrooms, though clean and charming, are small (no tub, FYI), and counter space is virtually nonexistent. The other negative (though a small one) is that there's no free coffee machine or water supplied in the room. 
 The hotel has a lobby bar, a very nice restaurant ("the Exchange"), and a lovely rooftop area  that includes a lounge, swimming pool and bar. It's worth going there for the views alone, and it's very relaxing during the day (though seemed to be a noisy scene at night).  We also had breakfast at the Exchange one morning, and it was fantastic without breaking the bank. he staff was largely super friendly and helpful (a couple of exceptions, though). 
 If you want to experience downtown...My partner and I stayed at the Freehand for two nights earlier this week. I was a bit apprehensive going in, as I had heard that the hotel is excessively trendy but that worry proved unnecessary. While definitely hip, it didn't wasn't in anyway pretentious or intrusive.**** FYI: The Freehand has two types of rooms, standard hotel-type, and rooms and hostel-type, the latter of which are shared. We stayed at the former, so everything I say applies to that only. The rooms are on the smaller size, but very comfortable, charming, and tastefully appointed. The architecture and hallways reflect that this was once an office building. Beds are comfortable too and Wifi is free and super fast. The  bathrooms, though clean and charming, are small (no tub, FYI), and counter space is virtually nonexistent. The other negative (though a small one) is that there's no free coffee machine or water supplied in the room. The hotel has a lobby bar, a very nice restaurant ("the Exchange"), and a lovely rooftop area  that includes a lounge, swimming pool and bar. It's worth going there for the views alone, and it's very relaxing during the day (though seemed to be a noisy scene at night).  We also had breakfast at the Exchange one morning, and it was fantastic without breaking the bank. he staff was largely super friendly and helpful (a couple of exceptions, though). If you want to experience downtown L.A. in all its revitalizing glory, the location couldn't be better. It's very central, and walkable to just about everywhere you might want to go. One block away on 7th avenue with a bunch of cool restaurants. The neighborhood the hotel is in also feels very real and organic, especially compared to say the LA Live/Staples Center neighborhood only a few blocks away which may have more hotels  but feels more impersonal and manufactured. Finally the question I always ask myself when I complete a stay is this: would I stay here again? The answer here is an absolute yes.  Great location, lots of charm, clean and comfortable, and lovely (though a bit small) rooms.  And great pricing too (we only paid $230 per night).More</t>
+  </si>
+  <si>
+    <t>Tom B</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r546297443-Freehand_Los_Angeles-Los_Angeles_California.html</t>
@@ -952,6 +1069,9 @@
 This is definitely a hotel with shared accommodation within it so it does lack the...I stayed at the Freehand Los Angeles by myself for four night in a shared room and I was very pleased with the Freehand.The rooms are quite small but are kept very clean. You are provided with a spacious locker, a reading light and power sockets for your devices. The shower was great. Downstairs a help yourself breakfast is offered which was more than adequate, with cereal, the option to make toast (no butter though) and fruit is was more than adequate.Another small but important point to mention is the hotel not only has free WiFi but it is fantastic. It is strong, fast and can be connected to from any part of the building.In terms of facilities the freehand has a bar/restaurant downstairs which always seemed to be busy and vibrant. In contrast on the roof of the building there is a little swimming pool with a rooftop bar which is a lot more relaxed, there are also some great views of downtown LA from up there.The surrounding downtown LA area is very nice and after dark can be a cool and vibrant place to be.The hotel is within walking distance of not only the Staples Center but the 7th Street/Metro Center station from which most metro lines pass through allowing you to visit any part of LA easily.This is definitely a hotel with shared accommodation within it so it does lack the social side of a more typical hostel but that didn't bother me and I managed to meet new people anyway.The view from my room unfortunately was just a brick wall, this was a slight disappointment. If you desire a good view from your window try and get as high a floor as possibleIf I return to LA or visit Miami, New York or Chicago, the other cities that house freehand hotels, i'll definitely think of Freehand first.More</t>
   </si>
   <si>
+    <t>Brittany P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r542036343-Freehand_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -976,6 +1096,9 @@
     <t>Stayed with 3 friends in the private Quad Room and it’s definitely on the tiny side. The room comes with 2 adorable twin bunk beds (sleeping 4) and 4 lockers each equipped with towels and toiletries for each person. So that was super cute. The room is cute as you walk into a small entry with a full length mirror and to the right is the bathroom with retro style tiling and fixtures and then to the left is the bunk beds with a 3’ aisle next to it and that’s it folks. No telephone, no bible, nowhere to sit except your bed, no tv. This was fine for us, we were only staying 1 night and we weren’t in the room but to sleep and get ready. 4 people trying to shower and get ready was a bit cramped. There was nowhere to open our luggage, we had to block the walkway in order to do so briefly. Also I wish the shower was separate from the toilet. So this was a bit difficult, also I had to lay in my bed and use the extra bright reading light to put my makeup on since the bathroom was busy with all of us trying to shower. Each bed was equipped a duplex outlet, USB port, and the handy reading light. It really is adorable and so cozy. Also in between the foot of each mattress there was a cute...Stayed with 3 friends in the private Quad Room and it’s definitely on the tiny side. The room comes with 2 adorable twin bunk beds (sleeping 4) and 4 lockers each equipped with towels and toiletries for each person. So that was super cute. The room is cute as you walk into a small entry with a full length mirror and to the right is the bathroom with retro style tiling and fixtures and then to the left is the bunk beds with a 3’ aisle next to it and that’s it folks. No telephone, no bible, nowhere to sit except your bed, no tv. This was fine for us, we were only staying 1 night and we weren’t in the room but to sleep and get ready. 4 people trying to shower and get ready was a bit cramped. There was nowhere to open our luggage, we had to block the walkway in order to do so briefly. Also I wish the shower was separate from the toilet. So this was a bit difficult, also I had to lay in my bed and use the extra bright reading light to put my makeup on since the bathroom was busy with all of us trying to shower. Each bed was equipped a duplex outlet, USB port, and the handy reading light. It really is adorable and so cozy. Also in between the foot of each mattress there was a cute slide curtain to provide privacy but I wish there had been a curtain to close off each bed completely. The hotel itself is super quirky and cool. It was an old office building so as you walk down the corridor the old style glass door fronts to offices remain and those are the doors to your room. The downstairs lobby is fun, and is a busy bar scene at night (at least on the Saturday we were there), and the rooftop bar and pool area is amazing at night. While you can’t go in the pool after sunset (LA law) the pool is lit and provides a nice ambiance with the lit buildings in the background while sipping drinks out of a plastic pineapple (if you order the Cachaca). Also up on the roof deck they give you blankets! I was so cozy draped by my little blanket sipping drinks with friends until 2am (close time). I would highly recommend checking out the rooftop even if you don’t end up staying at the Freehand. Overall very basic hotel room but appreciated the quirkiness and creativity. More</t>
   </si>
   <si>
+    <t>PolarBear777</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r541867290-Freehand_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -997,6 +1120,9 @@
     <t>Great hostel, though expensive. Look out for discount codes on third party booking sites to save substantially - I only paid $35 per night all in for the 6 bed dorm. Across from Whole Foods and a 5 min walk from 7th St station and access to multiple Metro lines.Amazing beds, great washrooms, lots of space. Close to perfectly designed rooms. Outlets at each bed and a ledge for your phone. Breakfast could use some eggs / protein, but is otherwise fine. Only drawback is the social scene is weak aside from those in your room. If you’re with friends, Broken Shaker is a great place to hang out. Would definitely stay again if I could get the same low rate. I previously stayed at Freehand Miami and this is definitely a step above.  More</t>
   </si>
   <si>
+    <t>JomJom2707</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r539686934-Freehand_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1015,6 +1141,9 @@
     <t>I loved this place and it is one of the best hostels I have ever been to.  It was clean and spacious and trendy.  The bar on the roof is amazing and ultra hip. I wasn’t a fan of the menu so didn’t try any food.  Seemed a bit pricey as well (drinks were too).The one thing I would like to mention is that although the timed automatic lights are a really smart idea for the rooms they are a dangerous hazard in the shower with potential to cause serious harm.  I suggest disabling the shower timers because in all seriousness this is a disaster waiting to happen.  If you get someone drunk or who freaks out because the lights have gone out mid shower this could turn very bad, very quick.  There is no windows so it is pitch black. Just imagine they stumble to try and turn them back on and trip on the step or the curtain and fall.Other than this - loved the placeMore</t>
   </si>
   <si>
+    <t>joelinda</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r538214531-Freehand_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1033,6 +1162,9 @@
     <t>I came to LA for a Rock n Roll race weekend and wanted to get as close as possible to the Staples and Convention centers for a minimum outlay    I stayed in hostels when I was younger, all over the world, so hey, why not?  This was much much nicer than any hostel I've ever stayed in.  Very clean and classy.  It's a young crowd but well healed   Plus, if you want a private room they have those too, but more $.  All good values for this location.  They have a rooftop pool with a party on most days and the  lobby is very active and social in the evenings.  8 block walk to Staples Center.  Parking is $45 but there are many public lots all around that are lower.  Even cheap on weekends.  More</t>
   </si>
   <si>
+    <t>Sue K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r537006504-Freehand_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1054,6 +1186,9 @@
     <t>I loved staying in Hostels in Europe, so I was excited to find this hotel in LA. I stayed in a quad room on the top bunk. So much space, comfortable mattress, great design touches in the room. The bathroom was roomy and had a great shower. I wish I had some of the lighting decor in my house! It was fun talking to my 2 'dorm-mates' - one from Sweden and the other from Lithuania. Both were super quiet at night and in the morning.Small breakfast in the basement in the morning. I didn't get a chance to get up to the roof since I was visiting USC.I will definitely stay there again - loved it!More</t>
   </si>
   <si>
+    <t>Luigiluigi13</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r535937050-Freehand_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1069,6 +1204,9 @@
     <t xml:space="preserve">Nice location,nice rooms but no coffee in the room.very slow elevators ...I don’t understand why USA they have nice wine but in the bar they have almost wine glasses from others country...no way They need more good service.The gym to small </t>
   </si>
   <si>
+    <t>Cthne</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r531233402-Freehand_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1085,6 +1223,9 @@
   </si>
   <si>
     <t>The staff are definitely the most remarkable part of The Freehand. I honestly found everyone who worked there to be very thoughtful and accommodating. My room was extremely comfortable and I preferred it much more than other downtown hotels like the Ace. My only qualm is that the place was a madhouse come Friday night. There's only one set of elevators that give access to all of the floors and the roof. I was exhausted on Friday night and had to fight my way through a line to reach the elevator where there was a doorman (who was also the valet) overseeing people getting into the elevators. Btw you don't need a key fob for the elevator so any stranger on the street can go upstairs. More</t>
+  </si>
+  <si>
+    <t>ohnobonobo</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r528367393-Freehand_Los_Angeles-Los_Angeles_California.html</t>
@@ -1111,6 +1252,9 @@
 I loved the room which had all the right things in all the right places and looked out the front of the building to a nice old downtown building opposite.  Great lowish bed, long cushioned seating by the window 9see my photos), good lighting, plug points in all the right places and a simple walk-in shower.  Some nice interesting art on the walls too...I had read about the Freehand in a recent edition of Monocle whose judgement I trust in matters of hotels.  So I was really surprised to see how affordable the Freehand was when researching an upcoming trip to LA.  Perhaps it’s an introductory rate as they have only been open 3 months?First impressions are great – very cool lobby with a slightly retro Palm Springs feel – lots of wood, cacti and 70’s furniture.  Fantastic friendly receptionist who checked me in quickly and painlessly.It was straight to the rooftop bar to catch some sun and grab a snack.  The pool area was nice with a very laidback vibe and more 70’s furniture and planting.  Lots of sunshades and comfy loungers too.  I had the teriyaki chicken which was ok and the guac and chips which were outdone by the peanut salsa which accompanied them.  Fresh pineapple juice was great as was the beer.  Lots of cool people around the pool too plus the essential inflatable (a banana, not a swan – do keep up!).I loved the room which had all the right things in all the right places and looked out the front of the building to a nice old downtown building opposite.  Great lowish bed, long cushioned seating by the window 9see my photos), good lighting, plug points in all the right places and a simple walk-in shower.  Some nice interesting art on the walls too which gave the place a chill lived-in feel that was a refreshing change from The Ace’s more ascetic minimal vibe.  The room was compact but spacious enough for one – two people might have been more of a squeeze.The only other facility I used was breakfast – breakfast only officially started on my second morning there and the restaurant continues the Mexican/Palm Springs/70s vibe with some seriously cool light shades and great staff.  Breakfast options are a little limited but the breakfast sandwich – egg, cheese, bacon, tomato, aioli, salad in a good Israeli style fluffy pita was killer.  There’s also a hole-in-the-wall café in the bar/lobby area too if you’re in a rush.  I didn’t try the shop (very Ace) or the gym but the former looked cool.So that’s it – if you’ve always liked The Ace but are looking for a change from its tiring hipness and army bunk minimalism, The Freehand is definitely worth trying out.More</t>
   </si>
   <si>
+    <t>Vanno84</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r527857058-Freehand_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1126,6 +1270,9 @@
     <t xml:space="preserve">We had a great stay, really good facilities. Lovely bars and restaurants especially the rooftop bar. Very clean and overall would highly recommend. Drinks were a little pricey but over than that everything else was spot on. </t>
   </si>
   <si>
+    <t>COMTECIERGE</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r523876068-Freehand_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1150,6 +1297,9 @@
     <t>Book a night for my client and he really enjoyed this new property in the heart of downtown. The redesigned this building and turned it into a great hotel. The room have their own style and very colorful.They have a great bar on the rooftop so you can enjoy a complimentary drink and mingle with the other clients and locals after a long day in the city.More</t>
   </si>
   <si>
+    <t>Friabeez</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r522692682-Freehand_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1172,6 +1322,9 @@
   </si>
   <si>
     <t>I was traveling solo for a quick weekend getaway so I chose the 8 bed mixed dorm room.  Bed was comfortable - I got bed 8 which was kind of off to the side next to a nice little sitting area (I called it my area lol).  A few of the roommates and I actually had a few drinks here which was a really nice touch to the room - an area to kind of sit and chill.  I would request sleeping here since you are kind of isolated from the rest of the room.  Pool closed around 6 pm - really lame considering it was 100 degrees and after a long day of walking around you want to go in for a dip.Area was awesome -downtown- whole foods across the street to pick up any snacks/drinks/food.  Very walkable to the downtown sites - staples center - broad museum - grand central - the last book store. There was a cool looking bar across the street I didn't get to try but it had happy hour until 8pm every night.  Free breakfast was basic but something to get you started. I enjoyed my stay at the freehand and would definitely come back!More</t>
+  </si>
+  <si>
+    <t>ilovetablat</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r520445215-Freehand_Los_Angeles-Los_Angeles_California.html</t>
@@ -1194,6 +1347,9 @@
 We were looking for something different from the usual 4-5 star bland, corporate hotel. We found it. Newly refurbished hotel, with parts of it still unfinished. Post-industrial decor is well-done. Ultra-hipster place with lots of tattoos and pierced body parts among both guests and staff. Very noisy lobby. Kind of cool if you're the primary target audience for the place. Staff was friendly, professional, and helped us out any time...Our "private quad" room was tiny. No bathroom door. Basic amenities such as glasses, fridge, hair dryer, closet space, desk and chair were all missing. Rooms are cleaned every day, but bed sheets are changed every 3 days. Included breakfast was a brown paper bag that contained one muffing, an apple (not every day), and a yogurt. On lucky days we got orange juice. This may be find for a hostel but if they offer private rooms the amenities should be there too, not just the prices. We rode out the 6 days of our stay but honestly it was cramped, uncomfortable, unclean, and overall a disappointment. We could only find one restaurant, the one next to the lobby, even though there were supposed to be four. We ate there the first night. The food took forever, they decided to stick us out on a terrace that got chilly very quickly, then fumbled our orders. The manager ended up apologizing and writing off the bill. But the damage was done.We were looking for something different from the usual 4-5 star bland, corporate hotel. We found it. Newly refurbished hotel, with parts of it still unfinished. Post-industrial decor is well-done. Ultra-hipster place with lots of tattoos and pierced body parts among both guests and staff. Very noisy lobby. Kind of cool if you're the primary target audience for the place. Staff was friendly, professional, and helped us out any time we asked for help. We loved it that our bell hop moonlights as a puppeteer (or maybe it is the other way around). Valet service was excellent.More</t>
   </si>
   <si>
+    <t>Kimberly W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r519137654-Freehand_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1212,6 +1368,9 @@
     <t>Great hotel, especially for the price.  Lobby has a good vibe, good drinks and food. Rooms are small but if you're not spending a lot of time in there the room is perfect.  Tiny bathroom with beautiful tile work.More</t>
   </si>
   <si>
+    <t>Steve R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r517698152-Freehand_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1230,6 +1389,9 @@
     <t>So glad we were some of the first people (within a month of opening) to stay at this place. Yes, it wasn't done yet with only 6 floors open at the time (the Tiki bar had yet to be completed...ugh), but the lobby is beautiful, the room was beautiful and the staff were excellent and attentive. Nice food at the cafe, good restaurant attached and the bar in the lobby was excellent! The fitness room is small, but well appointed. Ask for an extra towel for the floor in your bathroom because the shower curtains don't quite reach the floor (leaks a bit) and the water pressure isn't good (like I said, they're still in production), but it's a great place and we plan to return! The Commercial Exchange building is an LA landmark and we're so glad they saved it from ruin and made it into a groovy hotel! Very friendly and fun.More</t>
   </si>
   <si>
+    <t>Ben E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r516782252-Freehand_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1248,6 +1410,9 @@
     <t>Stayed in a King Skyline Rm during our 9 night stay at the Freehand Hotel, with my wife and the overall experience was excellent. From checkin at the front desk, through to the valet, lobby and bar/ restuarant staff - the service was great and everyone very pleasant and welcoming. The interior decoration and design aesthetic of not only the room but all the common areas (lobby, bar/ restaurant) is very well done and executed to a high level. The location in DTLA too is great, with many bars, restaurants, and boutique/ design store all located within 5mins walk. Also, there is a Whole Foods and a CVS literally one block away for everyday essentials during your stay. Easy access to the Interstate Highways if you want to get to other parts of LA by carThe hotel manager, Luis was great too and made us feel very welcome. Would definitely recommend this hotel for anyone visiting LA for either business or leisure. We will definitely stay here next time we are visiting LA.More</t>
   </si>
   <si>
+    <t>yanett m</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r512943695-Freehand_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1266,6 +1431,9 @@
     <t>When I booked the room, I did  not realize that it was a share room. I walk in at 2 in the am with my two kids and my little sister and I see a completely party environment. As soon as I walk to the front desk the receptionist asked me if they were with me, and from the moment he mentioned that it was a shared room, him and the manager went out of the way to help me finding a different hotel. I so wish I would've payed more attention to their names, but since I don't remember, only thing I can do is give a huge thanks to the crew that worked  Friday night August 4th. Guys I really appreciate your help.More</t>
   </si>
   <si>
+    <t>DoYork</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r507148408-Freehand_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1287,6 +1455,9 @@
     <t>Watching the successful gentrification of DTLA is tourist worthy for everyone and stopping by Freehand's delightful remake of the California Exchange building is a must see and do experience. The eclectic North African- Mediterranean lobby bar is a refreshing repose from the building's harsh urban transitional location canopied under building cranes and scaffolded sky scrapping buildings under construction.A friendly welcoming service staff introduces you to interesting well prepared and presented dinner offerings. The lamb kabob and steak were great and the main course sweet potato entree was a real treat. TheExchange is a harbinger and happening place.More</t>
   </si>
   <si>
+    <t>thestevebobs</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r504939859-Freehand_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1311,6 +1482,9 @@
     <t>Stayed here, place is immaculate. From helping with bags to booking me guest list at clubs and making drinks that aren't on the menu. Brandon on reception went above and beyond. However all reception are extremely good at what they do.Best customer service I've received anywhere in the world to be quite frank! Would love to go back :)More</t>
   </si>
   <si>
+    <t>David E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r499444269-Freehand_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1332,6 +1506,9 @@
     <t>I stayed in a 4 bed dorm and it's one of the nicer hostel rooms I've stayed in. Comfortable, big lockers, and wall sockets/lamps for each bed.Friendly staff and friendly people, would definitely stay again! More</t>
   </si>
   <si>
+    <t>Jazmine D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r499182393-Freehand_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1350,6 +1527,9 @@
     <t>I was so so impressed. I'd done my research and new that Freehand would be a new place so I already expected the place to be really clean but when I got there I was even MORE impressed with the design, the cleanliness and the service of the staff! The rooms were spacious and I love that each one had private bathroom. The staff were very attentive, informing me of everything I needed to know whether the lift was currently in maintenance or the fire alarm tests. Some of the stuff wasn't ready for use yet (the rooftop bar, kitchen/recreation area downstairs) but it didn't bother me too much. These things will definitely make Freehand an even better place to what I experienced. Will definitely be coming back!More</t>
   </si>
   <si>
+    <t>Patrick B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r498728680-Freehand_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1368,6 +1548,9 @@
     <t>Unbelievable experience. I don't even know where to begin...I have honestly never received such amazing service from a hotel. The entire staff, from the person valet parking my car to the person checking me in were all amazing. Very friendly, upbeat and overall inviting. None of the awesome service seemed fake or put on and I can assure that I will most definitely stay at the hotel again. The location in prime! Right in the heart of downtown very close to Grand central market, perfect for breakfast in the morning. The hotel bar was also a nice addition to an already awesome hotel. The room are super clean and very well put together. The beds are comfy, clean and I felt great staying there. I unfortunately don't remember any of the staff names but man was I happy I picked that hotel, I never write reviews or comment on anything really because of my busy work schedule but I really felt like I needed to put some time aside to comment on how awesome the service, staff working there, bedrooms and all in all big thumbs up, Hope you guys will always keep up such a great positive friendly attitude and make all your guest feel so welcome. Cheers - Pat.More</t>
   </si>
   <si>
+    <t>craigbohland</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r495409052-Freehand_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1384,6 +1567,9 @@
   </si>
   <si>
     <t>I've been a fan of the Miami Freehand for years now but this new DTLA location is SPECTACULAR! They have really outdone themselves. Great service, AMAZING lobby and lobby bar with very creative cocktails. the EXCHANGE restaurant blew us away, so many great options, too many to list. Perfectly located in the every changing DTLA area, i would highly recommend checking it out. Loved the design of the rooms and the hotel.More</t>
+  </si>
+  <si>
+    <t>Nathan G</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d11894770-r493853299-Freehand_Los_Angeles-Los_Angeles_California.html</t>
@@ -1914,43 +2100,47 @@
       <c r="A2" t="n">
         <v>65357</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>148813</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>5</v>
@@ -1974,50 +2164,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>65357</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>148814</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>53</v>
+      </c>
+      <c r="O3" t="s">
         <v>54</v>
-      </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J3" t="s">
-        <v>56</v>
-      </c>
-      <c r="K3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L3" t="s">
-        <v>58</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O3" t="s">
-        <v>53</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="n">
@@ -2037,50 +2231,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>65357</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>148815</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="L4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P4" t="n">
         <v>5</v>
@@ -2104,50 +2302,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>65357</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>4843</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="n">
@@ -2163,56 +2365,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="X5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="Y5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>65357</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>148816</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="L6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2224,56 +2430,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="X6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="Y6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>65357</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>22495</v>
+      </c>
+      <c r="C7" t="s">
+        <v>86</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="J7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>92</v>
+      </c>
+      <c r="O7" t="s">
         <v>84</v>
-      </c>
-      <c r="L7" t="s">
-        <v>85</v>
-      </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>86</v>
-      </c>
-      <c r="O7" t="s">
-        <v>79</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2285,56 +2495,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="X7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="Y7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>65357</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>148817</v>
+      </c>
+      <c r="C8" t="s">
+        <v>96</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="J8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="K8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="L8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="O8" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P8" t="n">
         <v>5</v>
@@ -2358,50 +2572,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>65357</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>148818</v>
+      </c>
+      <c r="C9" t="s">
+        <v>102</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="J9" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="K9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="L9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="O9" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P9" t="n">
         <v>1</v>
@@ -2419,56 +2637,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="X9" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="Y9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>65357</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>148819</v>
+      </c>
+      <c r="C10" t="s">
+        <v>108</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="J10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="K10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="L10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="O10" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2480,56 +2702,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="X10" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="Y10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>65357</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>47377</v>
+      </c>
+      <c r="C11" t="s">
+        <v>115</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="J11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="K11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="L11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="O11" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2547,50 +2773,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>65357</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>44472</v>
+      </c>
+      <c r="C12" t="s">
+        <v>122</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="J12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="K12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="L12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2604,50 +2834,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>65357</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>3011</v>
+      </c>
+      <c r="C13" t="s">
+        <v>129</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="J13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="K13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="L13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="O13" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="n">
@@ -2665,50 +2899,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>65357</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>25214</v>
+      </c>
+      <c r="C14" t="s">
+        <v>135</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="J14" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="K14" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="L14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="O14" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P14" t="n">
         <v>5</v>
@@ -2728,50 +2966,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>65357</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>61846</v>
+      </c>
+      <c r="C15" t="s">
+        <v>141</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="J15" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="K15" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="L15" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="O15" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P15" t="n">
         <v>5</v>
@@ -2791,50 +3033,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>65357</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>148820</v>
+      </c>
+      <c r="C16" t="s">
+        <v>149</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="J16" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K16" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="L16" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="M16" t="n">
         <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2848,50 +3094,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>65357</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>148821</v>
+      </c>
+      <c r="C17" t="s">
+        <v>157</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="J17" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="K17" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="L17" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2909,56 +3159,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="X17" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="Y17" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>65357</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>148822</v>
+      </c>
+      <c r="C18" t="s">
+        <v>166</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="J18" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="K18" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="L18" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="O18" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="n">
@@ -2976,50 +3230,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>65357</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>148823</v>
+      </c>
+      <c r="C19" t="s">
+        <v>174</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="J19" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="K19" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="L19" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="O19" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3031,56 +3289,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="X19" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="Y19" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>65357</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>15015</v>
+      </c>
+      <c r="C20" t="s">
+        <v>183</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="J20" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="K20" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="L20" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="M20" t="n">
         <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3094,50 +3356,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>65357</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>148824</v>
+      </c>
+      <c r="C21" t="s">
+        <v>190</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="J21" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="K21" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="L21" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="O21" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="n">
@@ -3157,50 +3423,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>65357</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>10447</v>
+      </c>
+      <c r="C22" t="s">
+        <v>196</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="J22" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="K22" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="L22" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="O22" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="n">
@@ -3220,50 +3490,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>65357</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>148825</v>
+      </c>
+      <c r="C23" t="s">
+        <v>202</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="J23" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="K23" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="L23" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="O23" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3277,50 +3551,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>65357</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>148826</v>
+      </c>
+      <c r="C24" t="s">
+        <v>209</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="J24" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="K24" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="L24" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="M24" t="n">
         <v>2</v>
       </c>
       <c r="N24" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="O24" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3332,56 +3610,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="X24" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="Y24" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>65357</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>148827</v>
+      </c>
+      <c r="C25" t="s">
+        <v>218</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
       <c r="J25" t="s">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="K25" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="L25" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="M25" t="n">
         <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="O25" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P25" t="n">
         <v>3</v>
@@ -3399,41 +3681,45 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>65357</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>148828</v>
+      </c>
+      <c r="C26" t="s">
+        <v>225</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="J26" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="K26" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="L26" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
@@ -3452,50 +3738,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>65357</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>148829</v>
+      </c>
+      <c r="C27" t="s">
+        <v>231</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="J27" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="K27" t="s">
-        <v>209</v>
+        <v>235</v>
       </c>
       <c r="L27" t="s">
-        <v>210</v>
+        <v>236</v>
       </c>
       <c r="M27" t="n">
         <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="O27" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P27" t="n">
         <v>3</v>
@@ -3513,50 +3803,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>211</v>
+        <v>237</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>65357</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>148830</v>
+      </c>
+      <c r="C28" t="s">
+        <v>238</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>213</v>
+        <v>240</v>
       </c>
       <c r="J28" t="s">
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="K28" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="L28" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="O28" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P28" t="n">
         <v>4</v>
@@ -3574,50 +3868,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>65357</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>3852</v>
+      </c>
+      <c r="C29" t="s">
+        <v>245</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="J29" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="K29" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
       <c r="L29" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>223</v>
+        <v>251</v>
       </c>
       <c r="O29" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -3635,50 +3933,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>65357</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>148831</v>
+      </c>
+      <c r="C30" t="s">
+        <v>253</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="J30" t="s">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="K30" t="s">
-        <v>228</v>
+        <v>257</v>
       </c>
       <c r="L30" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -3692,50 +3994,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>230</v>
+        <v>259</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>65357</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>148832</v>
+      </c>
+      <c r="C31" t="s">
+        <v>260</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>231</v>
+        <v>261</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="J31" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="K31" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L31" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="O31" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -3749,50 +4055,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>65357</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>148833</v>
+      </c>
+      <c r="C32" t="s">
+        <v>267</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>237</v>
+        <v>268</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
       <c r="J32" t="s">
-        <v>239</v>
+        <v>270</v>
       </c>
       <c r="K32" t="s">
-        <v>240</v>
+        <v>271</v>
       </c>
       <c r="L32" t="s">
-        <v>241</v>
+        <v>272</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="O32" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -3808,56 +4118,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>242</v>
+        <v>273</v>
       </c>
       <c r="X32" t="s">
-        <v>243</v>
+        <v>274</v>
       </c>
       <c r="Y32" t="s">
-        <v>244</v>
+        <v>275</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>65357</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>148834</v>
+      </c>
+      <c r="C33" t="s">
+        <v>276</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>246</v>
+        <v>278</v>
       </c>
       <c r="J33" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="K33" t="s">
-        <v>248</v>
+        <v>280</v>
       </c>
       <c r="L33" t="s">
-        <v>249</v>
+        <v>281</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="O33" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="n">
@@ -3877,50 +4191,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>250</v>
+        <v>282</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>65357</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>148835</v>
+      </c>
+      <c r="C34" t="s">
+        <v>283</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>251</v>
+        <v>284</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>252</v>
+        <v>285</v>
       </c>
       <c r="J34" t="s">
-        <v>253</v>
+        <v>286</v>
       </c>
       <c r="K34" t="s">
-        <v>254</v>
+        <v>287</v>
       </c>
       <c r="L34" t="s">
-        <v>255</v>
+        <v>288</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="O34" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="P34" t="n">
         <v>4</v>
@@ -3940,41 +4258,45 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>256</v>
+        <v>289</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>65357</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>101952</v>
+      </c>
+      <c r="C35" t="s">
+        <v>290</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>257</v>
+        <v>291</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>258</v>
+        <v>292</v>
       </c>
       <c r="J35" t="s">
-        <v>259</v>
+        <v>293</v>
       </c>
       <c r="K35" t="s">
-        <v>260</v>
+        <v>294</v>
       </c>
       <c r="L35" t="s">
-        <v>261</v>
+        <v>295</v>
       </c>
       <c r="M35" t="n">
         <v>3</v>
@@ -3991,56 +4313,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>242</v>
+        <v>273</v>
       </c>
       <c r="X35" t="s">
-        <v>243</v>
+        <v>274</v>
       </c>
       <c r="Y35" t="s">
-        <v>262</v>
+        <v>296</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>65357</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>148836</v>
+      </c>
+      <c r="C36" t="s">
+        <v>297</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>263</v>
+        <v>298</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>264</v>
+        <v>299</v>
       </c>
       <c r="J36" t="s">
-        <v>265</v>
+        <v>300</v>
       </c>
       <c r="K36" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
       <c r="L36" t="s">
-        <v>267</v>
+        <v>302</v>
       </c>
       <c r="M36" t="n">
         <v>3</v>
       </c>
       <c r="N36" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="O36" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P36" t="n">
         <v>3</v>
@@ -4056,56 +4382,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>242</v>
+        <v>273</v>
       </c>
       <c r="X36" t="s">
-        <v>243</v>
+        <v>274</v>
       </c>
       <c r="Y36" t="s">
-        <v>268</v>
+        <v>303</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>65357</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>148837</v>
+      </c>
+      <c r="C37" t="s">
+        <v>304</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>269</v>
+        <v>305</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>270</v>
+        <v>306</v>
       </c>
       <c r="J37" t="s">
-        <v>271</v>
+        <v>307</v>
       </c>
       <c r="K37" t="s">
-        <v>272</v>
+        <v>308</v>
       </c>
       <c r="L37" t="s">
-        <v>273</v>
+        <v>309</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="O37" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="n">
@@ -4125,50 +4455,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>273</v>
+        <v>309</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>65357</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>148838</v>
+      </c>
+      <c r="C38" t="s">
+        <v>310</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>274</v>
+        <v>311</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>275</v>
+        <v>312</v>
       </c>
       <c r="J38" t="s">
-        <v>276</v>
+        <v>313</v>
       </c>
       <c r="K38" t="s">
-        <v>277</v>
+        <v>314</v>
       </c>
       <c r="L38" t="s">
-        <v>278</v>
+        <v>315</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="O38" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -4186,50 +4520,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>65357</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>148839</v>
+      </c>
+      <c r="C39" t="s">
+        <v>317</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>280</v>
+        <v>318</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>281</v>
+        <v>319</v>
       </c>
       <c r="J39" t="s">
-        <v>282</v>
+        <v>320</v>
       </c>
       <c r="K39" t="s">
-        <v>283</v>
+        <v>321</v>
       </c>
       <c r="L39" t="s">
-        <v>284</v>
+        <v>322</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P39" t="n">
         <v>4</v>
@@ -4249,50 +4587,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>285</v>
+        <v>323</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>65357</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>3147</v>
+      </c>
+      <c r="C40" t="s">
+        <v>324</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>286</v>
+        <v>325</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>287</v>
+        <v>326</v>
       </c>
       <c r="J40" t="s">
-        <v>288</v>
+        <v>327</v>
       </c>
       <c r="K40" t="s">
-        <v>289</v>
+        <v>328</v>
       </c>
       <c r="L40" t="s">
-        <v>290</v>
+        <v>329</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="O40" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -4310,56 +4652,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>242</v>
+        <v>273</v>
       </c>
       <c r="X40" t="s">
-        <v>243</v>
+        <v>274</v>
       </c>
       <c r="Y40" t="s">
-        <v>291</v>
+        <v>330</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>65357</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>4670</v>
+      </c>
+      <c r="C41" t="s">
+        <v>331</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>292</v>
+        <v>332</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>293</v>
+        <v>333</v>
       </c>
       <c r="J41" t="s">
-        <v>294</v>
+        <v>334</v>
       </c>
       <c r="K41" t="s">
-        <v>295</v>
+        <v>335</v>
       </c>
       <c r="L41" t="s">
-        <v>296</v>
+        <v>336</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="O41" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -4371,56 +4717,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>297</v>
+        <v>337</v>
       </c>
       <c r="X41" t="s">
-        <v>298</v>
+        <v>338</v>
       </c>
       <c r="Y41" t="s">
-        <v>299</v>
+        <v>339</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>65357</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>32950</v>
+      </c>
+      <c r="C42" t="s">
+        <v>340</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>300</v>
+        <v>341</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>301</v>
+        <v>342</v>
       </c>
       <c r="J42" t="s">
-        <v>302</v>
+        <v>343</v>
       </c>
       <c r="K42" t="s">
-        <v>303</v>
+        <v>344</v>
       </c>
       <c r="L42" t="s">
-        <v>304</v>
+        <v>345</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="O42" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -4432,47 +4782,51 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>305</v>
+        <v>346</v>
       </c>
       <c r="X42" t="s">
-        <v>298</v>
+        <v>338</v>
       </c>
       <c r="Y42" t="s">
-        <v>306</v>
+        <v>347</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>65357</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>148840</v>
+      </c>
+      <c r="C43" t="s">
+        <v>348</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>307</v>
+        <v>349</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>308</v>
+        <v>350</v>
       </c>
       <c r="J43" t="s">
-        <v>309</v>
+        <v>351</v>
       </c>
       <c r="K43" t="s">
-        <v>310</v>
+        <v>352</v>
       </c>
       <c r="L43" t="s">
-        <v>311</v>
+        <v>353</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
@@ -4491,50 +4845,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>312</v>
+        <v>354</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>65357</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>39845</v>
+      </c>
+      <c r="C44" t="s">
+        <v>355</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>313</v>
+        <v>356</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>314</v>
+        <v>357</v>
       </c>
       <c r="J44" t="s">
-        <v>315</v>
+        <v>358</v>
       </c>
       <c r="K44" t="s">
-        <v>316</v>
+        <v>359</v>
       </c>
       <c r="L44" t="s">
-        <v>317</v>
+        <v>360</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="O44" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -4548,50 +4906,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>318</v>
+        <v>361</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>65357</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>43706</v>
+      </c>
+      <c r="C45" t="s">
+        <v>362</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>319</v>
+        <v>363</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>320</v>
+        <v>364</v>
       </c>
       <c r="J45" t="s">
-        <v>321</v>
+        <v>365</v>
       </c>
       <c r="K45" t="s">
-        <v>322</v>
+        <v>366</v>
       </c>
       <c r="L45" t="s">
-        <v>323</v>
+        <v>367</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>324</v>
+        <v>368</v>
       </c>
       <c r="O45" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="n">
@@ -4611,50 +4973,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>325</v>
+        <v>369</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>65357</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>148841</v>
+      </c>
+      <c r="C46" t="s">
+        <v>370</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>326</v>
+        <v>371</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>327</v>
+        <v>372</v>
       </c>
       <c r="J46" t="s">
-        <v>328</v>
+        <v>373</v>
       </c>
       <c r="K46" t="s">
-        <v>329</v>
+        <v>374</v>
       </c>
       <c r="L46" t="s">
-        <v>330</v>
+        <v>375</v>
       </c>
       <c r="M46" t="n">
         <v>3</v>
       </c>
       <c r="N46" t="s">
-        <v>223</v>
+        <v>251</v>
       </c>
       <c r="O46" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -4668,41 +5034,45 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>330</v>
+        <v>375</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>65357</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>148842</v>
+      </c>
+      <c r="C47" t="s">
+        <v>376</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>331</v>
+        <v>377</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>332</v>
+        <v>378</v>
       </c>
       <c r="J47" t="s">
-        <v>333</v>
+        <v>379</v>
       </c>
       <c r="K47" t="s">
-        <v>334</v>
+        <v>380</v>
       </c>
       <c r="L47" t="s">
-        <v>335</v>
+        <v>381</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
@@ -4721,50 +5091,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>336</v>
+        <v>382</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>65357</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>927</v>
+      </c>
+      <c r="C48" t="s">
+        <v>383</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>337</v>
+        <v>384</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>338</v>
+        <v>385</v>
       </c>
       <c r="J48" t="s">
-        <v>339</v>
+        <v>386</v>
       </c>
       <c r="K48" t="s">
-        <v>340</v>
+        <v>387</v>
       </c>
       <c r="L48" t="s">
-        <v>341</v>
+        <v>388</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>223</v>
+        <v>251</v>
       </c>
       <c r="O48" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -4782,50 +5156,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>342</v>
+        <v>389</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>65357</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>148843</v>
+      </c>
+      <c r="C49" t="s">
+        <v>390</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>343</v>
+        <v>391</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>344</v>
+        <v>392</v>
       </c>
       <c r="J49" t="s">
-        <v>345</v>
+        <v>393</v>
       </c>
       <c r="K49" t="s">
-        <v>346</v>
+        <v>394</v>
       </c>
       <c r="L49" t="s">
-        <v>347</v>
+        <v>395</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>223</v>
+        <v>251</v>
       </c>
       <c r="O49" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
@@ -4839,50 +5217,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>347</v>
+        <v>395</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>65357</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>148844</v>
+      </c>
+      <c r="C50" t="s">
+        <v>396</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>348</v>
+        <v>397</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>349</v>
+        <v>398</v>
       </c>
       <c r="J50" t="s">
-        <v>350</v>
+        <v>399</v>
       </c>
       <c r="K50" t="s">
-        <v>351</v>
+        <v>400</v>
       </c>
       <c r="L50" t="s">
-        <v>352</v>
+        <v>401</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>223</v>
+        <v>251</v>
       </c>
       <c r="O50" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
@@ -4894,56 +5276,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>353</v>
+        <v>402</v>
       </c>
       <c r="X50" t="s">
-        <v>354</v>
+        <v>403</v>
       </c>
       <c r="Y50" t="s">
-        <v>355</v>
+        <v>404</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>65357</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>148845</v>
+      </c>
+      <c r="C51" t="s">
+        <v>405</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>356</v>
+        <v>406</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>357</v>
+        <v>407</v>
       </c>
       <c r="J51" t="s">
-        <v>358</v>
+        <v>408</v>
       </c>
       <c r="K51" t="s">
-        <v>359</v>
+        <v>409</v>
       </c>
       <c r="L51" t="s">
-        <v>360</v>
+        <v>410</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>223</v>
+        <v>251</v>
       </c>
       <c r="O51" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P51" t="n">
         <v>5</v>
@@ -4961,47 +5347,51 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>361</v>
+        <v>411</v>
       </c>
       <c r="X51" t="s">
-        <v>362</v>
+        <v>412</v>
       </c>
       <c r="Y51" t="s">
-        <v>363</v>
+        <v>413</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>65357</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>148846</v>
+      </c>
+      <c r="C52" t="s">
+        <v>414</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>364</v>
+        <v>415</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>365</v>
+        <v>416</v>
       </c>
       <c r="J52" t="s">
-        <v>366</v>
+        <v>417</v>
       </c>
       <c r="K52" t="s">
-        <v>367</v>
+        <v>418</v>
       </c>
       <c r="L52" t="s">
-        <v>368</v>
+        <v>419</v>
       </c>
       <c r="M52" t="n">
         <v>1</v>
@@ -5018,56 +5408,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>361</v>
+        <v>411</v>
       </c>
       <c r="X52" t="s">
-        <v>362</v>
+        <v>412</v>
       </c>
       <c r="Y52" t="s">
-        <v>369</v>
+        <v>420</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>65357</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>16295</v>
+      </c>
+      <c r="C53" t="s">
+        <v>421</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>370</v>
+        <v>422</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>371</v>
+        <v>423</v>
       </c>
       <c r="J53" t="s">
-        <v>372</v>
+        <v>424</v>
       </c>
       <c r="K53" t="s">
-        <v>373</v>
+        <v>425</v>
       </c>
       <c r="L53" t="s">
-        <v>374</v>
+        <v>426</v>
       </c>
       <c r="M53" t="n">
         <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="O53" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="s"/>
@@ -5079,56 +5473,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>361</v>
+        <v>411</v>
       </c>
       <c r="X53" t="s">
-        <v>362</v>
+        <v>412</v>
       </c>
       <c r="Y53" t="s">
-        <v>375</v>
+        <v>427</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>65357</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>40</v>
+      </c>
+      <c r="C54" t="s">
+        <v>428</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>376</v>
+        <v>429</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>377</v>
+        <v>430</v>
       </c>
       <c r="J54" t="s">
-        <v>378</v>
+        <v>431</v>
       </c>
       <c r="K54" t="s">
-        <v>379</v>
+        <v>432</v>
       </c>
       <c r="L54" t="s">
-        <v>380</v>
+        <v>433</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="O54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P54" t="n">
         <v>4</v>
@@ -5146,56 +5544,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>361</v>
+        <v>411</v>
       </c>
       <c r="X54" t="s">
-        <v>362</v>
+        <v>412</v>
       </c>
       <c r="Y54" t="s">
-        <v>381</v>
+        <v>434</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>65357</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>78598</v>
+      </c>
+      <c r="C55" t="s">
+        <v>435</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>382</v>
+        <v>436</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>383</v>
+        <v>437</v>
       </c>
       <c r="J55" t="s">
-        <v>384</v>
+        <v>438</v>
       </c>
       <c r="K55" t="s">
-        <v>385</v>
+        <v>439</v>
       </c>
       <c r="L55" t="s">
-        <v>386</v>
+        <v>440</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="O55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
@@ -5207,56 +5609,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>361</v>
+        <v>411</v>
       </c>
       <c r="X55" t="s">
-        <v>362</v>
+        <v>412</v>
       </c>
       <c r="Y55" t="s">
-        <v>387</v>
+        <v>441</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>65357</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>148847</v>
+      </c>
+      <c r="C56" t="s">
+        <v>442</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>388</v>
+        <v>443</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="J56" t="s">
-        <v>390</v>
+        <v>445</v>
       </c>
       <c r="K56" t="s">
-        <v>391</v>
+        <v>446</v>
       </c>
       <c r="L56" t="s">
-        <v>392</v>
+        <v>447</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="O56" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="n">
@@ -5272,56 +5678,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>361</v>
+        <v>411</v>
       </c>
       <c r="X56" t="s">
-        <v>362</v>
+        <v>412</v>
       </c>
       <c r="Y56" t="s">
-        <v>393</v>
+        <v>448</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>65357</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>148848</v>
+      </c>
+      <c r="C57" t="s">
+        <v>449</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>394</v>
+        <v>450</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>395</v>
+        <v>451</v>
       </c>
       <c r="J57" t="s">
-        <v>396</v>
+        <v>452</v>
       </c>
       <c r="K57" t="s">
-        <v>397</v>
+        <v>453</v>
       </c>
       <c r="L57" t="s">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="M57" t="n">
         <v>4</v>
       </c>
       <c r="N57" t="s">
-        <v>399</v>
+        <v>455</v>
       </c>
       <c r="O57" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="P57" t="s"/>
       <c r="Q57" t="s"/>
@@ -5333,47 +5743,51 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>361</v>
+        <v>411</v>
       </c>
       <c r="X57" t="s">
-        <v>362</v>
+        <v>412</v>
       </c>
       <c r="Y57" t="s">
-        <v>400</v>
+        <v>456</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>65357</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>148849</v>
+      </c>
+      <c r="C58" t="s">
+        <v>457</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>401</v>
+        <v>458</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>402</v>
+        <v>459</v>
       </c>
       <c r="J58" t="s">
-        <v>403</v>
+        <v>460</v>
       </c>
       <c r="K58" t="s">
-        <v>404</v>
+        <v>461</v>
       </c>
       <c r="L58" t="s">
-        <v>405</v>
+        <v>462</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
@@ -5390,56 +5804,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>406</v>
+        <v>463</v>
       </c>
       <c r="X58" t="s">
-        <v>407</v>
+        <v>464</v>
       </c>
       <c r="Y58" t="s">
-        <v>408</v>
+        <v>465</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>65357</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>11016</v>
+      </c>
+      <c r="C59" t="s">
+        <v>466</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>409</v>
+        <v>467</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>410</v>
+        <v>468</v>
       </c>
       <c r="J59" t="s">
-        <v>411</v>
+        <v>469</v>
       </c>
       <c r="K59" t="s">
-        <v>412</v>
+        <v>470</v>
       </c>
       <c r="L59" t="s">
-        <v>413</v>
+        <v>471</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>414</v>
+        <v>472</v>
       </c>
       <c r="O59" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P59" t="s"/>
       <c r="Q59" t="s"/>
@@ -5451,56 +5869,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>406</v>
+        <v>463</v>
       </c>
       <c r="X59" t="s">
-        <v>407</v>
+        <v>464</v>
       </c>
       <c r="Y59" t="s">
-        <v>415</v>
+        <v>473</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>65357</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>148850</v>
+      </c>
+      <c r="C60" t="s">
+        <v>474</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>416</v>
+        <v>475</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>417</v>
+        <v>476</v>
       </c>
       <c r="J60" t="s">
-        <v>418</v>
+        <v>477</v>
       </c>
       <c r="K60" t="s">
-        <v>419</v>
+        <v>478</v>
       </c>
       <c r="L60" t="s">
-        <v>420</v>
+        <v>479</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>399</v>
+        <v>455</v>
       </c>
       <c r="O60" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P60" t="s"/>
       <c r="Q60" t="n">
@@ -5516,56 +5938,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>406</v>
+        <v>463</v>
       </c>
       <c r="X60" t="s">
-        <v>407</v>
+        <v>464</v>
       </c>
       <c r="Y60" t="s">
-        <v>421</v>
+        <v>480</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>65357</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>36449</v>
+      </c>
+      <c r="C61" t="s">
+        <v>481</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>422</v>
+        <v>482</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>423</v>
+        <v>483</v>
       </c>
       <c r="J61" t="s">
-        <v>424</v>
+        <v>484</v>
       </c>
       <c r="K61" t="s">
-        <v>425</v>
+        <v>485</v>
       </c>
       <c r="L61" t="s">
-        <v>426</v>
+        <v>486</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>414</v>
+        <v>472</v>
       </c>
       <c r="O61" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P61" t="s"/>
       <c r="Q61" t="n">
@@ -5583,56 +6009,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>406</v>
+        <v>463</v>
       </c>
       <c r="X61" t="s">
-        <v>407</v>
+        <v>464</v>
       </c>
       <c r="Y61" t="s">
-        <v>427</v>
+        <v>487</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>65357</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>148851</v>
+      </c>
+      <c r="C62" t="s">
+        <v>488</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>428</v>
+        <v>489</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>429</v>
+        <v>490</v>
       </c>
       <c r="J62" t="s">
-        <v>430</v>
+        <v>491</v>
       </c>
       <c r="K62" t="s">
-        <v>431</v>
+        <v>492</v>
       </c>
       <c r="L62" t="s">
-        <v>432</v>
+        <v>493</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>414</v>
+        <v>472</v>
       </c>
       <c r="O62" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
@@ -5650,56 +6080,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>406</v>
+        <v>463</v>
       </c>
       <c r="X62" t="s">
-        <v>407</v>
+        <v>464</v>
       </c>
       <c r="Y62" t="s">
-        <v>433</v>
+        <v>494</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>65357</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>17312</v>
+      </c>
+      <c r="C63" t="s">
+        <v>495</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>434</v>
+        <v>496</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>435</v>
+        <v>497</v>
       </c>
       <c r="J63" t="s">
-        <v>436</v>
+        <v>498</v>
       </c>
       <c r="K63" t="s">
-        <v>437</v>
+        <v>499</v>
       </c>
       <c r="L63" t="s">
-        <v>438</v>
+        <v>500</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>414</v>
+        <v>472</v>
       </c>
       <c r="O63" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P63" t="s"/>
       <c r="Q63" t="s"/>
@@ -5715,13 +6149,13 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>406</v>
+        <v>463</v>
       </c>
       <c r="X63" t="s">
-        <v>407</v>
+        <v>464</v>
       </c>
       <c r="Y63" t="s">
-        <v>439</v>
+        <v>501</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_295.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_295.xlsx
@@ -2101,7 +2101,7 @@
         <v>65357</v>
       </c>
       <c r="B2" t="n">
-        <v>148813</v>
+        <v>180271</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -2172,7 +2172,7 @@
         <v>65357</v>
       </c>
       <c r="B3" t="n">
-        <v>148814</v>
+        <v>180272</v>
       </c>
       <c r="C3" t="s">
         <v>55</v>
@@ -2239,7 +2239,7 @@
         <v>65357</v>
       </c>
       <c r="B4" t="n">
-        <v>148815</v>
+        <v>180273</v>
       </c>
       <c r="C4" t="s">
         <v>61</v>
@@ -2379,7 +2379,7 @@
         <v>65357</v>
       </c>
       <c r="B6" t="n">
-        <v>148816</v>
+        <v>180274</v>
       </c>
       <c r="C6" t="s">
         <v>78</v>
@@ -2509,7 +2509,7 @@
         <v>65357</v>
       </c>
       <c r="B8" t="n">
-        <v>148817</v>
+        <v>180275</v>
       </c>
       <c r="C8" t="s">
         <v>96</v>
@@ -2580,7 +2580,7 @@
         <v>65357</v>
       </c>
       <c r="B9" t="n">
-        <v>148818</v>
+        <v>180276</v>
       </c>
       <c r="C9" t="s">
         <v>102</v>
@@ -2651,7 +2651,7 @@
         <v>65357</v>
       </c>
       <c r="B10" t="n">
-        <v>148819</v>
+        <v>180277</v>
       </c>
       <c r="C10" t="s">
         <v>108</v>
@@ -3041,7 +3041,7 @@
         <v>65357</v>
       </c>
       <c r="B16" t="n">
-        <v>148820</v>
+        <v>180278</v>
       </c>
       <c r="C16" t="s">
         <v>149</v>
@@ -3102,7 +3102,7 @@
         <v>65357</v>
       </c>
       <c r="B17" t="n">
-        <v>148821</v>
+        <v>180279</v>
       </c>
       <c r="C17" t="s">
         <v>157</v>
@@ -3173,7 +3173,7 @@
         <v>65357</v>
       </c>
       <c r="B18" t="n">
-        <v>148822</v>
+        <v>180280</v>
       </c>
       <c r="C18" t="s">
         <v>166</v>
@@ -3238,7 +3238,7 @@
         <v>65357</v>
       </c>
       <c r="B19" t="n">
-        <v>148823</v>
+        <v>180281</v>
       </c>
       <c r="C19" t="s">
         <v>174</v>
@@ -3364,7 +3364,7 @@
         <v>65357</v>
       </c>
       <c r="B21" t="n">
-        <v>148824</v>
+        <v>180282</v>
       </c>
       <c r="C21" t="s">
         <v>190</v>
@@ -3498,7 +3498,7 @@
         <v>65357</v>
       </c>
       <c r="B23" t="n">
-        <v>148825</v>
+        <v>180283</v>
       </c>
       <c r="C23" t="s">
         <v>202</v>
@@ -3559,7 +3559,7 @@
         <v>65357</v>
       </c>
       <c r="B24" t="n">
-        <v>148826</v>
+        <v>180284</v>
       </c>
       <c r="C24" t="s">
         <v>209</v>
@@ -3624,7 +3624,7 @@
         <v>65357</v>
       </c>
       <c r="B25" t="n">
-        <v>148827</v>
+        <v>180285</v>
       </c>
       <c r="C25" t="s">
         <v>218</v>
@@ -3689,7 +3689,7 @@
         <v>65357</v>
       </c>
       <c r="B26" t="n">
-        <v>148828</v>
+        <v>180286</v>
       </c>
       <c r="C26" t="s">
         <v>225</v>
@@ -3746,7 +3746,7 @@
         <v>65357</v>
       </c>
       <c r="B27" t="n">
-        <v>148829</v>
+        <v>180287</v>
       </c>
       <c r="C27" t="s">
         <v>231</v>
@@ -3811,7 +3811,7 @@
         <v>65357</v>
       </c>
       <c r="B28" t="n">
-        <v>148830</v>
+        <v>180288</v>
       </c>
       <c r="C28" t="s">
         <v>238</v>
@@ -3941,7 +3941,7 @@
         <v>65357</v>
       </c>
       <c r="B30" t="n">
-        <v>148831</v>
+        <v>180289</v>
       </c>
       <c r="C30" t="s">
         <v>253</v>
@@ -4002,7 +4002,7 @@
         <v>65357</v>
       </c>
       <c r="B31" t="n">
-        <v>148832</v>
+        <v>180290</v>
       </c>
       <c r="C31" t="s">
         <v>260</v>
@@ -4063,7 +4063,7 @@
         <v>65357</v>
       </c>
       <c r="B32" t="n">
-        <v>148833</v>
+        <v>180291</v>
       </c>
       <c r="C32" t="s">
         <v>267</v>
@@ -4132,7 +4132,7 @@
         <v>65357</v>
       </c>
       <c r="B33" t="n">
-        <v>148834</v>
+        <v>180292</v>
       </c>
       <c r="C33" t="s">
         <v>276</v>
@@ -4199,7 +4199,7 @@
         <v>65357</v>
       </c>
       <c r="B34" t="n">
-        <v>148835</v>
+        <v>180293</v>
       </c>
       <c r="C34" t="s">
         <v>283</v>
@@ -4327,7 +4327,7 @@
         <v>65357</v>
       </c>
       <c r="B36" t="n">
-        <v>148836</v>
+        <v>180294</v>
       </c>
       <c r="C36" t="s">
         <v>297</v>
@@ -4396,7 +4396,7 @@
         <v>65357</v>
       </c>
       <c r="B37" t="n">
-        <v>148837</v>
+        <v>180295</v>
       </c>
       <c r="C37" t="s">
         <v>304</v>
@@ -4463,7 +4463,7 @@
         <v>65357</v>
       </c>
       <c r="B38" t="n">
-        <v>148838</v>
+        <v>180296</v>
       </c>
       <c r="C38" t="s">
         <v>310</v>
@@ -4528,7 +4528,7 @@
         <v>65357</v>
       </c>
       <c r="B39" t="n">
-        <v>148839</v>
+        <v>180297</v>
       </c>
       <c r="C39" t="s">
         <v>317</v>
@@ -4796,7 +4796,7 @@
         <v>65357</v>
       </c>
       <c r="B43" t="n">
-        <v>148840</v>
+        <v>180298</v>
       </c>
       <c r="C43" t="s">
         <v>348</v>
@@ -4981,7 +4981,7 @@
         <v>65357</v>
       </c>
       <c r="B46" t="n">
-        <v>148841</v>
+        <v>180299</v>
       </c>
       <c r="C46" t="s">
         <v>370</v>
@@ -5042,7 +5042,7 @@
         <v>65357</v>
       </c>
       <c r="B47" t="n">
-        <v>148842</v>
+        <v>180300</v>
       </c>
       <c r="C47" t="s">
         <v>376</v>
@@ -5164,7 +5164,7 @@
         <v>65357</v>
       </c>
       <c r="B49" t="n">
-        <v>148843</v>
+        <v>180301</v>
       </c>
       <c r="C49" t="s">
         <v>390</v>
@@ -5225,7 +5225,7 @@
         <v>65357</v>
       </c>
       <c r="B50" t="n">
-        <v>148844</v>
+        <v>180302</v>
       </c>
       <c r="C50" t="s">
         <v>396</v>
@@ -5290,7 +5290,7 @@
         <v>65357</v>
       </c>
       <c r="B51" t="n">
-        <v>148845</v>
+        <v>180303</v>
       </c>
       <c r="C51" t="s">
         <v>405</v>
@@ -5361,7 +5361,7 @@
         <v>65357</v>
       </c>
       <c r="B52" t="n">
-        <v>148846</v>
+        <v>180304</v>
       </c>
       <c r="C52" t="s">
         <v>414</v>
@@ -5623,7 +5623,7 @@
         <v>65357</v>
       </c>
       <c r="B56" t="n">
-        <v>148847</v>
+        <v>180305</v>
       </c>
       <c r="C56" t="s">
         <v>442</v>
@@ -5692,7 +5692,7 @@
         <v>65357</v>
       </c>
       <c r="B57" t="n">
-        <v>148848</v>
+        <v>180306</v>
       </c>
       <c r="C57" t="s">
         <v>449</v>
@@ -5757,7 +5757,7 @@
         <v>65357</v>
       </c>
       <c r="B58" t="n">
-        <v>148849</v>
+        <v>180307</v>
       </c>
       <c r="C58" t="s">
         <v>457</v>
@@ -5883,7 +5883,7 @@
         <v>65357</v>
       </c>
       <c r="B60" t="n">
-        <v>148850</v>
+        <v>180308</v>
       </c>
       <c r="C60" t="s">
         <v>474</v>
@@ -6023,7 +6023,7 @@
         <v>65357</v>
       </c>
       <c r="B62" t="n">
-        <v>148851</v>
+        <v>180309</v>
       </c>
       <c r="C62" t="s">
         <v>488</v>
